--- a/name/vnindex/20230111/VNINDEX_HOSE_5p_20230111.xlsx
+++ b/name/vnindex/20230111/VNINDEX_HOSE_5p_20230111.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1673428500000</v>
+        <v>1673428440000</v>
       </c>
       <c r="B2">
-        <v>13300900</v>
+        <v>7399600</v>
       </c>
       <c r="C2">
-        <v>7888800</v>
+        <v>2757900</v>
       </c>
       <c r="D2">
-        <v>6017900</v>
+        <v>5969300</v>
       </c>
       <c r="E2">
-        <v>104176078000</v>
+        <v>52985032000</v>
       </c>
       <c r="F2">
-        <v>120075477000</v>
+        <v>48219945000</v>
       </c>
       <c r="G2">
-        <v>61005068000</v>
+        <v>60479720000</v>
       </c>
       <c r="H2">
-        <v>27207600</v>
+        <v>16126800</v>
       </c>
       <c r="I2">
-        <v>285256623000</v>
+        <v>161684697000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-11T09:15:00.000Z</v>
+        <v>2023-01-11T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>285256623000</v>
+        <v>161684697000</v>
       </c>
       <c r="L2">
-        <v>27207600</v>
+        <v>16126800</v>
       </c>
       <c r="M2">
-        <v>-5412100</v>
+        <v>-4641700</v>
       </c>
       <c r="N2">
-        <v>15899399000</v>
+        <v>-4765087000</v>
       </c>
       <c r="O2">
-        <v>-5412100</v>
+        <v>-4641700</v>
       </c>
       <c r="P2">
-        <v>15899399000</v>
+        <v>-4765087000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1673428800000</v>
+        <v>1673428560000</v>
       </c>
       <c r="B3">
-        <v>4210700</v>
+        <v>4198200</v>
       </c>
       <c r="C3">
-        <v>3849400</v>
+        <v>2606400</v>
       </c>
       <c r="D3">
-        <v>68500</v>
+        <v>34400</v>
       </c>
       <c r="E3">
-        <v>50528224000</v>
+        <v>31755572000</v>
       </c>
       <c r="F3">
-        <v>54288837000</v>
+        <v>38075076000</v>
       </c>
       <c r="G3">
-        <v>624172000</v>
+        <v>419714000</v>
       </c>
       <c r="H3">
-        <v>8128600</v>
+        <v>6839000</v>
       </c>
       <c r="I3">
-        <v>105441233000</v>
+        <v>70250362000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-11T09:20:00.000Z</v>
+        <v>2023-01-11T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>390697856000</v>
+        <v>231935059000</v>
       </c>
       <c r="L3">
-        <v>35336200</v>
+        <v>22965800</v>
       </c>
       <c r="M3">
-        <v>-361300</v>
+        <v>-1591800</v>
       </c>
       <c r="N3">
-        <v>3760613000</v>
+        <v>6319504000</v>
       </c>
       <c r="O3">
-        <v>-5773400</v>
+        <v>-6233500</v>
       </c>
       <c r="P3">
-        <v>19660012000</v>
+        <v>1554417000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1673429100000</v>
+        <v>1673428680000</v>
       </c>
       <c r="B4">
-        <v>3142500</v>
+        <v>1703100</v>
       </c>
       <c r="C4">
-        <v>3892200</v>
+        <v>2524500</v>
       </c>
       <c r="D4">
-        <v>67200</v>
+        <v>14200</v>
       </c>
       <c r="E4">
-        <v>40727397000</v>
+        <v>19435474000</v>
       </c>
       <c r="F4">
-        <v>57059621000</v>
+        <v>33780456000</v>
       </c>
       <c r="G4">
-        <v>852632000</v>
+        <v>105634000</v>
       </c>
       <c r="H4">
-        <v>7101900</v>
+        <v>4241800</v>
       </c>
       <c r="I4">
-        <v>98639650000</v>
+        <v>53321564000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-11T09:25:00.000Z</v>
+        <v>2023-01-11T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>489337506000</v>
+        <v>285256623000</v>
       </c>
       <c r="L4">
-        <v>42438100</v>
+        <v>27207600</v>
       </c>
       <c r="M4">
-        <v>749700</v>
+        <v>821400</v>
       </c>
       <c r="N4">
-        <v>16332224000</v>
+        <v>14344982000</v>
       </c>
       <c r="O4">
-        <v>-5023700</v>
+        <v>-5412100</v>
       </c>
       <c r="P4">
-        <v>35992236000</v>
+        <v>15899399000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1673429400000</v>
+        <v>1673428800000</v>
       </c>
       <c r="B5">
-        <v>3125600</v>
+        <v>1951100</v>
       </c>
       <c r="C5">
-        <v>7714800</v>
+        <v>1857300</v>
       </c>
       <c r="D5">
-        <v>60600</v>
+        <v>14600</v>
       </c>
       <c r="E5">
-        <v>49144820000</v>
+        <v>20700753000</v>
       </c>
       <c r="F5">
-        <v>119308926000</v>
+        <v>26968574000</v>
       </c>
       <c r="G5">
-        <v>960355000</v>
+        <v>90943000</v>
       </c>
       <c r="H5">
-        <v>10901000</v>
+        <v>3823000</v>
       </c>
       <c r="I5">
-        <v>169414101000</v>
+        <v>47760270000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-11T09:30:00.000Z</v>
+        <v>2023-01-11T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>658751607000</v>
+        <v>333016893000</v>
       </c>
       <c r="L5">
-        <v>53339100</v>
+        <v>31030600</v>
       </c>
       <c r="M5">
-        <v>4589200</v>
+        <v>-93800</v>
       </c>
       <c r="N5">
-        <v>70164106000</v>
+        <v>6267821000</v>
       </c>
       <c r="O5">
-        <v>-434500</v>
+        <v>-5505900</v>
       </c>
       <c r="P5">
-        <v>106156342000</v>
+        <v>22167220000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1673429700000</v>
+        <v>1673428920000</v>
       </c>
       <c r="B6">
-        <v>3679900</v>
+        <v>1651000</v>
       </c>
       <c r="C6">
-        <v>11232800</v>
+        <v>1446600</v>
       </c>
       <c r="D6">
-        <v>47700</v>
+        <v>5400</v>
       </c>
       <c r="E6">
-        <v>56929598000</v>
+        <v>21745373000</v>
       </c>
       <c r="F6">
-        <v>187885167000</v>
+        <v>18833310000</v>
       </c>
       <c r="G6">
-        <v>743680000</v>
+        <v>71669000</v>
       </c>
       <c r="H6">
-        <v>14960400</v>
+        <v>3103000</v>
       </c>
       <c r="I6">
-        <v>245558445000</v>
+        <v>40650352000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-11T09:35:00.000Z</v>
+        <v>2023-01-11T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>904310052000</v>
+        <v>373667245000</v>
       </c>
       <c r="L6">
-        <v>68299500</v>
+        <v>34133600</v>
       </c>
       <c r="M6">
-        <v>7552900</v>
+        <v>-204400</v>
       </c>
       <c r="N6">
-        <v>130955569000</v>
+        <v>-2912063000</v>
       </c>
       <c r="O6">
-        <v>7118400</v>
+        <v>-5710300</v>
       </c>
       <c r="P6">
-        <v>237111911000</v>
+        <v>19255157000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1673430000000</v>
+        <v>1673429040000</v>
       </c>
       <c r="B7">
-        <v>4529800</v>
+        <v>1157500</v>
       </c>
       <c r="C7">
-        <v>14220800</v>
+        <v>1434200</v>
       </c>
       <c r="D7">
-        <v>28200</v>
+        <v>53400</v>
       </c>
       <c r="E7">
-        <v>79929506000</v>
+        <v>15563778000</v>
       </c>
       <c r="F7">
-        <v>223342487000</v>
+        <v>20450696000</v>
       </c>
       <c r="G7">
-        <v>1125044000</v>
+        <v>523559000</v>
       </c>
       <c r="H7">
-        <v>18778800</v>
+        <v>2645100</v>
       </c>
       <c r="I7">
-        <v>304397037000</v>
+        <v>36538033000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-11T09:40:00.000Z</v>
+        <v>2023-01-11T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1208707089000</v>
+        <v>410205278000</v>
       </c>
       <c r="L7">
-        <v>87078300</v>
+        <v>36778700</v>
       </c>
       <c r="M7">
-        <v>9691000</v>
+        <v>276700</v>
       </c>
       <c r="N7">
-        <v>143412981000</v>
+        <v>4886918000</v>
       </c>
       <c r="O7">
-        <v>16809400</v>
+        <v>-5433600</v>
       </c>
       <c r="P7">
-        <v>380524892000</v>
+        <v>24142075000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1673430300000</v>
+        <v>1673429160000</v>
       </c>
       <c r="B8">
-        <v>4816900</v>
+        <v>1252800</v>
       </c>
       <c r="C8">
-        <v>6348600</v>
+        <v>1227300</v>
       </c>
       <c r="D8">
-        <v>30800</v>
+        <v>6500</v>
       </c>
       <c r="E8">
-        <v>73750384000</v>
+        <v>16366009000</v>
       </c>
       <c r="F8">
-        <v>99913711000</v>
+        <v>17199579000</v>
       </c>
       <c r="G8">
-        <v>445980000</v>
+        <v>37266000</v>
       </c>
       <c r="H8">
-        <v>11196300</v>
+        <v>2486600</v>
       </c>
       <c r="I8">
-        <v>174110075000</v>
+        <v>33602854000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-11T09:45:00.000Z</v>
+        <v>2023-01-11T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1382817164000</v>
+        <v>443808132000</v>
       </c>
       <c r="L8">
-        <v>98274600</v>
+        <v>39265300</v>
       </c>
       <c r="M8">
-        <v>1531700</v>
+        <v>-25500</v>
       </c>
       <c r="N8">
-        <v>26163327000</v>
+        <v>833570000</v>
       </c>
       <c r="O8">
-        <v>18341100</v>
+        <v>-5459100</v>
       </c>
       <c r="P8">
-        <v>406688219000</v>
+        <v>24975645000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1673430600000</v>
+        <v>1673429280000</v>
       </c>
       <c r="B9">
-        <v>4672600</v>
+        <v>1340800</v>
       </c>
       <c r="C9">
-        <v>3946800</v>
+        <v>1776200</v>
       </c>
       <c r="D9">
-        <v>31100</v>
+        <v>55800</v>
       </c>
       <c r="E9">
-        <v>71983389000</v>
+        <v>16879708000</v>
       </c>
       <c r="F9">
-        <v>77375498000</v>
+        <v>27896299000</v>
       </c>
       <c r="G9">
-        <v>230917000</v>
+        <v>753367000</v>
       </c>
       <c r="H9">
-        <v>8650500</v>
+        <v>3172800</v>
       </c>
       <c r="I9">
-        <v>149589804000</v>
+        <v>45529374000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-11T09:50:00.000Z</v>
+        <v>2023-01-11T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1532406968000</v>
+        <v>489337506000</v>
       </c>
       <c r="L9">
-        <v>106925100</v>
+        <v>42438100</v>
       </c>
       <c r="M9">
-        <v>-725800</v>
+        <v>435400</v>
       </c>
       <c r="N9">
-        <v>5392109000</v>
+        <v>11016591000</v>
       </c>
       <c r="O9">
-        <v>17615300</v>
+        <v>-5023700</v>
       </c>
       <c r="P9">
-        <v>412080328000</v>
+        <v>35992236000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1673430900000</v>
+        <v>1673429400000</v>
       </c>
       <c r="B10">
-        <v>3551600</v>
+        <v>1111100</v>
       </c>
       <c r="C10">
-        <v>3535900</v>
+        <v>2264900</v>
       </c>
       <c r="D10">
-        <v>7700</v>
+        <v>800</v>
       </c>
       <c r="E10">
-        <v>60404060000</v>
+        <v>17815177000</v>
       </c>
       <c r="F10">
-        <v>61757189000</v>
+        <v>34004665000</v>
       </c>
       <c r="G10">
-        <v>122558000.00000001</v>
+        <v>15115000</v>
       </c>
       <c r="H10">
-        <v>7095200</v>
+        <v>3376800</v>
       </c>
       <c r="I10">
-        <v>122283807000</v>
+        <v>51834957000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-11T09:55:00.000Z</v>
+        <v>2023-01-11T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1654690775000</v>
+        <v>541172463000</v>
       </c>
       <c r="L10">
-        <v>114020300</v>
+        <v>45814900</v>
       </c>
       <c r="M10">
-        <v>-15700</v>
+        <v>1153800</v>
       </c>
       <c r="N10">
-        <v>1353129000</v>
+        <v>16189488000</v>
       </c>
       <c r="O10">
-        <v>17599600</v>
+        <v>-3869900</v>
       </c>
       <c r="P10">
-        <v>413433457000</v>
+        <v>52181724000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1673431200000</v>
+        <v>1673429520000</v>
       </c>
       <c r="B11">
-        <v>7286700</v>
+        <v>1071200</v>
       </c>
       <c r="C11">
-        <v>2848500</v>
+        <v>2744800</v>
       </c>
       <c r="D11">
-        <v>30300</v>
+        <v>5700</v>
       </c>
       <c r="E11">
-        <v>112263845000</v>
+        <v>16277062000</v>
       </c>
       <c r="F11">
-        <v>46518152000</v>
+        <v>42805319000</v>
       </c>
       <c r="G11">
-        <v>387454000</v>
+        <v>84020000</v>
       </c>
       <c r="H11">
-        <v>10165500</v>
+        <v>3821700</v>
       </c>
       <c r="I11">
-        <v>159169451000</v>
+        <v>59166401000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-11T10:00:00.000Z</v>
+        <v>2023-01-11T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1813860226000</v>
+        <v>600338864000</v>
       </c>
       <c r="L11">
-        <v>124185800</v>
+        <v>49636600</v>
       </c>
       <c r="M11">
-        <v>-4438200</v>
+        <v>1673600</v>
       </c>
       <c r="N11">
-        <v>-65745693000</v>
+        <v>26528257000</v>
       </c>
       <c r="O11">
-        <v>13161400</v>
+        <v>-2196300</v>
       </c>
       <c r="P11">
-        <v>347687764000</v>
+        <v>78709981000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1673431500000</v>
+        <v>1673429640000</v>
       </c>
       <c r="B12">
-        <v>4353500</v>
+        <v>1684600</v>
       </c>
       <c r="C12">
-        <v>3543600</v>
+        <v>5060000</v>
       </c>
       <c r="D12">
-        <v>61100</v>
+        <v>64000</v>
       </c>
       <c r="E12">
-        <v>70212879000</v>
+        <v>25885879000</v>
       </c>
       <c r="F12">
-        <v>58877235000</v>
+        <v>77238452000</v>
       </c>
       <c r="G12">
-        <v>1878825000</v>
+        <v>1055500000</v>
       </c>
       <c r="H12">
-        <v>7958200</v>
+        <v>6808600</v>
       </c>
       <c r="I12">
-        <v>130968939000</v>
+        <v>104179831000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-11T10:05:00.000Z</v>
+        <v>2023-01-11T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1944829165000</v>
+        <v>704518695000</v>
       </c>
       <c r="L12">
-        <v>132144000</v>
+        <v>56445200</v>
       </c>
       <c r="M12">
-        <v>-809900</v>
+        <v>3375400</v>
       </c>
       <c r="N12">
-        <v>-11335644000</v>
+        <v>51352573000</v>
       </c>
       <c r="O12">
-        <v>12351500</v>
+        <v>1179100</v>
       </c>
       <c r="P12">
-        <v>336352120000</v>
+        <v>130062554000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1673431800000</v>
+        <v>1673429760000</v>
       </c>
       <c r="B13">
-        <v>3190800</v>
+        <v>1453600</v>
       </c>
       <c r="C13">
-        <v>3324900</v>
+        <v>3991500</v>
       </c>
       <c r="D13">
-        <v>23200</v>
+        <v>13500</v>
       </c>
       <c r="E13">
-        <v>52224763000</v>
+        <v>22429414000</v>
       </c>
       <c r="F13">
-        <v>66715545000</v>
+        <v>72120671000</v>
       </c>
       <c r="G13">
-        <v>255823000</v>
+        <v>224568000</v>
       </c>
       <c r="H13">
-        <v>6538900</v>
+        <v>5458600</v>
       </c>
       <c r="I13">
-        <v>119196131000</v>
+        <v>94774653000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-11T10:10:00.000Z</v>
+        <v>2023-01-11T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2064025296000</v>
+        <v>799293348000</v>
       </c>
       <c r="L13">
-        <v>138682900</v>
+        <v>61903800</v>
       </c>
       <c r="M13">
-        <v>134100</v>
+        <v>2537900</v>
       </c>
       <c r="N13">
-        <v>14490782000</v>
+        <v>49691257000</v>
       </c>
       <c r="O13">
-        <v>12485600</v>
+        <v>3717000</v>
       </c>
       <c r="P13">
-        <v>350842902000</v>
+        <v>179753811000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1673432100000</v>
+        <v>1673429880000</v>
       </c>
       <c r="B14">
-        <v>2849100</v>
+        <v>1485000</v>
       </c>
       <c r="C14">
-        <v>4501500</v>
+        <v>4886400</v>
       </c>
       <c r="D14">
-        <v>5900</v>
+        <v>24300</v>
       </c>
       <c r="E14">
-        <v>49511725000</v>
+        <v>23666886000</v>
       </c>
       <c r="F14">
-        <v>80284597000</v>
+        <v>81024986000</v>
       </c>
       <c r="G14">
-        <v>128305000</v>
+        <v>324832000</v>
       </c>
       <c r="H14">
-        <v>7356500</v>
+        <v>6395700</v>
       </c>
       <c r="I14">
-        <v>129924627000</v>
+        <v>105016704000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-11T10:15:00.000Z</v>
+        <v>2023-01-11T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>2193949923000</v>
+        <v>904310052000</v>
       </c>
       <c r="L14">
-        <v>146039400</v>
+        <v>68299500</v>
       </c>
       <c r="M14">
-        <v>1652400</v>
+        <v>3401400</v>
       </c>
       <c r="N14">
-        <v>30772872000</v>
+        <v>57358100000</v>
       </c>
       <c r="O14">
-        <v>14138000</v>
+        <v>7118400</v>
       </c>
       <c r="P14">
-        <v>381615774000</v>
+        <v>237111911000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1673432400000</v>
+        <v>1673430000000</v>
       </c>
       <c r="B15">
-        <v>3575000</v>
+        <v>1482500</v>
       </c>
       <c r="C15">
-        <v>8419400</v>
+        <v>5190500</v>
       </c>
       <c r="D15">
-        <v>15000</v>
+        <v>17100</v>
       </c>
       <c r="E15">
-        <v>61675353000</v>
+        <v>24690240000</v>
       </c>
       <c r="F15">
-        <v>143479995000</v>
+        <v>82585647000</v>
       </c>
       <c r="G15">
-        <v>115301000</v>
+        <v>883519000</v>
       </c>
       <c r="H15">
-        <v>12009400</v>
+        <v>6690100</v>
       </c>
       <c r="I15">
-        <v>205270649000</v>
+        <v>108159406000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-11T10:20:00.000Z</v>
+        <v>2023-01-11T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2399220572000</v>
+        <v>1012469458000</v>
       </c>
       <c r="L15">
-        <v>158048800</v>
+        <v>74989600</v>
       </c>
       <c r="M15">
-        <v>4844400</v>
+        <v>3708000</v>
       </c>
       <c r="N15">
-        <v>81804642000</v>
+        <v>57895407000</v>
       </c>
       <c r="O15">
-        <v>18982400</v>
+        <v>10826400</v>
       </c>
       <c r="P15">
-        <v>463420416000</v>
+        <v>295007318000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1673432700000</v>
+        <v>1673430120000</v>
       </c>
       <c r="B16">
-        <v>3255700</v>
+        <v>1909200</v>
       </c>
       <c r="C16">
-        <v>8707300</v>
+        <v>4564500</v>
       </c>
       <c r="D16">
-        <v>32800</v>
+        <v>9000</v>
       </c>
       <c r="E16">
-        <v>59013481000</v>
+        <v>34590677000</v>
       </c>
       <c r="F16">
-        <v>148355349000</v>
+        <v>72287510000</v>
       </c>
       <c r="G16">
-        <v>583960000</v>
+        <v>208381000</v>
       </c>
       <c r="H16">
-        <v>11995800</v>
+        <v>6482700</v>
       </c>
       <c r="I16">
-        <v>207952790000</v>
+        <v>107086568000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-11T10:25:00.000Z</v>
+        <v>2023-01-11T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2607173362000</v>
+        <v>1119556026000</v>
       </c>
       <c r="L16">
-        <v>170044600</v>
+        <v>81472300</v>
       </c>
       <c r="M16">
-        <v>5451600</v>
+        <v>2655300</v>
       </c>
       <c r="N16">
-        <v>89341868000</v>
+        <v>37696833000</v>
       </c>
       <c r="O16">
-        <v>24434000</v>
+        <v>13481700</v>
       </c>
       <c r="P16">
-        <v>552762284000</v>
+        <v>332704151000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1673433000000</v>
+        <v>1673430240000</v>
       </c>
       <c r="B17">
-        <v>3587200</v>
+        <v>2417400</v>
       </c>
       <c r="C17">
-        <v>5092300</v>
+        <v>5939000</v>
       </c>
       <c r="D17">
-        <v>13300</v>
+        <v>5900</v>
       </c>
       <c r="E17">
-        <v>58735919000</v>
+        <v>41792577000</v>
       </c>
       <c r="F17">
-        <v>94349069000</v>
+        <v>91406732000</v>
       </c>
       <c r="G17">
-        <v>263976000</v>
+        <v>101122000</v>
       </c>
       <c r="H17">
-        <v>8692800</v>
+        <v>8362300</v>
       </c>
       <c r="I17">
-        <v>153348964000</v>
+        <v>133300431000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-11T10:30:00.000Z</v>
+        <v>2023-01-11T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2760522326000</v>
+        <v>1252856457000</v>
       </c>
       <c r="L17">
-        <v>178737400</v>
+        <v>89834600</v>
       </c>
       <c r="M17">
-        <v>1505100</v>
+        <v>3521600</v>
       </c>
       <c r="N17">
-        <v>35613150000</v>
+        <v>49614155000</v>
       </c>
       <c r="O17">
-        <v>25939100</v>
+        <v>17003300</v>
       </c>
       <c r="P17">
-        <v>588375434000</v>
+        <v>382318306000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1673433300000</v>
+        <v>1673430360000</v>
       </c>
       <c r="B18">
-        <v>3275500</v>
+        <v>2024700</v>
       </c>
       <c r="C18">
-        <v>7089300</v>
+        <v>2213100</v>
       </c>
       <c r="D18">
-        <v>43500</v>
+        <v>17200</v>
       </c>
       <c r="E18">
-        <v>57384542000</v>
+        <v>29399213000</v>
       </c>
       <c r="F18">
-        <v>133224318000</v>
+        <v>34602886000</v>
       </c>
       <c r="G18">
-        <v>968568000</v>
+        <v>242861000</v>
       </c>
       <c r="H18">
-        <v>10408300</v>
+        <v>4255000</v>
       </c>
       <c r="I18">
-        <v>191577428000</v>
+        <v>64244960000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-11T10:35:00.000Z</v>
+        <v>2023-01-11T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2952099754000</v>
+        <v>1317101417000</v>
       </c>
       <c r="L18">
-        <v>189145700</v>
+        <v>94089600</v>
       </c>
       <c r="M18">
-        <v>3813800</v>
+        <v>188400</v>
       </c>
       <c r="N18">
-        <v>75839776000</v>
+        <v>5203673000</v>
       </c>
       <c r="O18">
-        <v>29752900</v>
+        <v>17191700</v>
       </c>
       <c r="P18">
-        <v>664215210000</v>
+        <v>387521979000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1673433600000</v>
+        <v>1673430480000</v>
       </c>
       <c r="B19">
-        <v>2843900</v>
+        <v>1512900</v>
       </c>
       <c r="C19">
-        <v>8071700</v>
+        <v>2662300</v>
       </c>
       <c r="D19">
-        <v>37800</v>
+        <v>9800</v>
       </c>
       <c r="E19">
-        <v>48169768000</v>
+        <v>23207183000</v>
       </c>
       <c r="F19">
-        <v>141677424000</v>
+        <v>42373423000</v>
       </c>
       <c r="G19">
-        <v>387918000</v>
+        <v>135141000</v>
       </c>
       <c r="H19">
-        <v>10953400</v>
+        <v>4185000</v>
       </c>
       <c r="I19">
-        <v>190235110000</v>
+        <v>65715747000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-11T10:40:00.000Z</v>
+        <v>2023-01-11T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>3142334864000</v>
+        <v>1382817164000</v>
       </c>
       <c r="L19">
-        <v>200099100</v>
+        <v>98274600</v>
       </c>
       <c r="M19">
-        <v>5227800</v>
+        <v>1149400</v>
       </c>
       <c r="N19">
-        <v>93507656000</v>
+        <v>19166240000</v>
       </c>
       <c r="O19">
-        <v>34980700</v>
+        <v>18341100</v>
       </c>
       <c r="P19">
-        <v>757722866000</v>
+        <v>406688219000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1673433900000</v>
+        <v>1673430600000</v>
       </c>
       <c r="B20">
-        <v>3072200</v>
+        <v>1668800</v>
       </c>
       <c r="C20">
-        <v>13931100</v>
+        <v>1727700</v>
       </c>
       <c r="D20">
-        <v>50000</v>
+        <v>14600</v>
       </c>
       <c r="E20">
-        <v>54657660000</v>
+        <v>25967512000</v>
       </c>
       <c r="F20">
-        <v>236987875000</v>
+        <v>37990109000</v>
       </c>
       <c r="G20">
-        <v>1023422000</v>
+        <v>105462000</v>
       </c>
       <c r="H20">
-        <v>17053300</v>
+        <v>3411100</v>
       </c>
       <c r="I20">
-        <v>292668957000</v>
+        <v>64063083000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-11T10:45:00.000Z</v>
+        <v>2023-01-11T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>3435003821000</v>
+        <v>1446880247000</v>
       </c>
       <c r="L20">
-        <v>217152400</v>
+        <v>101685700</v>
       </c>
       <c r="M20">
-        <v>10858900</v>
+        <v>58900</v>
       </c>
       <c r="N20">
-        <v>182330215000</v>
+        <v>12022597000</v>
       </c>
       <c r="O20">
-        <v>45839600</v>
+        <v>18400000</v>
       </c>
       <c r="P20">
-        <v>940053081000</v>
+        <v>418710816000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1673434200000</v>
+        <v>1673430720000</v>
       </c>
       <c r="B21">
-        <v>3918600</v>
+        <v>1925300</v>
       </c>
       <c r="C21">
-        <v>17921300</v>
+        <v>1255600</v>
       </c>
       <c r="D21">
-        <v>25000</v>
+        <v>7700</v>
       </c>
       <c r="E21">
-        <v>60739544000</v>
+        <v>30824008000</v>
       </c>
       <c r="F21">
-        <v>311162470000</v>
+        <v>21759782000</v>
       </c>
       <c r="G21">
-        <v>663553000</v>
+        <v>82944000</v>
       </c>
       <c r="H21">
-        <v>21864900</v>
+        <v>3188600</v>
       </c>
       <c r="I21">
-        <v>372565567000</v>
+        <v>52666734000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-11T10:50:00.000Z</v>
+        <v>2023-01-11T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>3807569388000</v>
+        <v>1499546981000</v>
       </c>
       <c r="L21">
-        <v>239017300</v>
+        <v>104874300</v>
       </c>
       <c r="M21">
-        <v>14002700</v>
+        <v>-669700</v>
       </c>
       <c r="N21">
-        <v>250422926000</v>
+        <v>-9064226000</v>
       </c>
       <c r="O21">
-        <v>59842300</v>
+        <v>17730300</v>
       </c>
       <c r="P21">
-        <v>1190476007000</v>
+        <v>409646590000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1673434500000</v>
+        <v>1673430840000</v>
       </c>
       <c r="B22">
-        <v>5437600</v>
+        <v>1857300</v>
       </c>
       <c r="C22">
-        <v>5294800</v>
+        <v>1563000</v>
       </c>
       <c r="D22">
-        <v>42000</v>
+        <v>13500</v>
       </c>
       <c r="E22">
-        <v>88484638000</v>
+        <v>26217122000</v>
       </c>
       <c r="F22">
-        <v>95309963000</v>
+        <v>28022538000</v>
       </c>
       <c r="G22">
-        <v>1452591000</v>
+        <v>67072000.00000001</v>
       </c>
       <c r="H22">
-        <v>10774400</v>
+        <v>3433800</v>
       </c>
       <c r="I22">
-        <v>185247192000</v>
+        <v>54306732000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-11T10:55:00.000Z</v>
+        <v>2023-01-11T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>3992816580000</v>
+        <v>1553853713000</v>
       </c>
       <c r="L22">
-        <v>249791700</v>
+        <v>108308100</v>
       </c>
       <c r="M22">
-        <v>-142800</v>
+        <v>-294300</v>
       </c>
       <c r="N22">
-        <v>6825325000</v>
+        <v>1805416000</v>
       </c>
       <c r="O22">
-        <v>59699500</v>
+        <v>17436000</v>
       </c>
       <c r="P22">
-        <v>1197301332000</v>
+        <v>411452006000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1673434800000</v>
+        <v>1673430960000</v>
       </c>
       <c r="B23">
-        <v>4580200</v>
+        <v>1210800</v>
       </c>
       <c r="C23">
-        <v>3803200</v>
+        <v>1361000</v>
       </c>
       <c r="D23">
-        <v>47300</v>
+        <v>2000</v>
       </c>
       <c r="E23">
-        <v>77812070000</v>
+        <v>20164458000</v>
       </c>
       <c r="F23">
-        <v>76198138000</v>
+        <v>23771369000</v>
       </c>
       <c r="G23">
-        <v>1039184000</v>
+        <v>89231000.00000001</v>
       </c>
       <c r="H23">
-        <v>8430700</v>
+        <v>2573800</v>
       </c>
       <c r="I23">
-        <v>155049392000</v>
+        <v>44025058000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-11T11:00:00.000Z</v>
+        <v>2023-01-11T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4147865972000</v>
+        <v>1597878771000</v>
       </c>
       <c r="L23">
-        <v>258222400</v>
+        <v>110881900</v>
       </c>
       <c r="M23">
-        <v>-777000</v>
+        <v>150200</v>
       </c>
       <c r="N23">
-        <v>-1613932000</v>
+        <v>3606911000</v>
       </c>
       <c r="O23">
-        <v>58922500</v>
+        <v>17586200</v>
       </c>
       <c r="P23">
-        <v>1195687400000</v>
+        <v>415058917000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1673435100000</v>
+        <v>1673431080000</v>
       </c>
       <c r="B24">
-        <v>4445500</v>
+        <v>1562000</v>
       </c>
       <c r="C24">
-        <v>3648200</v>
+        <v>1575400</v>
       </c>
       <c r="D24">
-        <v>13000</v>
+        <v>1000</v>
       </c>
       <c r="E24">
-        <v>68027235000</v>
+        <v>29214349000</v>
       </c>
       <c r="F24">
-        <v>72850462000</v>
+        <v>27588889000</v>
       </c>
       <c r="G24">
-        <v>165862000</v>
+        <v>8766000</v>
       </c>
       <c r="H24">
-        <v>8106700</v>
+        <v>3138400</v>
       </c>
       <c r="I24">
-        <v>141043559000</v>
+        <v>56812004000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-11T11:05:00.000Z</v>
+        <v>2023-01-11T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4288909531000</v>
+        <v>1654690775000</v>
       </c>
       <c r="L24">
-        <v>266329100</v>
+        <v>114020300</v>
       </c>
       <c r="M24">
-        <v>-797300</v>
+        <v>13400</v>
       </c>
       <c r="N24">
-        <v>4823227000</v>
+        <v>-1625460000</v>
       </c>
       <c r="O24">
-        <v>58125200</v>
+        <v>17599600</v>
       </c>
       <c r="P24">
-        <v>1200510627000</v>
+        <v>413433457000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1673435400000</v>
+        <v>1673431200000</v>
       </c>
       <c r="B25">
-        <v>3113600</v>
+        <v>1826100</v>
       </c>
       <c r="C25">
-        <v>2445300</v>
+        <v>1454200</v>
       </c>
       <c r="D25">
-        <v>18600</v>
+        <v>2800</v>
       </c>
       <c r="E25">
-        <v>57243622000</v>
+        <v>29631070000</v>
       </c>
       <c r="F25">
-        <v>54228964000</v>
+        <v>22597098000</v>
       </c>
       <c r="G25">
-        <v>889305000</v>
+        <v>63614000</v>
       </c>
       <c r="H25">
-        <v>5577500</v>
+        <v>3283100</v>
       </c>
       <c r="I25">
-        <v>112361891000</v>
+        <v>52291782000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-11T11:10:00.000Z</v>
+        <v>2023-01-11T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4401271422000</v>
+        <v>1706982557000</v>
       </c>
       <c r="L25">
-        <v>271906600</v>
+        <v>117303400</v>
       </c>
       <c r="M25">
-        <v>-668300</v>
+        <v>-371900</v>
       </c>
       <c r="N25">
-        <v>-3014658000</v>
+        <v>-7033972000</v>
       </c>
       <c r="O25">
-        <v>57456900</v>
+        <v>17227700</v>
       </c>
       <c r="P25">
-        <v>1197495969000</v>
+        <v>406399485000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1673435700000</v>
+        <v>1673431320000</v>
       </c>
       <c r="B26">
-        <v>3288900</v>
+        <v>4588800</v>
       </c>
       <c r="C26">
-        <v>3207900</v>
+        <v>736100</v>
       </c>
       <c r="D26">
-        <v>18500</v>
+        <v>4100</v>
       </c>
       <c r="E26">
-        <v>67036980000</v>
+        <v>68437526000</v>
       </c>
       <c r="F26">
-        <v>65513038000</v>
+        <v>13666020000</v>
       </c>
       <c r="G26">
-        <v>454690000</v>
+        <v>67264000</v>
       </c>
       <c r="H26">
-        <v>6515300</v>
+        <v>5329000</v>
       </c>
       <c r="I26">
-        <v>133004708000</v>
+        <v>82170810000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-11T11:15:00.000Z</v>
+        <v>2023-01-11T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>4534276130000</v>
+        <v>1789153367000</v>
       </c>
       <c r="L26">
-        <v>278421900</v>
+        <v>122632400</v>
       </c>
       <c r="M26">
-        <v>-81000</v>
+        <v>-3852700</v>
       </c>
       <c r="N26">
-        <v>-1523942000</v>
+        <v>-54771506000</v>
       </c>
       <c r="O26">
-        <v>57375900</v>
+        <v>13375000</v>
       </c>
       <c r="P26">
-        <v>1195972027000</v>
+        <v>351627979000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1673436000000</v>
+        <v>1673431440000</v>
       </c>
       <c r="B27">
-        <v>2094500</v>
+        <v>1684400</v>
       </c>
       <c r="C27">
-        <v>2967600</v>
+        <v>1725700</v>
       </c>
       <c r="D27">
-        <v>71900</v>
+        <v>31200</v>
       </c>
       <c r="E27">
-        <v>39816644000</v>
+        <v>28538813000</v>
       </c>
       <c r="F27">
-        <v>59522426000</v>
+        <v>26219282000</v>
       </c>
       <c r="G27">
-        <v>1437586000</v>
+        <v>819256000</v>
       </c>
       <c r="H27">
-        <v>5134000</v>
+        <v>3441300</v>
       </c>
       <c r="I27">
-        <v>100776656000</v>
+        <v>55577351000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-11T11:20:00.000Z</v>
+        <v>2023-01-11T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>4635052786000</v>
+        <v>1844730718000</v>
       </c>
       <c r="L27">
-        <v>283555900</v>
+        <v>126073700</v>
       </c>
       <c r="M27">
-        <v>873100</v>
+        <v>41300</v>
       </c>
       <c r="N27">
-        <v>19705782000</v>
+        <v>-2319531000</v>
       </c>
       <c r="O27">
-        <v>58249000</v>
+        <v>13416300</v>
       </c>
       <c r="P27">
-        <v>1215677809000</v>
+        <v>349308448000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1673436300000</v>
+        <v>1673431560000</v>
       </c>
       <c r="B28">
-        <v>2857300</v>
+        <v>2023400</v>
       </c>
       <c r="C28">
-        <v>1878700</v>
+        <v>1211700</v>
       </c>
       <c r="D28">
-        <v>5200</v>
+        <v>21700</v>
       </c>
       <c r="E28">
-        <v>47409021000</v>
+        <v>31252800000</v>
       </c>
       <c r="F28">
-        <v>36727344000</v>
+        <v>19575365000</v>
       </c>
       <c r="G28">
-        <v>180455000</v>
+        <v>274450000</v>
       </c>
       <c r="H28">
-        <v>4741200</v>
+        <v>3256800</v>
       </c>
       <c r="I28">
-        <v>84316820000</v>
+        <v>51102615000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-11T11:25:00.000Z</v>
+        <v>2023-01-11T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>4719369606000</v>
+        <v>1895833333000</v>
       </c>
       <c r="L28">
-        <v>288297100</v>
+        <v>129330500</v>
       </c>
       <c r="M28">
-        <v>-978600</v>
+        <v>-811700</v>
       </c>
       <c r="N28">
-        <v>-10681677000</v>
+        <v>-11677435000</v>
       </c>
       <c r="O28">
-        <v>57270400</v>
+        <v>12604600</v>
       </c>
       <c r="P28">
-        <v>1204996132000</v>
+        <v>337631013000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1673436600000</v>
+        <v>1673431680000</v>
       </c>
       <c r="B29">
-        <v>37600</v>
+        <v>1517500</v>
       </c>
       <c r="C29">
-        <v>2100</v>
+        <v>1264400</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>31600</v>
       </c>
       <c r="E29">
-        <v>930700000</v>
+        <v>24616515000</v>
       </c>
       <c r="F29">
-        <v>30952000</v>
+        <v>23337622000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1041695000</v>
       </c>
       <c r="H29">
-        <v>39700</v>
+        <v>2813500</v>
       </c>
       <c r="I29">
-        <v>961652000</v>
+        <v>48995832000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-11T11:30:00.000Z</v>
+        <v>2023-01-11T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>4720331258000</v>
+        <v>1944829165000</v>
       </c>
       <c r="L29">
-        <v>288336800</v>
+        <v>132144000</v>
       </c>
       <c r="M29">
-        <v>-35500</v>
+        <v>-253100</v>
       </c>
       <c r="N29">
-        <v>-899748000</v>
+        <v>-1278893000</v>
       </c>
       <c r="O29">
-        <v>57234900</v>
+        <v>12351500</v>
       </c>
       <c r="P29">
-        <v>1204096384000</v>
+        <v>336352120000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1673442000000</v>
+        <v>1673431800000</v>
       </c>
       <c r="B30">
-        <v>6019200</v>
+        <v>1358800</v>
       </c>
       <c r="C30">
-        <v>4749700</v>
+        <v>1190700</v>
       </c>
       <c r="D30">
-        <v>286500</v>
+        <v>3000</v>
       </c>
       <c r="E30">
-        <v>95448117000</v>
+        <v>21590728000</v>
       </c>
       <c r="F30">
-        <v>73978698000</v>
+        <v>23565333000</v>
       </c>
       <c r="G30">
-        <v>2638777000</v>
+        <v>44400000</v>
       </c>
       <c r="H30">
-        <v>11055400</v>
+        <v>2552500</v>
       </c>
       <c r="I30">
-        <v>172065592000</v>
+        <v>45200461000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-11T13:00:00.000Z</v>
+        <v>2023-01-11T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>4892396850000</v>
+        <v>1990029626000</v>
       </c>
       <c r="L30">
-        <v>299392200</v>
+        <v>134696500</v>
       </c>
       <c r="M30">
-        <v>-1269500</v>
+        <v>-168100</v>
       </c>
       <c r="N30">
-        <v>-21469419000</v>
+        <v>1974605000</v>
       </c>
       <c r="O30">
-        <v>55965400</v>
+        <v>12183400</v>
       </c>
       <c r="P30">
-        <v>1182626965000</v>
+        <v>338326725000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1673442300000</v>
+        <v>1673431920000</v>
       </c>
       <c r="B31">
-        <v>3757100</v>
+        <v>1256000</v>
       </c>
       <c r="C31">
-        <v>6351200</v>
+        <v>1577900</v>
       </c>
       <c r="D31">
-        <v>143000</v>
+        <v>20200</v>
       </c>
       <c r="E31">
-        <v>62696373000</v>
+        <v>21587438000</v>
       </c>
       <c r="F31">
-        <v>96479298000</v>
+        <v>33710809000</v>
       </c>
       <c r="G31">
-        <v>1291746000</v>
+        <v>211423000</v>
       </c>
       <c r="H31">
-        <v>10251300</v>
+        <v>2854100</v>
       </c>
       <c r="I31">
-        <v>160467417000</v>
+        <v>55509670000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-11T13:05:00.000Z</v>
+        <v>2023-01-11T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>5052864267000</v>
+        <v>2045539296000</v>
       </c>
       <c r="L31">
-        <v>309643500</v>
+        <v>137550600</v>
       </c>
       <c r="M31">
-        <v>2594100</v>
+        <v>321900</v>
       </c>
       <c r="N31">
-        <v>33782925000</v>
+        <v>12123371000</v>
       </c>
       <c r="O31">
-        <v>58559500</v>
+        <v>12505300</v>
       </c>
       <c r="P31">
-        <v>1216409890000</v>
+        <v>350450096000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1673442600000</v>
+        <v>1673432040000</v>
       </c>
       <c r="B32">
-        <v>3572600</v>
+        <v>945800</v>
       </c>
       <c r="C32">
-        <v>6311500</v>
+        <v>1209000</v>
       </c>
       <c r="D32">
-        <v>84300</v>
+        <v>800</v>
       </c>
       <c r="E32">
-        <v>55686887000</v>
+        <v>14913592000</v>
       </c>
       <c r="F32">
-        <v>109670907000</v>
+        <v>21400282000</v>
       </c>
       <c r="G32">
-        <v>1030436000</v>
+        <v>54480000</v>
       </c>
       <c r="H32">
-        <v>9968400</v>
+        <v>2155600</v>
       </c>
       <c r="I32">
-        <v>166388230000</v>
+        <v>36368354000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-11T13:10:00.000Z</v>
+        <v>2023-01-11T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>5219252497000</v>
+        <v>2081907650000</v>
       </c>
       <c r="L32">
-        <v>319611900</v>
+        <v>139706200</v>
       </c>
       <c r="M32">
-        <v>2738900</v>
+        <v>263200</v>
       </c>
       <c r="N32">
-        <v>53984020000</v>
+        <v>6486690000</v>
       </c>
       <c r="O32">
-        <v>61298400</v>
+        <v>12768500</v>
       </c>
       <c r="P32">
-        <v>1270393910000</v>
+        <v>356936786000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1673442900000</v>
+        <v>1673432160000</v>
       </c>
       <c r="B33">
-        <v>4600100</v>
+        <v>748300</v>
       </c>
       <c r="C33">
-        <v>6586900</v>
+        <v>2206700</v>
       </c>
       <c r="D33">
-        <v>18500</v>
+        <v>1500</v>
       </c>
       <c r="E33">
-        <v>76742522000</v>
+        <v>14863548000</v>
       </c>
       <c r="F33">
-        <v>102392487000</v>
+        <v>36138483000</v>
       </c>
       <c r="G33">
-        <v>269795000</v>
+        <v>20230000</v>
       </c>
       <c r="H33">
-        <v>11205500</v>
+        <v>2956500</v>
       </c>
       <c r="I33">
-        <v>179404804000</v>
+        <v>51022261000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-11T13:15:00.000Z</v>
+        <v>2023-01-11T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>5398657301000</v>
+        <v>2132929911000</v>
       </c>
       <c r="L33">
-        <v>330817400</v>
+        <v>142662700</v>
       </c>
       <c r="M33">
-        <v>1986800</v>
+        <v>1458400</v>
       </c>
       <c r="N33">
-        <v>25649965000</v>
+        <v>21274935000</v>
       </c>
       <c r="O33">
-        <v>63285200</v>
+        <v>14226900</v>
       </c>
       <c r="P33">
-        <v>1296043875000</v>
+        <v>378211721000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1673443200000</v>
+        <v>1673432280000</v>
       </c>
       <c r="B34">
-        <v>5677700</v>
+        <v>1731000</v>
       </c>
       <c r="C34">
-        <v>2633200</v>
+        <v>1642100</v>
       </c>
       <c r="D34">
-        <v>16000</v>
+        <v>3600</v>
       </c>
       <c r="E34">
-        <v>96547437000</v>
+        <v>28781182000</v>
       </c>
       <c r="F34">
-        <v>44608415000</v>
+        <v>32185235000</v>
       </c>
       <c r="G34">
-        <v>234493000</v>
+        <v>53595000</v>
       </c>
       <c r="H34">
-        <v>8326900</v>
+        <v>3376700</v>
       </c>
       <c r="I34">
-        <v>141390345000</v>
+        <v>61020012000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-11T13:20:00.000Z</v>
+        <v>2023-01-11T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>5540047646000</v>
+        <v>2193949923000</v>
       </c>
       <c r="L34">
-        <v>339144300</v>
+        <v>146039400</v>
       </c>
       <c r="M34">
-        <v>-3044500</v>
+        <v>-88900</v>
       </c>
       <c r="N34">
-        <v>-51939022000</v>
+        <v>3404053000</v>
       </c>
       <c r="O34">
-        <v>60240700</v>
+        <v>14138000</v>
       </c>
       <c r="P34">
-        <v>1244104853000</v>
+        <v>381615774000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1673443500000</v>
+        <v>1673432400000</v>
       </c>
       <c r="B35">
-        <v>10529500</v>
+        <v>1129000</v>
       </c>
       <c r="C35">
-        <v>2316900</v>
+        <v>2621500</v>
       </c>
       <c r="D35">
-        <v>121500</v>
+        <v>3100</v>
       </c>
       <c r="E35">
-        <v>179885732000</v>
+        <v>18357624000</v>
       </c>
       <c r="F35">
-        <v>39144061000</v>
+        <v>49604840000</v>
       </c>
       <c r="G35">
-        <v>2731890000</v>
+        <v>13421000</v>
       </c>
       <c r="H35">
-        <v>12967900</v>
+        <v>3753600</v>
       </c>
       <c r="I35">
-        <v>221761683000</v>
+        <v>67975885000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-11T13:25:00.000Z</v>
+        <v>2023-01-11T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>5761809329000</v>
+        <v>2261925808000</v>
       </c>
       <c r="L35">
-        <v>352112200</v>
+        <v>149793000</v>
       </c>
       <c r="M35">
-        <v>-8212600</v>
+        <v>1492500</v>
       </c>
       <c r="N35">
-        <v>-140741671000</v>
+        <v>31247216000</v>
       </c>
       <c r="O35">
-        <v>52028100</v>
+        <v>15630500</v>
       </c>
       <c r="P35">
-        <v>1103363182000</v>
+        <v>412862990000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1673443800000</v>
+        <v>1673432520000</v>
       </c>
       <c r="B36">
-        <v>6901900</v>
+        <v>1403500</v>
       </c>
       <c r="C36">
-        <v>4234700</v>
+        <v>3289800</v>
       </c>
       <c r="D36">
-        <v>18800</v>
+        <v>1900</v>
       </c>
       <c r="E36">
-        <v>114122245000</v>
+        <v>23724324000</v>
       </c>
       <c r="F36">
-        <v>69311584000</v>
+        <v>56018490000</v>
       </c>
       <c r="G36">
-        <v>503941000</v>
+        <v>30380000</v>
       </c>
       <c r="H36">
-        <v>11155400</v>
+        <v>4695200</v>
       </c>
       <c r="I36">
-        <v>183937770000</v>
+        <v>79773194000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-11T13:30:00.000Z</v>
+        <v>2023-01-11T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>5945747099000</v>
+        <v>2341699002000</v>
       </c>
       <c r="L36">
-        <v>363267600</v>
+        <v>154488200</v>
       </c>
       <c r="M36">
-        <v>-2667200</v>
+        <v>1886300</v>
       </c>
       <c r="N36">
-        <v>-44810661000</v>
+        <v>32294166000</v>
       </c>
       <c r="O36">
-        <v>49360900</v>
+        <v>17516800</v>
       </c>
       <c r="P36">
-        <v>1058552521000</v>
+        <v>445157156000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1673444100000</v>
+        <v>1673432640000</v>
       </c>
       <c r="B37">
-        <v>3876900</v>
+        <v>1520000</v>
       </c>
       <c r="C37">
-        <v>3608300</v>
+        <v>5009000</v>
       </c>
       <c r="D37">
-        <v>34000</v>
+        <v>10100</v>
       </c>
       <c r="E37">
-        <v>66632962000</v>
+        <v>28815395000</v>
       </c>
       <c r="F37">
-        <v>58144086000</v>
+        <v>79010414000</v>
       </c>
       <c r="G37">
-        <v>278325000</v>
+        <v>71942000</v>
       </c>
       <c r="H37">
-        <v>7519200</v>
+        <v>6539100</v>
       </c>
       <c r="I37">
-        <v>125055373000</v>
+        <v>107897751000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-11T13:35:00.000Z</v>
+        <v>2023-01-11T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>6070802472000</v>
+        <v>2449596753000</v>
       </c>
       <c r="L37">
-        <v>370786800</v>
+        <v>161027300</v>
       </c>
       <c r="M37">
-        <v>-268600</v>
+        <v>3489000</v>
       </c>
       <c r="N37">
-        <v>-8488876000</v>
+        <v>50195019000</v>
       </c>
       <c r="O37">
-        <v>49092300</v>
+        <v>21005800</v>
       </c>
       <c r="P37">
-        <v>1050063645000</v>
+        <v>495352175000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1673444400000</v>
+        <v>1673432760000</v>
       </c>
       <c r="B38">
-        <v>4999300</v>
+        <v>1572600</v>
       </c>
       <c r="C38">
-        <v>2491000</v>
+        <v>3064100</v>
       </c>
       <c r="D38">
-        <v>10400</v>
+        <v>13900</v>
       </c>
       <c r="E38">
-        <v>82217902000</v>
+        <v>27456909000</v>
       </c>
       <c r="F38">
-        <v>43773138000</v>
+        <v>51861505000</v>
       </c>
       <c r="G38">
-        <v>137895000</v>
+        <v>287332000</v>
       </c>
       <c r="H38">
-        <v>7500700</v>
+        <v>4650600</v>
       </c>
       <c r="I38">
-        <v>126128935000</v>
+        <v>79605746000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-11T13:40:00.000Z</v>
+        <v>2023-01-11T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>6196931407000</v>
+        <v>2529202499000</v>
       </c>
       <c r="L38">
-        <v>378287500</v>
+        <v>165677900</v>
       </c>
       <c r="M38">
-        <v>-2508300</v>
+        <v>1491500</v>
       </c>
       <c r="N38">
-        <v>-38444764000</v>
+        <v>24404596000</v>
       </c>
       <c r="O38">
-        <v>46584000</v>
+        <v>22497300</v>
       </c>
       <c r="P38">
-        <v>1011618881000</v>
+        <v>519756771000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1673444700000</v>
+        <v>1673432880000</v>
       </c>
       <c r="B39">
-        <v>6849400</v>
+        <v>1205600</v>
       </c>
       <c r="C39">
-        <v>2480900</v>
+        <v>3142300</v>
       </c>
       <c r="D39">
-        <v>20400</v>
+        <v>18800</v>
       </c>
       <c r="E39">
-        <v>120678757000</v>
+        <v>22334582000</v>
       </c>
       <c r="F39">
-        <v>46379736000</v>
+        <v>55340095000</v>
       </c>
       <c r="G39">
-        <v>344765000</v>
+        <v>296186000</v>
       </c>
       <c r="H39">
-        <v>9350700</v>
+        <v>4366700</v>
       </c>
       <c r="I39">
-        <v>167403258000</v>
+        <v>77970863000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-11T13:45:00.000Z</v>
+        <v>2023-01-11T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>6364334665000</v>
+        <v>2607173362000</v>
       </c>
       <c r="L39">
-        <v>387638200</v>
+        <v>170044600</v>
       </c>
       <c r="M39">
-        <v>-4368500</v>
+        <v>1936700</v>
       </c>
       <c r="N39">
-        <v>-74299021000</v>
+        <v>33005513000</v>
       </c>
       <c r="O39">
-        <v>42215500</v>
+        <v>24434000</v>
       </c>
       <c r="P39">
-        <v>937319860000</v>
+        <v>552762284000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1673445000000</v>
+        <v>1673433000000</v>
       </c>
       <c r="B40">
-        <v>3212100</v>
+        <v>1481600</v>
       </c>
       <c r="C40">
-        <v>4717100</v>
+        <v>2284300</v>
       </c>
       <c r="D40">
-        <v>15400</v>
+        <v>7900</v>
       </c>
       <c r="E40">
-        <v>52833370000</v>
+        <v>24620175000</v>
       </c>
       <c r="F40">
-        <v>94081887000</v>
+        <v>41651934000</v>
       </c>
       <c r="G40">
-        <v>260135000</v>
+        <v>124622000.00000001</v>
       </c>
       <c r="H40">
-        <v>7944600</v>
+        <v>3773800</v>
       </c>
       <c r="I40">
-        <v>147175392000</v>
+        <v>66396731000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-11T13:50:00.000Z</v>
+        <v>2023-01-11T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>6511510057000</v>
+        <v>2673570093000</v>
       </c>
       <c r="L40">
-        <v>395582800</v>
+        <v>173818400</v>
       </c>
       <c r="M40">
-        <v>1505000</v>
+        <v>802700</v>
       </c>
       <c r="N40">
-        <v>41248517000</v>
+        <v>17031759000</v>
       </c>
       <c r="O40">
-        <v>43720500</v>
+        <v>25236700</v>
       </c>
       <c r="P40">
-        <v>978568377000</v>
+        <v>569794043000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1673445300000</v>
+        <v>1673433120000</v>
       </c>
       <c r="B41">
-        <v>4766300</v>
+        <v>1541700</v>
       </c>
       <c r="C41">
-        <v>2500100</v>
+        <v>1764900</v>
       </c>
       <c r="D41">
-        <v>8300</v>
+        <v>5300</v>
       </c>
       <c r="E41">
-        <v>90943805000</v>
+        <v>24940523000</v>
       </c>
       <c r="F41">
-        <v>51493122000</v>
+        <v>33859139000</v>
       </c>
       <c r="G41">
-        <v>236017000</v>
+        <v>138109000</v>
       </c>
       <c r="H41">
-        <v>7274700</v>
+        <v>3311900</v>
       </c>
       <c r="I41">
-        <v>142672944000</v>
+        <v>58937771000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-11T13:55:00.000Z</v>
+        <v>2023-01-11T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>6654183001000</v>
+        <v>2732507864000</v>
       </c>
       <c r="L41">
-        <v>402857500</v>
+        <v>177130300</v>
       </c>
       <c r="M41">
-        <v>-2266200</v>
+        <v>223200</v>
       </c>
       <c r="N41">
-        <v>-39450683000</v>
+        <v>8918616000</v>
       </c>
       <c r="O41">
-        <v>41454300</v>
+        <v>25459900</v>
       </c>
       <c r="P41">
-        <v>939117694000</v>
+        <v>578712659000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1673445600000</v>
+        <v>1673433240000</v>
       </c>
       <c r="B42">
-        <v>8623000</v>
+        <v>1110000</v>
       </c>
       <c r="C42">
-        <v>2864800</v>
+        <v>2886500</v>
       </c>
       <c r="D42">
-        <v>28700</v>
+        <v>8100</v>
       </c>
       <c r="E42">
-        <v>148657462000</v>
+        <v>19979786000</v>
       </c>
       <c r="F42">
-        <v>51112026000</v>
+        <v>52687954000</v>
       </c>
       <c r="G42">
-        <v>558645000</v>
+        <v>84123000</v>
       </c>
       <c r="H42">
-        <v>11516500</v>
+        <v>4004600</v>
       </c>
       <c r="I42">
-        <v>200328133000</v>
+        <v>72751863000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-11T14:00:00.000Z</v>
+        <v>2023-01-11T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>6854511134000</v>
+        <v>2805259727000</v>
       </c>
       <c r="L42">
-        <v>414374000</v>
+        <v>181134900</v>
       </c>
       <c r="M42">
-        <v>-5758200</v>
+        <v>1776500</v>
       </c>
       <c r="N42">
-        <v>-97545436000</v>
+        <v>32708168000</v>
       </c>
       <c r="O42">
-        <v>35696100</v>
+        <v>27236400</v>
       </c>
       <c r="P42">
-        <v>841572258000</v>
+        <v>611420827000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1673445900000</v>
+        <v>1673433360000</v>
       </c>
       <c r="B43">
-        <v>4271900</v>
+        <v>1211900</v>
       </c>
       <c r="C43">
-        <v>3257800</v>
+        <v>2440200</v>
       </c>
       <c r="D43">
-        <v>19800</v>
+        <v>24300</v>
       </c>
       <c r="E43">
-        <v>75904861000</v>
+        <v>21384057000</v>
       </c>
       <c r="F43">
-        <v>65240438000</v>
+        <v>45610765000</v>
       </c>
       <c r="G43">
-        <v>358044000</v>
+        <v>493955000</v>
       </c>
       <c r="H43">
-        <v>7549500</v>
+        <v>3676400</v>
       </c>
       <c r="I43">
-        <v>141503343000</v>
+        <v>67488777000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-11T14:05:00.000Z</v>
+        <v>2023-01-11T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>6996014477000</v>
+        <v>2872748504000</v>
       </c>
       <c r="L43">
-        <v>421923500</v>
+        <v>184811300</v>
       </c>
       <c r="M43">
-        <v>-1014100</v>
+        <v>1228300</v>
       </c>
       <c r="N43">
-        <v>-10664423000</v>
+        <v>24226708000</v>
       </c>
       <c r="O43">
-        <v>34682000</v>
+        <v>28464700</v>
       </c>
       <c r="P43">
-        <v>830907835000</v>
+        <v>635647535000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1673446200000</v>
+        <v>1673433480000</v>
       </c>
       <c r="B44">
-        <v>3531700</v>
+        <v>1517500</v>
       </c>
       <c r="C44">
-        <v>3952500</v>
+        <v>2805700</v>
       </c>
       <c r="D44">
-        <v>15500</v>
+        <v>11200</v>
       </c>
       <c r="E44">
-        <v>66761656000</v>
+        <v>25195920000</v>
       </c>
       <c r="F44">
-        <v>70750383000</v>
+        <v>53763595000</v>
       </c>
       <c r="G44">
-        <v>224068000</v>
+        <v>391735000</v>
       </c>
       <c r="H44">
-        <v>7499700</v>
+        <v>4334400</v>
       </c>
       <c r="I44">
-        <v>137736107000</v>
+        <v>79351250000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-11T14:10:00.000Z</v>
+        <v>2023-01-11T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>7133750584000</v>
+        <v>2952099754000</v>
       </c>
       <c r="L44">
-        <v>429423200</v>
+        <v>189145700</v>
       </c>
       <c r="M44">
-        <v>420800</v>
+        <v>1288200</v>
       </c>
       <c r="N44">
-        <v>3988727000</v>
+        <v>28567675000</v>
       </c>
       <c r="O44">
-        <v>35102800</v>
+        <v>29752900</v>
       </c>
       <c r="P44">
-        <v>834896562000</v>
+        <v>664215210000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1673446500000</v>
+        <v>1673433600000</v>
       </c>
       <c r="B45">
-        <v>8475800</v>
+        <v>1133200</v>
       </c>
       <c r="C45">
-        <v>2961500</v>
+        <v>3363000</v>
       </c>
       <c r="D45">
-        <v>16100</v>
+        <v>27400</v>
       </c>
       <c r="E45">
-        <v>156150914000</v>
+        <v>20835768000</v>
       </c>
       <c r="F45">
-        <v>55015448000</v>
+        <v>57298734000</v>
       </c>
       <c r="G45">
-        <v>438501000</v>
+        <v>287804000</v>
       </c>
       <c r="H45">
-        <v>11453400</v>
+        <v>4523600</v>
       </c>
       <c r="I45">
-        <v>211604863000</v>
+        <v>78422306000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-11T14:15:00.000Z</v>
+        <v>2023-01-11T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>7345355447000</v>
+        <v>3030522060000</v>
       </c>
       <c r="L45">
-        <v>440876600</v>
+        <v>193669300</v>
       </c>
       <c r="M45">
-        <v>-5514300</v>
+        <v>2229800</v>
       </c>
       <c r="N45">
-        <v>-101135466000</v>
+        <v>36462966000</v>
       </c>
       <c r="O45">
-        <v>29588500</v>
+        <v>31982700</v>
       </c>
       <c r="P45">
-        <v>733761096000</v>
+        <v>700678176000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1673446800000</v>
+        <v>1673433720000</v>
       </c>
       <c r="B46">
-        <v>7539000</v>
+        <v>1145400</v>
       </c>
       <c r="C46">
-        <v>4875600</v>
+        <v>3547900</v>
       </c>
       <c r="D46">
-        <v>30500</v>
+        <v>1100</v>
       </c>
       <c r="E46">
-        <v>132948321000</v>
+        <v>17303069000</v>
       </c>
       <c r="F46">
-        <v>87777447000</v>
+        <v>65465164000</v>
       </c>
       <c r="G46">
-        <v>560960000</v>
+        <v>11700000</v>
       </c>
       <c r="H46">
-        <v>12445100</v>
+        <v>4694400</v>
       </c>
       <c r="I46">
-        <v>221286728000</v>
+        <v>82779933000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-11T14:20:00.000Z</v>
+        <v>2023-01-11T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>7566642175000</v>
+        <v>3113301993000</v>
       </c>
       <c r="L46">
-        <v>453321700</v>
+        <v>198363700</v>
       </c>
       <c r="M46">
-        <v>-2663400</v>
+        <v>2402500</v>
       </c>
       <c r="N46">
-        <v>-45170874000</v>
+        <v>48162095000</v>
       </c>
       <c r="O46">
-        <v>26925100</v>
+        <v>34385200</v>
       </c>
       <c r="P46">
-        <v>688590222000</v>
+        <v>748840271000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1673447100000</v>
+        <v>1673433840000</v>
       </c>
       <c r="B47">
-        <v>5579300</v>
+        <v>1006400</v>
       </c>
       <c r="C47">
-        <v>6056000</v>
+        <v>3367300</v>
       </c>
       <c r="D47">
-        <v>82700</v>
+        <v>10400</v>
       </c>
       <c r="E47">
-        <v>96504681000</v>
+        <v>17753303000</v>
       </c>
       <c r="F47">
-        <v>104999159000</v>
+        <v>53939506000</v>
       </c>
       <c r="G47">
-        <v>794530000</v>
+        <v>148804000</v>
       </c>
       <c r="H47">
-        <v>11718000</v>
+        <v>4384100</v>
       </c>
       <c r="I47">
-        <v>202298370000</v>
+        <v>71841613000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-11T14:25:00.000Z</v>
+        <v>2023-01-11T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>7768940545000</v>
+        <v>3185143606000</v>
       </c>
       <c r="L47">
-        <v>465039700</v>
+        <v>202747800</v>
       </c>
       <c r="M47">
-        <v>476700</v>
+        <v>2360900</v>
       </c>
       <c r="N47">
-        <v>8494478000</v>
+        <v>36186203000</v>
       </c>
       <c r="O47">
-        <v>27401800</v>
+        <v>36746100</v>
       </c>
       <c r="P47">
-        <v>697084700000</v>
+        <v>785026474000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1673447400000</v>
+        <v>1673433960000</v>
       </c>
       <c r="B48">
-        <v>30000</v>
+        <v>967400</v>
       </c>
       <c r="C48">
-        <v>19000</v>
+        <v>4960200</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="E48">
-        <v>459892000</v>
+        <v>18240263000</v>
       </c>
       <c r="F48">
-        <v>350724000</v>
+        <v>88972618000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>255539000</v>
       </c>
       <c r="H48">
-        <v>49000</v>
+        <v>5941100</v>
       </c>
       <c r="I48">
-        <v>810616000</v>
+        <v>107468420000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-11T14:30:00.000Z</v>
+        <v>2023-01-11T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>7769751161000</v>
+        <v>3292612026000</v>
       </c>
       <c r="L48">
-        <v>465088700</v>
+        <v>208688900</v>
       </c>
       <c r="M48">
-        <v>-11000</v>
+        <v>3992800</v>
       </c>
       <c r="N48">
-        <v>-109168000</v>
+        <v>70732355000</v>
       </c>
       <c r="O48">
-        <v>27390800</v>
+        <v>40738900</v>
       </c>
       <c r="P48">
-        <v>696975532000</v>
+        <v>855758829000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1673448300000</v>
+        <v>1673434080000</v>
       </c>
       <c r="B49">
+        <v>1663700</v>
+      </c>
+      <c r="C49">
+        <v>6764400</v>
+      </c>
+      <c r="D49">
+        <v>35400</v>
+      </c>
+      <c r="E49">
+        <v>28695025000</v>
+      </c>
+      <c r="F49">
+        <v>112989277000</v>
+      </c>
+      <c r="G49">
+        <v>707493000</v>
+      </c>
+      <c r="H49">
+        <v>8463500</v>
+      </c>
+      <c r="I49">
+        <v>142391795000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-11T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>3435003821000</v>
+      </c>
+      <c r="L49">
+        <v>217152400</v>
+      </c>
+      <c r="M49">
+        <v>5100700</v>
+      </c>
+      <c r="N49">
+        <v>84294252000</v>
+      </c>
+      <c r="O49">
+        <v>45839600</v>
+      </c>
+      <c r="P49">
+        <v>940053081000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1673434200000</v>
+      </c>
+      <c r="B50">
+        <v>1626000</v>
+      </c>
+      <c r="C50">
+        <v>7870100</v>
+      </c>
+      <c r="D50">
+        <v>12900</v>
+      </c>
+      <c r="E50">
+        <v>26021073000</v>
+      </c>
+      <c r="F50">
+        <v>144838493000</v>
+      </c>
+      <c r="G50">
+        <v>303148000</v>
+      </c>
+      <c r="H50">
+        <v>9509000</v>
+      </c>
+      <c r="I50">
+        <v>171162714000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-11T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>3606166535000</v>
+      </c>
+      <c r="L50">
+        <v>226661400</v>
+      </c>
+      <c r="M50">
+        <v>6244100</v>
+      </c>
+      <c r="N50">
+        <v>118817420000</v>
+      </c>
+      <c r="O50">
+        <v>52083700</v>
+      </c>
+      <c r="P50">
+        <v>1058870501000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1673434320000</v>
+      </c>
+      <c r="B51">
+        <v>1595200</v>
+      </c>
+      <c r="C51">
+        <v>7268800</v>
+      </c>
+      <c r="D51">
+        <v>8700</v>
+      </c>
+      <c r="E51">
+        <v>23574448000</v>
+      </c>
+      <c r="F51">
+        <v>123295787000</v>
+      </c>
+      <c r="G51">
+        <v>310115000</v>
+      </c>
+      <c r="H51">
+        <v>8872700</v>
+      </c>
+      <c r="I51">
+        <v>147180350000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-11T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>3753346885000</v>
+      </c>
+      <c r="L51">
+        <v>235534100</v>
+      </c>
+      <c r="M51">
+        <v>5673600</v>
+      </c>
+      <c r="N51">
+        <v>99721339000</v>
+      </c>
+      <c r="O51">
+        <v>57757300</v>
+      </c>
+      <c r="P51">
+        <v>1158591840000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1673434440000</v>
+      </c>
+      <c r="B52">
+        <v>1822700</v>
+      </c>
+      <c r="C52">
+        <v>3816600</v>
+      </c>
+      <c r="D52">
+        <v>20600</v>
+      </c>
+      <c r="E52">
+        <v>30172498000</v>
+      </c>
+      <c r="F52">
+        <v>60953611000</v>
+      </c>
+      <c r="G52">
+        <v>510430000</v>
+      </c>
+      <c r="H52">
+        <v>5659900</v>
+      </c>
+      <c r="I52">
+        <v>91636539000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-11T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>3844983424000</v>
+      </c>
+      <c r="L52">
+        <v>241194000</v>
+      </c>
+      <c r="M52">
+        <v>1993900</v>
+      </c>
+      <c r="N52">
+        <v>30781113000</v>
+      </c>
+      <c r="O52">
+        <v>59751200</v>
+      </c>
+      <c r="P52">
+        <v>1189372953000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1673434560000</v>
+      </c>
+      <c r="B53">
+        <v>1857700</v>
+      </c>
+      <c r="C53">
+        <v>1966000</v>
+      </c>
+      <c r="D53">
+        <v>12600</v>
+      </c>
+      <c r="E53">
+        <v>32057641000</v>
+      </c>
+      <c r="F53">
+        <v>37802105000</v>
+      </c>
+      <c r="G53">
+        <v>927516000</v>
+      </c>
+      <c r="H53">
+        <v>3836300</v>
+      </c>
+      <c r="I53">
+        <v>70787262000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-11T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>3915770686000</v>
+      </c>
+      <c r="L53">
+        <v>245030300</v>
+      </c>
+      <c r="M53">
+        <v>108300</v>
+      </c>
+      <c r="N53">
+        <v>5744464000</v>
+      </c>
+      <c r="O53">
+        <v>59859500</v>
+      </c>
+      <c r="P53">
+        <v>1195117417000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1673434680000</v>
+      </c>
+      <c r="B54">
+        <v>2454600</v>
+      </c>
+      <c r="C54">
+        <v>2294600</v>
+      </c>
+      <c r="D54">
+        <v>12200</v>
+      </c>
+      <c r="E54">
+        <v>37398522000</v>
+      </c>
+      <c r="F54">
+        <v>39582437000</v>
+      </c>
+      <c r="G54">
+        <v>64935000</v>
+      </c>
+      <c r="H54">
+        <v>4761400</v>
+      </c>
+      <c r="I54">
+        <v>77045894000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-11T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>3992816580000</v>
+      </c>
+      <c r="L54">
+        <v>249791700</v>
+      </c>
+      <c r="M54">
+        <v>-160000</v>
+      </c>
+      <c r="N54">
+        <v>2183915000</v>
+      </c>
+      <c r="O54">
+        <v>59699500</v>
+      </c>
+      <c r="P54">
+        <v>1197301332000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1673434800000</v>
+      </c>
+      <c r="B55">
+        <v>1620900</v>
+      </c>
+      <c r="C55">
+        <v>1944200</v>
+      </c>
+      <c r="D55">
+        <v>19700</v>
+      </c>
+      <c r="E55">
+        <v>27303283000</v>
+      </c>
+      <c r="F55">
+        <v>41683352000</v>
+      </c>
+      <c r="G55">
+        <v>353700000</v>
+      </c>
+      <c r="H55">
+        <v>3584800</v>
+      </c>
+      <c r="I55">
+        <v>69340335000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-11T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>4062156915000</v>
+      </c>
+      <c r="L55">
+        <v>253376500</v>
+      </c>
+      <c r="M55">
+        <v>323300</v>
+      </c>
+      <c r="N55">
+        <v>14380069000</v>
+      </c>
+      <c r="O55">
+        <v>60022800</v>
+      </c>
+      <c r="P55">
+        <v>1211681401000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1673434920000</v>
+      </c>
+      <c r="B56">
+        <v>1794300</v>
+      </c>
+      <c r="C56">
+        <v>1334100</v>
+      </c>
+      <c r="D56">
+        <v>21200</v>
+      </c>
+      <c r="E56">
+        <v>30413026000</v>
+      </c>
+      <c r="F56">
+        <v>23939813000</v>
+      </c>
+      <c r="G56">
+        <v>531180000</v>
+      </c>
+      <c r="H56">
+        <v>3149600</v>
+      </c>
+      <c r="I56">
+        <v>54884019000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-11T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>4117040934000</v>
+      </c>
+      <c r="L56">
+        <v>256526100</v>
+      </c>
+      <c r="M56">
+        <v>-460200</v>
+      </c>
+      <c r="N56">
+        <v>-6473213000</v>
+      </c>
+      <c r="O56">
+        <v>59562600</v>
+      </c>
+      <c r="P56">
+        <v>1205208188000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1673435040000</v>
+      </c>
+      <c r="B57">
+        <v>2037800</v>
+      </c>
+      <c r="C57">
+        <v>1013300</v>
+      </c>
+      <c r="D57">
+        <v>14900</v>
+      </c>
+      <c r="E57">
+        <v>35707174000</v>
+      </c>
+      <c r="F57">
+        <v>20977321000</v>
+      </c>
+      <c r="G57">
+        <v>268204000</v>
+      </c>
+      <c r="H57">
+        <v>3066000</v>
+      </c>
+      <c r="I57">
+        <v>56952699000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-11T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4173993633000</v>
+      </c>
+      <c r="L57">
+        <v>259592100</v>
+      </c>
+      <c r="M57">
+        <v>-1024500</v>
+      </c>
+      <c r="N57">
+        <v>-14729853000</v>
+      </c>
+      <c r="O57">
+        <v>58538100</v>
+      </c>
+      <c r="P57">
+        <v>1190478335000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1673435160000</v>
+      </c>
+      <c r="B58">
+        <v>1799700</v>
+      </c>
+      <c r="C58">
+        <v>1676100</v>
+      </c>
+      <c r="D58">
+        <v>300</v>
+      </c>
+      <c r="E58">
+        <v>25276462000</v>
+      </c>
+      <c r="F58">
+        <v>37146244000</v>
+      </c>
+      <c r="G58">
+        <v>20105000</v>
+      </c>
+      <c r="H58">
+        <v>3476100</v>
+      </c>
+      <c r="I58">
+        <v>62442811000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-11T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4236436444000</v>
+      </c>
+      <c r="L58">
+        <v>263068200</v>
+      </c>
+      <c r="M58">
+        <v>-123600</v>
+      </c>
+      <c r="N58">
+        <v>11869782000</v>
+      </c>
+      <c r="O58">
+        <v>58414500</v>
+      </c>
+      <c r="P58">
+        <v>1202348117000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1673435280000</v>
+      </c>
+      <c r="B59">
+        <v>1773000</v>
+      </c>
+      <c r="C59">
+        <v>1483700</v>
+      </c>
+      <c r="D59">
+        <v>4200</v>
+      </c>
+      <c r="E59">
+        <v>27139360000</v>
+      </c>
+      <c r="F59">
+        <v>25301870000</v>
+      </c>
+      <c r="G59">
+        <v>31857000</v>
+      </c>
+      <c r="H59">
+        <v>3260900</v>
+      </c>
+      <c r="I59">
+        <v>52473087000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-11T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4288909531000</v>
+      </c>
+      <c r="L59">
+        <v>266329100</v>
+      </c>
+      <c r="M59">
+        <v>-289300</v>
+      </c>
+      <c r="N59">
+        <v>-1837490000</v>
+      </c>
+      <c r="O59">
+        <v>58125200</v>
+      </c>
+      <c r="P59">
+        <v>1200510627000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1673435400000</v>
+      </c>
+      <c r="B60">
+        <v>1514100</v>
+      </c>
+      <c r="C60">
+        <v>822200</v>
+      </c>
+      <c r="D60">
+        <v>17900</v>
+      </c>
+      <c r="E60">
+        <v>28913206000</v>
+      </c>
+      <c r="F60">
+        <v>17968321000</v>
+      </c>
+      <c r="G60">
+        <v>839340000</v>
+      </c>
+      <c r="H60">
+        <v>2354200</v>
+      </c>
+      <c r="I60">
+        <v>47720867000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-11T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4336630398000</v>
+      </c>
+      <c r="L60">
+        <v>268683300</v>
+      </c>
+      <c r="M60">
+        <v>-691900</v>
+      </c>
+      <c r="N60">
+        <v>-10944885000</v>
+      </c>
+      <c r="O60">
+        <v>57433300</v>
+      </c>
+      <c r="P60">
+        <v>1189565742000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1673435520000</v>
+      </c>
+      <c r="B61">
+        <v>1192500</v>
+      </c>
+      <c r="C61">
+        <v>986100</v>
+      </c>
+      <c r="D61">
+        <v>600</v>
+      </c>
+      <c r="E61">
+        <v>19500118000</v>
+      </c>
+      <c r="F61">
+        <v>23072097000</v>
+      </c>
+      <c r="G61">
+        <v>48480000</v>
+      </c>
+      <c r="H61">
+        <v>2179200</v>
+      </c>
+      <c r="I61">
+        <v>42620695000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-11T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4379251093000</v>
+      </c>
+      <c r="L61">
+        <v>270862500</v>
+      </c>
+      <c r="M61">
+        <v>-206400</v>
+      </c>
+      <c r="N61">
+        <v>3571979000</v>
+      </c>
+      <c r="O61">
+        <v>57226900</v>
+      </c>
+      <c r="P61">
+        <v>1193137721000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1673435640000</v>
+      </c>
+      <c r="B62">
+        <v>1244500</v>
+      </c>
+      <c r="C62">
+        <v>1262200</v>
+      </c>
+      <c r="D62">
+        <v>11300</v>
+      </c>
+      <c r="E62">
+        <v>26211382000</v>
+      </c>
+      <c r="F62">
+        <v>23482375000</v>
+      </c>
+      <c r="G62">
+        <v>359985000</v>
+      </c>
+      <c r="H62">
+        <v>2518000</v>
+      </c>
+      <c r="I62">
+        <v>50053742000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-11T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4429304835000</v>
+      </c>
+      <c r="L62">
+        <v>273380500</v>
+      </c>
+      <c r="M62">
+        <v>17700</v>
+      </c>
+      <c r="N62">
+        <v>-2729007000</v>
+      </c>
+      <c r="O62">
+        <v>57244600</v>
+      </c>
+      <c r="P62">
+        <v>1190408714000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1673435760000</v>
+      </c>
+      <c r="B63">
+        <v>1500400</v>
+      </c>
+      <c r="C63">
+        <v>1361100</v>
+      </c>
+      <c r="D63">
+        <v>4900</v>
+      </c>
+      <c r="E63">
+        <v>29395842000</v>
+      </c>
+      <c r="F63">
+        <v>29814524000</v>
+      </c>
+      <c r="G63">
+        <v>64640000</v>
+      </c>
+      <c r="H63">
+        <v>2866400</v>
+      </c>
+      <c r="I63">
+        <v>59275006000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-11T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4488579841000</v>
+      </c>
+      <c r="L63">
+        <v>276246900</v>
+      </c>
+      <c r="M63">
+        <v>-139300</v>
+      </c>
+      <c r="N63">
+        <v>418682000</v>
+      </c>
+      <c r="O63">
+        <v>57105300</v>
+      </c>
+      <c r="P63">
+        <v>1190827396000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1673435880000</v>
+      </c>
+      <c r="B64">
+        <v>951000</v>
+      </c>
+      <c r="C64">
+        <v>1221600</v>
+      </c>
+      <c r="D64">
+        <v>2400</v>
+      </c>
+      <c r="E64">
+        <v>20260054000</v>
+      </c>
+      <c r="F64">
+        <v>25404685000</v>
+      </c>
+      <c r="G64">
+        <v>31550000</v>
+      </c>
+      <c r="H64">
+        <v>2175000</v>
+      </c>
+      <c r="I64">
+        <v>45696289000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-11T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4534276130000</v>
+      </c>
+      <c r="L64">
+        <v>278421900</v>
+      </c>
+      <c r="M64">
+        <v>270600</v>
+      </c>
+      <c r="N64">
+        <v>5144631000</v>
+      </c>
+      <c r="O64">
+        <v>57375900</v>
+      </c>
+      <c r="P64">
+        <v>1195972027000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1673436000000</v>
+      </c>
+      <c r="B65">
+        <v>1113900</v>
+      </c>
+      <c r="C65">
+        <v>1329100</v>
+      </c>
+      <c r="D65">
+        <v>51400</v>
+      </c>
+      <c r="E65">
+        <v>20919733000</v>
+      </c>
+      <c r="F65">
+        <v>27881650000</v>
+      </c>
+      <c r="G65">
+        <v>1139220000</v>
+      </c>
+      <c r="H65">
+        <v>2494400</v>
+      </c>
+      <c r="I65">
+        <v>49940603000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-11T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4584216733000</v>
+      </c>
+      <c r="L65">
+        <v>280916300</v>
+      </c>
+      <c r="M65">
+        <v>215200</v>
+      </c>
+      <c r="N65">
+        <v>6961917000</v>
+      </c>
+      <c r="O65">
+        <v>57591100</v>
+      </c>
+      <c r="P65">
+        <v>1202933944000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1673436120000</v>
+      </c>
+      <c r="B66">
+        <v>604700</v>
+      </c>
+      <c r="C66">
+        <v>1238700</v>
+      </c>
+      <c r="D66">
+        <v>20500</v>
+      </c>
+      <c r="E66">
+        <v>10952426000</v>
+      </c>
+      <c r="F66">
+        <v>23265019000</v>
+      </c>
+      <c r="G66">
+        <v>298366000</v>
+      </c>
+      <c r="H66">
+        <v>1863900</v>
+      </c>
+      <c r="I66">
+        <v>34515811000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-11T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4618732544000</v>
+      </c>
+      <c r="L66">
+        <v>282780200</v>
+      </c>
+      <c r="M66">
+        <v>634000</v>
+      </c>
+      <c r="N66">
+        <v>12312593000</v>
+      </c>
+      <c r="O66">
+        <v>58225100</v>
+      </c>
+      <c r="P66">
+        <v>1215246537000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1673436240000</v>
+      </c>
+      <c r="B67">
+        <v>898000</v>
+      </c>
+      <c r="C67">
+        <v>945300</v>
+      </c>
+      <c r="D67">
+        <v>2100</v>
+      </c>
+      <c r="E67">
+        <v>16259940000</v>
+      </c>
+      <c r="F67">
+        <v>18478272000</v>
+      </c>
+      <c r="G67">
+        <v>57540000</v>
+      </c>
+      <c r="H67">
+        <v>1845400</v>
+      </c>
+      <c r="I67">
+        <v>34795752000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-11T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>4653528296000</v>
+      </c>
+      <c r="L67">
+        <v>284625600</v>
+      </c>
+      <c r="M67">
+        <v>47300</v>
+      </c>
+      <c r="N67">
+        <v>2218332000</v>
+      </c>
+      <c r="O67">
+        <v>58272400</v>
+      </c>
+      <c r="P67">
+        <v>1217464869000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1673436360000</v>
+      </c>
+      <c r="B68">
+        <v>882300</v>
+      </c>
+      <c r="C68">
+        <v>731800</v>
+      </c>
+      <c r="D68">
+        <v>2100</v>
+      </c>
+      <c r="E68">
+        <v>15801198000</v>
+      </c>
+      <c r="F68">
+        <v>14233596000</v>
+      </c>
+      <c r="G68">
+        <v>50715000</v>
+      </c>
+      <c r="H68">
+        <v>1616200</v>
+      </c>
+      <c r="I68">
+        <v>30085509000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-11T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>4683613805000</v>
+      </c>
+      <c r="L68">
+        <v>286241800</v>
+      </c>
+      <c r="M68">
+        <v>-150500</v>
+      </c>
+      <c r="N68">
+        <v>-1567602000</v>
+      </c>
+      <c r="O68">
+        <v>58121900</v>
+      </c>
+      <c r="P68">
+        <v>1215897267000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1673436480000</v>
+      </c>
+      <c r="B69">
+        <v>1452900</v>
+      </c>
+      <c r="C69">
+        <v>601400</v>
+      </c>
+      <c r="D69">
+        <v>1000</v>
+      </c>
+      <c r="E69">
+        <v>23292368000</v>
+      </c>
+      <c r="F69">
+        <v>12391233000</v>
+      </c>
+      <c r="G69">
+        <v>72200000</v>
+      </c>
+      <c r="H69">
+        <v>2055300</v>
+      </c>
+      <c r="I69">
+        <v>35755801000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-11T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>4719369606000</v>
+      </c>
+      <c r="L69">
+        <v>288297100</v>
+      </c>
+      <c r="M69">
+        <v>-851500</v>
+      </c>
+      <c r="N69">
+        <v>-10901135000</v>
+      </c>
+      <c r="O69">
+        <v>57270400</v>
+      </c>
+      <c r="P69">
+        <v>1204996132000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1673436600000</v>
+      </c>
+      <c r="B70">
+        <v>37600</v>
+      </c>
+      <c r="C70">
+        <v>2100</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>930700000</v>
+      </c>
+      <c r="F70">
+        <v>30952000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>39700</v>
+      </c>
+      <c r="I70">
+        <v>961652000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-11T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>4720331258000</v>
+      </c>
+      <c r="L70">
+        <v>288336800</v>
+      </c>
+      <c r="M70">
+        <v>-35500</v>
+      </c>
+      <c r="N70">
+        <v>-899748000</v>
+      </c>
+      <c r="O70">
+        <v>57234900</v>
+      </c>
+      <c r="P70">
+        <v>1204096384000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1673442000000</v>
+      </c>
+      <c r="B71">
+        <v>3844800</v>
+      </c>
+      <c r="C71">
+        <v>3001000</v>
+      </c>
+      <c r="D71">
+        <v>252100</v>
+      </c>
+      <c r="E71">
+        <v>59664065000</v>
+      </c>
+      <c r="F71">
+        <v>43793553000</v>
+      </c>
+      <c r="G71">
+        <v>1959004000</v>
+      </c>
+      <c r="H71">
+        <v>7097900</v>
+      </c>
+      <c r="I71">
+        <v>105416622000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-11T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>4825747880000</v>
+      </c>
+      <c r="L71">
+        <v>295434700</v>
+      </c>
+      <c r="M71">
+        <v>-843800</v>
+      </c>
+      <c r="N71">
+        <v>-15870512000</v>
+      </c>
+      <c r="O71">
+        <v>56391100</v>
+      </c>
+      <c r="P71">
+        <v>1188225872000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1673442120000</v>
+      </c>
+      <c r="B72">
+        <v>1414600</v>
+      </c>
+      <c r="C72">
+        <v>1060600</v>
+      </c>
+      <c r="D72">
+        <v>3900</v>
+      </c>
+      <c r="E72">
+        <v>21912525000</v>
+      </c>
+      <c r="F72">
+        <v>17673993000</v>
+      </c>
+      <c r="G72">
+        <v>38358000</v>
+      </c>
+      <c r="H72">
+        <v>2479100</v>
+      </c>
+      <c r="I72">
+        <v>39624876000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-11T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>4865372756000</v>
+      </c>
+      <c r="L72">
+        <v>297913800</v>
+      </c>
+      <c r="M72">
+        <v>-354000</v>
+      </c>
+      <c r="N72">
+        <v>-4238532000</v>
+      </c>
+      <c r="O72">
+        <v>56037100</v>
+      </c>
+      <c r="P72">
+        <v>1183987340000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1673442240000</v>
+      </c>
+      <c r="B73">
+        <v>1682800</v>
+      </c>
+      <c r="C73">
+        <v>1753700</v>
+      </c>
+      <c r="D73">
+        <v>57300</v>
+      </c>
+      <c r="E73">
+        <v>28416967000</v>
+      </c>
+      <c r="F73">
+        <v>29375243000</v>
+      </c>
+      <c r="G73">
+        <v>800268000</v>
+      </c>
+      <c r="H73">
+        <v>3493800</v>
+      </c>
+      <c r="I73">
+        <v>58592478000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-11T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>4923965234000</v>
+      </c>
+      <c r="L73">
+        <v>301407600</v>
+      </c>
+      <c r="M73">
+        <v>70900</v>
+      </c>
+      <c r="N73">
+        <v>958276000</v>
+      </c>
+      <c r="O73">
+        <v>56108000</v>
+      </c>
+      <c r="P73">
+        <v>1184945616000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1673442360000</v>
+      </c>
+      <c r="B74">
+        <v>1666200</v>
+      </c>
+      <c r="C74">
+        <v>3282700</v>
+      </c>
+      <c r="D74">
+        <v>114900</v>
+      </c>
+      <c r="E74">
+        <v>28402857000</v>
+      </c>
+      <c r="F74">
+        <v>45865970000</v>
+      </c>
+      <c r="G74">
+        <v>1075543000</v>
+      </c>
+      <c r="H74">
+        <v>5063800</v>
+      </c>
+      <c r="I74">
+        <v>75344370000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-11T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>4999309604000</v>
+      </c>
+      <c r="L74">
+        <v>306471400</v>
+      </c>
+      <c r="M74">
+        <v>1616500</v>
+      </c>
+      <c r="N74">
+        <v>17463113000</v>
+      </c>
+      <c r="O74">
+        <v>57724500</v>
+      </c>
+      <c r="P74">
+        <v>1202408729000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1673442480000</v>
+      </c>
+      <c r="B75">
+        <v>1167900</v>
+      </c>
+      <c r="C75">
+        <v>2002900</v>
+      </c>
+      <c r="D75">
+        <v>1300</v>
+      </c>
+      <c r="E75">
+        <v>19748076000</v>
+      </c>
+      <c r="F75">
+        <v>33749237000</v>
+      </c>
+      <c r="G75">
+        <v>57350000</v>
+      </c>
+      <c r="H75">
+        <v>3172100</v>
+      </c>
+      <c r="I75">
+        <v>53554663000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-11T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>5052864267000</v>
+      </c>
+      <c r="L75">
+        <v>309643500</v>
+      </c>
+      <c r="M75">
+        <v>835000</v>
+      </c>
+      <c r="N75">
+        <v>14001161000</v>
+      </c>
+      <c r="O75">
+        <v>58559500</v>
+      </c>
+      <c r="P75">
+        <v>1216409890000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1673442600000</v>
+      </c>
+      <c r="B76">
+        <v>1387100</v>
+      </c>
+      <c r="C76">
+        <v>2912100</v>
+      </c>
+      <c r="D76">
+        <v>73200</v>
+      </c>
+      <c r="E76">
+        <v>21335788000</v>
+      </c>
+      <c r="F76">
+        <v>53305964000</v>
+      </c>
+      <c r="G76">
+        <v>689250000</v>
+      </c>
+      <c r="H76">
+        <v>4372400</v>
+      </c>
+      <c r="I76">
+        <v>75331002000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-11T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>5128195269000</v>
+      </c>
+      <c r="L76">
+        <v>314015900</v>
+      </c>
+      <c r="M76">
+        <v>1525000</v>
+      </c>
+      <c r="N76">
+        <v>31970176000</v>
+      </c>
+      <c r="O76">
+        <v>60084500</v>
+      </c>
+      <c r="P76">
+        <v>1248380066000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1673442720000</v>
+      </c>
+      <c r="B77">
+        <v>1317200</v>
+      </c>
+      <c r="C77">
+        <v>2342400</v>
+      </c>
+      <c r="D77">
+        <v>9500</v>
+      </c>
+      <c r="E77">
+        <v>19877775000</v>
+      </c>
+      <c r="F77">
+        <v>37139427000</v>
+      </c>
+      <c r="G77">
+        <v>258666000</v>
+      </c>
+      <c r="H77">
+        <v>3669100</v>
+      </c>
+      <c r="I77">
+        <v>57275868000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-11T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>5185471137000</v>
+      </c>
+      <c r="L77">
+        <v>317685000</v>
+      </c>
+      <c r="M77">
+        <v>1025200</v>
+      </c>
+      <c r="N77">
+        <v>17261652000</v>
+      </c>
+      <c r="O77">
+        <v>61109700</v>
+      </c>
+      <c r="P77">
+        <v>1265641718000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1673442840000</v>
+      </c>
+      <c r="B78">
+        <v>1776100</v>
+      </c>
+      <c r="C78">
+        <v>2146000</v>
+      </c>
+      <c r="D78">
+        <v>6600</v>
+      </c>
+      <c r="E78">
+        <v>30176431000</v>
+      </c>
+      <c r="F78">
+        <v>35753607000</v>
+      </c>
+      <c r="G78">
+        <v>124020000</v>
+      </c>
+      <c r="H78">
+        <v>3928700</v>
+      </c>
+      <c r="I78">
+        <v>66054058000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-11T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>5251525195000</v>
+      </c>
+      <c r="L78">
+        <v>321613700</v>
+      </c>
+      <c r="M78">
+        <v>369900</v>
+      </c>
+      <c r="N78">
+        <v>5577176000</v>
+      </c>
+      <c r="O78">
+        <v>61479600</v>
+      </c>
+      <c r="P78">
+        <v>1271218894000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1673442960000</v>
+      </c>
+      <c r="B79">
+        <v>1564500</v>
+      </c>
+      <c r="C79">
+        <v>3190100</v>
+      </c>
+      <c r="D79">
+        <v>6500</v>
+      </c>
+      <c r="E79">
+        <v>26461978000</v>
+      </c>
+      <c r="F79">
+        <v>45018813000</v>
+      </c>
+      <c r="G79">
+        <v>79575000</v>
+      </c>
+      <c r="H79">
+        <v>4761100</v>
+      </c>
+      <c r="I79">
+        <v>71560366000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-11T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>5323085561000</v>
+      </c>
+      <c r="L79">
+        <v>326374800</v>
+      </c>
+      <c r="M79">
+        <v>1625600</v>
+      </c>
+      <c r="N79">
+        <v>18556835000</v>
+      </c>
+      <c r="O79">
+        <v>63105200</v>
+      </c>
+      <c r="P79">
+        <v>1289775729000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1673443080000</v>
+      </c>
+      <c r="B80">
+        <v>2127800</v>
+      </c>
+      <c r="C80">
+        <v>2307800</v>
+      </c>
+      <c r="D80">
+        <v>7000</v>
+      </c>
+      <c r="E80">
+        <v>34577437000</v>
+      </c>
+      <c r="F80">
+        <v>40845583000</v>
+      </c>
+      <c r="G80">
+        <v>148720000</v>
+      </c>
+      <c r="H80">
+        <v>4442600</v>
+      </c>
+      <c r="I80">
+        <v>75571740000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-11T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>5398657301000</v>
+      </c>
+      <c r="L80">
+        <v>330817400</v>
+      </c>
+      <c r="M80">
+        <v>180000</v>
+      </c>
+      <c r="N80">
+        <v>6268146000</v>
+      </c>
+      <c r="O80">
+        <v>63285200</v>
+      </c>
+      <c r="P80">
+        <v>1296043875000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1673443200000</v>
+      </c>
+      <c r="B81">
+        <v>1802700</v>
+      </c>
+      <c r="C81">
+        <v>1257600</v>
+      </c>
+      <c r="D81">
+        <v>7200</v>
+      </c>
+      <c r="E81">
+        <v>29133219000</v>
+      </c>
+      <c r="F81">
+        <v>22267532000</v>
+      </c>
+      <c r="G81">
+        <v>133755000</v>
+      </c>
+      <c r="H81">
+        <v>3067500</v>
+      </c>
+      <c r="I81">
+        <v>51534506000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-11T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>5450191807000</v>
+      </c>
+      <c r="L81">
+        <v>333884900</v>
+      </c>
+      <c r="M81">
+        <v>-545100</v>
+      </c>
+      <c r="N81">
+        <v>-6865687000</v>
+      </c>
+      <c r="O81">
+        <v>62740100</v>
+      </c>
+      <c r="P81">
+        <v>1289178188000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1673443320000</v>
+      </c>
+      <c r="B82">
+        <v>2263400</v>
+      </c>
+      <c r="C82">
+        <v>940300</v>
+      </c>
+      <c r="D82">
+        <v>5100</v>
+      </c>
+      <c r="E82">
+        <v>40930573000</v>
+      </c>
+      <c r="F82">
+        <v>15668122000</v>
+      </c>
+      <c r="G82">
+        <v>76585000</v>
+      </c>
+      <c r="H82">
+        <v>3208800</v>
+      </c>
+      <c r="I82">
+        <v>56675280000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-11T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>5506867087000</v>
+      </c>
+      <c r="L82">
+        <v>337093700</v>
+      </c>
+      <c r="M82">
+        <v>-1323100</v>
+      </c>
+      <c r="N82">
+        <v>-25262451000</v>
+      </c>
+      <c r="O82">
+        <v>61417000</v>
+      </c>
+      <c r="P82">
+        <v>1263915737000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1673443440000</v>
+      </c>
+      <c r="B83">
+        <v>3552600</v>
+      </c>
+      <c r="C83">
+        <v>909300</v>
+      </c>
+      <c r="D83">
+        <v>5100</v>
+      </c>
+      <c r="E83">
+        <v>61907475000</v>
+      </c>
+      <c r="F83">
+        <v>15079960000</v>
+      </c>
+      <c r="G83">
+        <v>44398000</v>
+      </c>
+      <c r="H83">
+        <v>4467000</v>
+      </c>
+      <c r="I83">
+        <v>77031833000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-11T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>5583898920000</v>
+      </c>
+      <c r="L83">
+        <v>341560700</v>
+      </c>
+      <c r="M83">
+        <v>-2643300</v>
+      </c>
+      <c r="N83">
+        <v>-46827515000</v>
+      </c>
+      <c r="O83">
+        <v>58773700</v>
+      </c>
+      <c r="P83">
+        <v>1217088222000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1673443560000</v>
+      </c>
+      <c r="B84">
+        <v>5227600</v>
+      </c>
+      <c r="C84">
+        <v>878500</v>
+      </c>
+      <c r="D84">
+        <v>107800</v>
+      </c>
+      <c r="E84">
+        <v>90880802000</v>
+      </c>
+      <c r="F84">
+        <v>14672232000</v>
+      </c>
+      <c r="G84">
+        <v>2635945000</v>
+      </c>
+      <c r="H84">
+        <v>6213900</v>
+      </c>
+      <c r="I84">
+        <v>108188979000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-11T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>5692087899000</v>
+      </c>
+      <c r="L84">
+        <v>347774600</v>
+      </c>
+      <c r="M84">
+        <v>-4349100</v>
+      </c>
+      <c r="N84">
+        <v>-76208570000</v>
+      </c>
+      <c r="O84">
+        <v>54424600</v>
+      </c>
+      <c r="P84">
+        <v>1140879652000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1673443680000</v>
+      </c>
+      <c r="B85">
+        <v>3360900</v>
+      </c>
+      <c r="C85">
+        <v>964400</v>
+      </c>
+      <c r="D85">
+        <v>12300</v>
+      </c>
+      <c r="E85">
+        <v>53581100000</v>
+      </c>
+      <c r="F85">
+        <v>16064630000</v>
+      </c>
+      <c r="G85">
+        <v>75700000</v>
+      </c>
+      <c r="H85">
+        <v>4337600</v>
+      </c>
+      <c r="I85">
+        <v>69721430000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-11T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>5761809329000</v>
+      </c>
+      <c r="L85">
+        <v>352112200</v>
+      </c>
+      <c r="M85">
+        <v>-2396500</v>
+      </c>
+      <c r="N85">
+        <v>-37516470000</v>
+      </c>
+      <c r="O85">
+        <v>52028100</v>
+      </c>
+      <c r="P85">
+        <v>1103363182000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1673443800000</v>
+      </c>
+      <c r="B86">
+        <v>4021900</v>
+      </c>
+      <c r="C86">
+        <v>1051000</v>
+      </c>
+      <c r="D86">
+        <v>7000</v>
+      </c>
+      <c r="E86">
+        <v>70744746000</v>
+      </c>
+      <c r="F86">
+        <v>20145302000</v>
+      </c>
+      <c r="G86">
+        <v>256890000</v>
+      </c>
+      <c r="H86">
+        <v>5079900</v>
+      </c>
+      <c r="I86">
+        <v>91146938000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-11T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>5852956267000</v>
+      </c>
+      <c r="L86">
+        <v>357192100</v>
+      </c>
+      <c r="M86">
+        <v>-2970900</v>
+      </c>
+      <c r="N86">
+        <v>-50599444000</v>
+      </c>
+      <c r="O86">
+        <v>49057200</v>
+      </c>
+      <c r="P86">
+        <v>1052763738000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1673443920000</v>
+      </c>
+      <c r="B87">
+        <v>1929000</v>
+      </c>
+      <c r="C87">
+        <v>2359800</v>
+      </c>
+      <c r="D87">
+        <v>6100</v>
+      </c>
+      <c r="E87">
+        <v>29166214000</v>
+      </c>
+      <c r="F87">
+        <v>35360672000</v>
+      </c>
+      <c r="G87">
+        <v>109921000</v>
+      </c>
+      <c r="H87">
+        <v>4294900</v>
+      </c>
+      <c r="I87">
+        <v>64636807000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-11T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>5917593074000</v>
+      </c>
+      <c r="L87">
+        <v>361487000</v>
+      </c>
+      <c r="M87">
+        <v>430800</v>
+      </c>
+      <c r="N87">
+        <v>6194458000</v>
+      </c>
+      <c r="O87">
+        <v>49488000</v>
+      </c>
+      <c r="P87">
+        <v>1058958196000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1673444040000</v>
+      </c>
+      <c r="B88">
+        <v>1955700</v>
+      </c>
+      <c r="C88">
+        <v>1432000</v>
+      </c>
+      <c r="D88">
+        <v>10800</v>
+      </c>
+      <c r="E88">
+        <v>31056024000</v>
+      </c>
+      <c r="F88">
+        <v>24218922000</v>
+      </c>
+      <c r="G88">
+        <v>175239000</v>
+      </c>
+      <c r="H88">
+        <v>3398500</v>
+      </c>
+      <c r="I88">
+        <v>55450185000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-11T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>5973043259000</v>
+      </c>
+      <c r="L88">
+        <v>364885500</v>
+      </c>
+      <c r="M88">
+        <v>-523700</v>
+      </c>
+      <c r="N88">
+        <v>-6837102000</v>
+      </c>
+      <c r="O88">
+        <v>48964300</v>
+      </c>
+      <c r="P88">
+        <v>1052121094000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1673444160000</v>
+      </c>
+      <c r="B89">
+        <v>1339200</v>
+      </c>
+      <c r="C89">
+        <v>1188700</v>
+      </c>
+      <c r="D89">
+        <v>24800</v>
+      </c>
+      <c r="E89">
+        <v>23539118000</v>
+      </c>
+      <c r="F89">
+        <v>19508873000</v>
+      </c>
+      <c r="G89">
+        <v>159756000</v>
+      </c>
+      <c r="H89">
+        <v>2552700</v>
+      </c>
+      <c r="I89">
+        <v>43207747000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-11T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>6016251006000</v>
+      </c>
+      <c r="L89">
+        <v>367438200</v>
+      </c>
+      <c r="M89">
+        <v>-150500</v>
+      </c>
+      <c r="N89">
+        <v>-4030245000</v>
+      </c>
+      <c r="O89">
+        <v>48813800</v>
+      </c>
+      <c r="P89">
+        <v>1048090849000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1673444280000</v>
+      </c>
+      <c r="B90">
+        <v>1533000</v>
+      </c>
+      <c r="C90">
+        <v>1811500</v>
+      </c>
+      <c r="D90">
+        <v>4100</v>
+      </c>
+      <c r="E90">
+        <v>26249105000</v>
+      </c>
+      <c r="F90">
+        <v>28221901000</v>
+      </c>
+      <c r="G90">
+        <v>80460000</v>
+      </c>
+      <c r="H90">
+        <v>3348600</v>
+      </c>
+      <c r="I90">
+        <v>54551466000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-11T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>6070802472000</v>
+      </c>
+      <c r="L90">
+        <v>370786800</v>
+      </c>
+      <c r="M90">
+        <v>278500</v>
+      </c>
+      <c r="N90">
+        <v>1972796000</v>
+      </c>
+      <c r="O90">
+        <v>49092300</v>
+      </c>
+      <c r="P90">
+        <v>1050063645000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1673444400000</v>
+      </c>
+      <c r="B91">
+        <v>1342300</v>
+      </c>
+      <c r="C91">
+        <v>1109700</v>
+      </c>
+      <c r="D91">
+        <v>5700</v>
+      </c>
+      <c r="E91">
+        <v>21758738000</v>
+      </c>
+      <c r="F91">
+        <v>18652679000</v>
+      </c>
+      <c r="G91">
+        <v>62011000</v>
+      </c>
+      <c r="H91">
+        <v>2457700</v>
+      </c>
+      <c r="I91">
+        <v>40473428000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-11T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>6111275900000</v>
+      </c>
+      <c r="L91">
+        <v>373244500</v>
+      </c>
+      <c r="M91">
+        <v>-232600</v>
+      </c>
+      <c r="N91">
+        <v>-3106059000</v>
+      </c>
+      <c r="O91">
+        <v>48859700</v>
+      </c>
+      <c r="P91">
+        <v>1046957586000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1673444520000</v>
+      </c>
+      <c r="B92">
+        <v>2494200</v>
+      </c>
+      <c r="C92">
+        <v>947700</v>
+      </c>
+      <c r="D92">
+        <v>4600</v>
+      </c>
+      <c r="E92">
+        <v>42974026000</v>
+      </c>
+      <c r="F92">
+        <v>16956298000</v>
+      </c>
+      <c r="G92">
+        <v>72379000</v>
+      </c>
+      <c r="H92">
+        <v>3446500</v>
+      </c>
+      <c r="I92">
+        <v>60002703000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-11T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>6171278603000</v>
+      </c>
+      <c r="L92">
+        <v>376691000</v>
+      </c>
+      <c r="M92">
+        <v>-1546500</v>
+      </c>
+      <c r="N92">
+        <v>-26017728000</v>
+      </c>
+      <c r="O92">
+        <v>47313200</v>
+      </c>
+      <c r="P92">
+        <v>1020939858000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1673444640000</v>
+      </c>
+      <c r="B93">
+        <v>2823000</v>
+      </c>
+      <c r="C93">
+        <v>803800</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
+      </c>
+      <c r="E93">
+        <v>45926805000</v>
+      </c>
+      <c r="F93">
+        <v>15381952000</v>
+      </c>
+      <c r="G93">
+        <v>3504999.9999999995</v>
+      </c>
+      <c r="H93">
+        <v>3626900</v>
+      </c>
+      <c r="I93">
+        <v>61312262000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-11T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>6232590865000</v>
+      </c>
+      <c r="L93">
+        <v>380317900</v>
+      </c>
+      <c r="M93">
+        <v>-2019200</v>
+      </c>
+      <c r="N93">
+        <v>-30544853000</v>
+      </c>
+      <c r="O93">
+        <v>45294000</v>
+      </c>
+      <c r="P93">
+        <v>990395005000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1673444760000</v>
+      </c>
+      <c r="B94">
+        <v>2819200</v>
+      </c>
+      <c r="C94">
+        <v>943600</v>
+      </c>
+      <c r="D94">
+        <v>13200</v>
+      </c>
+      <c r="E94">
+        <v>52680086000</v>
+      </c>
+      <c r="F94">
+        <v>17287916000</v>
+      </c>
+      <c r="G94">
+        <v>140325000</v>
+      </c>
+      <c r="H94">
+        <v>3776000</v>
+      </c>
+      <c r="I94">
+        <v>70108327000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-11T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>6302699192000</v>
+      </c>
+      <c r="L94">
+        <v>384093900</v>
+      </c>
+      <c r="M94">
+        <v>-1875600</v>
+      </c>
+      <c r="N94">
+        <v>-35392170000</v>
+      </c>
+      <c r="O94">
+        <v>43418400</v>
+      </c>
+      <c r="P94">
+        <v>955002835000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1673444880000</v>
+      </c>
+      <c r="B95">
+        <v>2370000</v>
+      </c>
+      <c r="C95">
+        <v>1167100</v>
+      </c>
+      <c r="D95">
+        <v>7200</v>
+      </c>
+      <c r="E95">
+        <v>39557004000</v>
+      </c>
+      <c r="F95">
+        <v>21874029000</v>
+      </c>
+      <c r="G95">
+        <v>204440000</v>
+      </c>
+      <c r="H95">
+        <v>3544300</v>
+      </c>
+      <c r="I95">
+        <v>61635473000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-11T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>6364334665000</v>
+      </c>
+      <c r="L95">
+        <v>387638200</v>
+      </c>
+      <c r="M95">
+        <v>-1202900</v>
+      </c>
+      <c r="N95">
+        <v>-17682975000</v>
+      </c>
+      <c r="O95">
+        <v>42215500</v>
+      </c>
+      <c r="P95">
+        <v>937319860000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1673445000000</v>
+      </c>
+      <c r="B96">
+        <v>1319100</v>
+      </c>
+      <c r="C96">
+        <v>2116600</v>
+      </c>
+      <c r="D96">
+        <v>11200</v>
+      </c>
+      <c r="E96">
+        <v>21540957000</v>
+      </c>
+      <c r="F96">
+        <v>41906650000</v>
+      </c>
+      <c r="G96">
+        <v>232706000</v>
+      </c>
+      <c r="H96">
+        <v>3446900</v>
+      </c>
+      <c r="I96">
+        <v>63680313000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-11T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>6428014978000</v>
+      </c>
+      <c r="L96">
+        <v>391085100</v>
+      </c>
+      <c r="M96">
+        <v>797500</v>
+      </c>
+      <c r="N96">
+        <v>20365693000</v>
+      </c>
+      <c r="O96">
+        <v>43013000</v>
+      </c>
+      <c r="P96">
+        <v>957685553000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1673445120000</v>
+      </c>
+      <c r="B97">
+        <v>1259700</v>
+      </c>
+      <c r="C97">
+        <v>1634100</v>
+      </c>
+      <c r="D97">
+        <v>3800</v>
+      </c>
+      <c r="E97">
+        <v>21682113000</v>
+      </c>
+      <c r="F97">
+        <v>33440120000</v>
+      </c>
+      <c r="G97">
+        <v>24574000</v>
+      </c>
+      <c r="H97">
+        <v>2897600</v>
+      </c>
+      <c r="I97">
+        <v>55146807000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-11T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>6483161785000</v>
+      </c>
+      <c r="L97">
+        <v>393982700</v>
+      </c>
+      <c r="M97">
+        <v>374400</v>
+      </c>
+      <c r="N97">
+        <v>11758007000</v>
+      </c>
+      <c r="O97">
+        <v>43387400</v>
+      </c>
+      <c r="P97">
+        <v>969443560000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1673445240000</v>
+      </c>
+      <c r="B98">
+        <v>1298100</v>
+      </c>
+      <c r="C98">
+        <v>1575200</v>
+      </c>
+      <c r="D98">
+        <v>1400</v>
+      </c>
+      <c r="E98">
+        <v>23330077000</v>
+      </c>
+      <c r="F98">
+        <v>30713838000</v>
+      </c>
+      <c r="G98">
+        <v>32155000</v>
+      </c>
+      <c r="H98">
+        <v>2874700</v>
+      </c>
+      <c r="I98">
+        <v>54076070000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-11T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>6537237855000</v>
+      </c>
+      <c r="L98">
+        <v>396857400</v>
+      </c>
+      <c r="M98">
+        <v>277100</v>
+      </c>
+      <c r="N98">
+        <v>7383761000</v>
+      </c>
+      <c r="O98">
+        <v>43664500</v>
+      </c>
+      <c r="P98">
+        <v>976827321000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1673445360000</v>
+      </c>
+      <c r="B99">
+        <v>1379900</v>
+      </c>
+      <c r="C99">
+        <v>1219200</v>
+      </c>
+      <c r="D99">
+        <v>2900</v>
+      </c>
+      <c r="E99">
+        <v>26162883000</v>
+      </c>
+      <c r="F99">
+        <v>25843663000</v>
+      </c>
+      <c r="G99">
+        <v>48462000</v>
+      </c>
+      <c r="H99">
+        <v>2602000</v>
+      </c>
+      <c r="I99">
+        <v>52055008000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-11T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>6589292863000</v>
+      </c>
+      <c r="L99">
+        <v>399459400</v>
+      </c>
+      <c r="M99">
+        <v>-160700</v>
+      </c>
+      <c r="N99">
+        <v>-319220000</v>
+      </c>
+      <c r="O99">
+        <v>43503800</v>
+      </c>
+      <c r="P99">
+        <v>976508101000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1673445480000</v>
+      </c>
+      <c r="B100">
+        <v>2721600</v>
+      </c>
+      <c r="C100">
+        <v>672100</v>
+      </c>
+      <c r="D100">
+        <v>4400</v>
+      </c>
+      <c r="E100">
+        <v>51061145000</v>
+      </c>
+      <c r="F100">
+        <v>13670738000</v>
+      </c>
+      <c r="G100">
+        <v>158255000</v>
+      </c>
+      <c r="H100">
+        <v>3398100</v>
+      </c>
+      <c r="I100">
+        <v>64890138000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-11T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>6654183001000</v>
+      </c>
+      <c r="L100">
+        <v>402857500</v>
+      </c>
+      <c r="M100">
+        <v>-2049500</v>
+      </c>
+      <c r="N100">
+        <v>-37390407000</v>
+      </c>
+      <c r="O100">
+        <v>41454300</v>
+      </c>
+      <c r="P100">
+        <v>939117694000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1673445600000</v>
+      </c>
+      <c r="B101">
+        <v>3752700</v>
+      </c>
+      <c r="C101">
+        <v>1036600</v>
+      </c>
+      <c r="D101">
+        <v>7200</v>
+      </c>
+      <c r="E101">
+        <v>66662711000</v>
+      </c>
+      <c r="F101">
+        <v>19204756000</v>
+      </c>
+      <c r="G101">
+        <v>198537000</v>
+      </c>
+      <c r="H101">
+        <v>4796500</v>
+      </c>
+      <c r="I101">
+        <v>86066004000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-11T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>6740249005000</v>
+      </c>
+      <c r="L101">
+        <v>407654000</v>
+      </c>
+      <c r="M101">
+        <v>-2716100</v>
+      </c>
+      <c r="N101">
+        <v>-47457955000</v>
+      </c>
+      <c r="O101">
+        <v>38738200</v>
+      </c>
+      <c r="P101">
+        <v>891659739000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1673445720000</v>
+      </c>
+      <c r="B102">
+        <v>3538500</v>
+      </c>
+      <c r="C102">
+        <v>1086100</v>
+      </c>
+      <c r="D102">
+        <v>17400</v>
+      </c>
+      <c r="E102">
+        <v>59982994000</v>
+      </c>
+      <c r="F102">
+        <v>19808780000</v>
+      </c>
+      <c r="G102">
+        <v>256123000</v>
+      </c>
+      <c r="H102">
+        <v>4642000</v>
+      </c>
+      <c r="I102">
+        <v>80047897000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-11T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>6820296902000</v>
+      </c>
+      <c r="L102">
+        <v>412296000</v>
+      </c>
+      <c r="M102">
+        <v>-2452400</v>
+      </c>
+      <c r="N102">
+        <v>-40174214000</v>
+      </c>
+      <c r="O102">
+        <v>36285800</v>
+      </c>
+      <c r="P102">
+        <v>851485525000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1673445840000</v>
+      </c>
+      <c r="B103">
+        <v>2373900</v>
+      </c>
+      <c r="C103">
+        <v>1380900</v>
+      </c>
+      <c r="D103">
+        <v>5000</v>
+      </c>
+      <c r="E103">
+        <v>41818699000</v>
+      </c>
+      <c r="F103">
+        <v>24536165000</v>
+      </c>
+      <c r="G103">
+        <v>142670000</v>
+      </c>
+      <c r="H103">
+        <v>3759800</v>
+      </c>
+      <c r="I103">
+        <v>66497534000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-11T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>6886794436000</v>
+      </c>
+      <c r="L103">
+        <v>416055800</v>
+      </c>
+      <c r="M103">
+        <v>-993000</v>
+      </c>
+      <c r="N103">
+        <v>-17282534000</v>
+      </c>
+      <c r="O103">
+        <v>35292800</v>
+      </c>
+      <c r="P103">
+        <v>834202991000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1673445960000</v>
+      </c>
+      <c r="B104">
+        <v>1689400</v>
+      </c>
+      <c r="C104">
+        <v>997900</v>
+      </c>
+      <c r="D104">
+        <v>9900</v>
+      </c>
+      <c r="E104">
+        <v>29872837000</v>
+      </c>
+      <c r="F104">
+        <v>20364330000</v>
+      </c>
+      <c r="G104">
+        <v>166355000</v>
+      </c>
+      <c r="H104">
+        <v>2697200</v>
+      </c>
+      <c r="I104">
+        <v>50403522000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-11T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>6937197958000</v>
+      </c>
+      <c r="L104">
+        <v>418753000</v>
+      </c>
+      <c r="M104">
+        <v>-691500</v>
+      </c>
+      <c r="N104">
+        <v>-9508507000</v>
+      </c>
+      <c r="O104">
+        <v>34601300</v>
+      </c>
+      <c r="P104">
+        <v>824694484000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1673446080000</v>
+      </c>
+      <c r="B105">
+        <v>1540400</v>
+      </c>
+      <c r="C105">
+        <v>1621100</v>
+      </c>
+      <c r="D105">
+        <v>9000</v>
+      </c>
+      <c r="E105">
+        <v>26225082000</v>
+      </c>
+      <c r="F105">
+        <v>32438433000</v>
+      </c>
+      <c r="G105">
+        <v>153004000</v>
+      </c>
+      <c r="H105">
+        <v>3170500</v>
+      </c>
+      <c r="I105">
+        <v>58816519000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-11T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>6996014477000</v>
+      </c>
+      <c r="L105">
+        <v>421923500</v>
+      </c>
+      <c r="M105">
+        <v>80700</v>
+      </c>
+      <c r="N105">
+        <v>6213351000</v>
+      </c>
+      <c r="O105">
+        <v>34682000</v>
+      </c>
+      <c r="P105">
+        <v>830907835000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1673446200000</v>
+      </c>
+      <c r="B106">
+        <v>1200100</v>
+      </c>
+      <c r="C106">
+        <v>1536800</v>
+      </c>
+      <c r="D106">
+        <v>9100</v>
+      </c>
+      <c r="E106">
+        <v>22243192000</v>
+      </c>
+      <c r="F106">
+        <v>30390948000</v>
+      </c>
+      <c r="G106">
+        <v>118209000</v>
+      </c>
+      <c r="H106">
+        <v>2746000</v>
+      </c>
+      <c r="I106">
+        <v>52752349000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-11T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>7048766826000</v>
+      </c>
+      <c r="L106">
+        <v>424669500</v>
+      </c>
+      <c r="M106">
+        <v>336700</v>
+      </c>
+      <c r="N106">
+        <v>8147756000</v>
+      </c>
+      <c r="O106">
+        <v>35018700</v>
+      </c>
+      <c r="P106">
+        <v>839055591000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1673446320000</v>
+      </c>
+      <c r="B107">
+        <v>1570300</v>
+      </c>
+      <c r="C107">
+        <v>1822800</v>
+      </c>
+      <c r="D107">
+        <v>4800</v>
+      </c>
+      <c r="E107">
+        <v>29800968000</v>
+      </c>
+      <c r="F107">
+        <v>29540438000</v>
+      </c>
+      <c r="G107">
+        <v>100435000</v>
+      </c>
+      <c r="H107">
+        <v>3397900</v>
+      </c>
+      <c r="I107">
+        <v>59441841000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-11T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>7108208667000</v>
+      </c>
+      <c r="L107">
+        <v>428067400</v>
+      </c>
+      <c r="M107">
+        <v>252500</v>
+      </c>
+      <c r="N107">
+        <v>-260530000</v>
+      </c>
+      <c r="O107">
+        <v>35271200</v>
+      </c>
+      <c r="P107">
+        <v>838795061000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1673446440000</v>
+      </c>
+      <c r="B108">
+        <v>1500800</v>
+      </c>
+      <c r="C108">
+        <v>1195700</v>
+      </c>
+      <c r="D108">
+        <v>1600</v>
+      </c>
+      <c r="E108">
+        <v>29131539000</v>
+      </c>
+      <c r="F108">
+        <v>22710237000</v>
+      </c>
+      <c r="G108">
+        <v>5424000</v>
+      </c>
+      <c r="H108">
+        <v>2698100</v>
+      </c>
+      <c r="I108">
+        <v>51847200000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-11T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>7160055867000</v>
+      </c>
+      <c r="L108">
+        <v>430765500</v>
+      </c>
+      <c r="M108">
+        <v>-305100</v>
+      </c>
+      <c r="N108">
+        <v>-6421302000</v>
+      </c>
+      <c r="O108">
+        <v>34966100</v>
+      </c>
+      <c r="P108">
+        <v>832373759000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1673446560000</v>
+      </c>
+      <c r="B109">
+        <v>1739300</v>
+      </c>
+      <c r="C109">
+        <v>1250600</v>
+      </c>
+      <c r="D109">
+        <v>11600</v>
+      </c>
+      <c r="E109">
+        <v>35502019000</v>
+      </c>
+      <c r="F109">
+        <v>23340985000</v>
+      </c>
+      <c r="G109">
+        <v>335880000</v>
+      </c>
+      <c r="H109">
+        <v>3001500</v>
+      </c>
+      <c r="I109">
+        <v>59178884000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-11T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>7219234751000</v>
+      </c>
+      <c r="L109">
+        <v>433767000</v>
+      </c>
+      <c r="M109">
+        <v>-488700</v>
+      </c>
+      <c r="N109">
+        <v>-12161034000</v>
+      </c>
+      <c r="O109">
+        <v>34477400</v>
+      </c>
+      <c r="P109">
+        <v>820212725000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1673446680000</v>
+      </c>
+      <c r="B110">
+        <v>5997000</v>
+      </c>
+      <c r="C110">
+        <v>1108100</v>
+      </c>
+      <c r="D110">
+        <v>4500</v>
+      </c>
+      <c r="E110">
+        <v>106234852000</v>
+      </c>
+      <c r="F110">
+        <v>19783223000</v>
+      </c>
+      <c r="G110">
+        <v>102621000</v>
+      </c>
+      <c r="H110">
+        <v>7109600</v>
+      </c>
+      <c r="I110">
+        <v>126120696000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-11T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>7345355447000</v>
+      </c>
+      <c r="L110">
+        <v>440876600</v>
+      </c>
+      <c r="M110">
+        <v>-4888900</v>
+      </c>
+      <c r="N110">
+        <v>-86451629000</v>
+      </c>
+      <c r="O110">
+        <v>29588500</v>
+      </c>
+      <c r="P110">
+        <v>733761096000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1673446800000</v>
+      </c>
+      <c r="B111">
+        <v>4036600</v>
+      </c>
+      <c r="C111">
+        <v>1671400</v>
+      </c>
+      <c r="D111">
+        <v>15900</v>
+      </c>
+      <c r="E111">
+        <v>67062547000</v>
+      </c>
+      <c r="F111">
+        <v>29981781000</v>
+      </c>
+      <c r="G111">
+        <v>290650000</v>
+      </c>
+      <c r="H111">
+        <v>5723900</v>
+      </c>
+      <c r="I111">
+        <v>97334978000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-11T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>7442690425000</v>
+      </c>
+      <c r="L111">
+        <v>446600500</v>
+      </c>
+      <c r="M111">
+        <v>-2365200</v>
+      </c>
+      <c r="N111">
+        <v>-37080766000</v>
+      </c>
+      <c r="O111">
+        <v>27223300</v>
+      </c>
+      <c r="P111">
+        <v>696680330000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1673446920000</v>
+      </c>
+      <c r="B112">
+        <v>2457300</v>
+      </c>
+      <c r="C112">
+        <v>1923300</v>
+      </c>
+      <c r="D112">
+        <v>8000</v>
+      </c>
+      <c r="E112">
+        <v>44895434000</v>
+      </c>
+      <c r="F112">
+        <v>35591428000</v>
+      </c>
+      <c r="G112">
+        <v>152055000</v>
+      </c>
+      <c r="H112">
+        <v>4388600</v>
+      </c>
+      <c r="I112">
+        <v>80638917000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-11T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>7523329342000</v>
+      </c>
+      <c r="L112">
+        <v>450989100</v>
+      </c>
+      <c r="M112">
+        <v>-534000</v>
+      </c>
+      <c r="N112">
+        <v>-9304006000</v>
+      </c>
+      <c r="O112">
+        <v>26689300</v>
+      </c>
+      <c r="P112">
+        <v>687376324000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1673447040000</v>
+      </c>
+      <c r="B113">
+        <v>2214700</v>
+      </c>
+      <c r="C113">
+        <v>2259700</v>
+      </c>
+      <c r="D113">
+        <v>40600</v>
+      </c>
+      <c r="E113">
+        <v>39124923000</v>
+      </c>
+      <c r="F113">
+        <v>40242281000</v>
+      </c>
+      <c r="G113">
+        <v>291431000</v>
+      </c>
+      <c r="H113">
+        <v>4515000</v>
+      </c>
+      <c r="I113">
+        <v>79658635000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-11T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>7602987977000</v>
+      </c>
+      <c r="L113">
+        <v>455504100</v>
+      </c>
+      <c r="M113">
+        <v>45000</v>
+      </c>
+      <c r="N113">
+        <v>1117358000</v>
+      </c>
+      <c r="O113">
+        <v>26734300</v>
+      </c>
+      <c r="P113">
+        <v>688493682000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1673447160000</v>
+      </c>
+      <c r="B114">
+        <v>1941300</v>
+      </c>
+      <c r="C114">
+        <v>2588600</v>
+      </c>
+      <c r="D114">
+        <v>13900</v>
+      </c>
+      <c r="E114">
+        <v>38346392000</v>
+      </c>
+      <c r="F114">
+        <v>44978786000</v>
+      </c>
+      <c r="G114">
+        <v>325808000</v>
+      </c>
+      <c r="H114">
+        <v>4543800</v>
+      </c>
+      <c r="I114">
+        <v>83650986000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-11T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>7686638963000</v>
+      </c>
+      <c r="L114">
+        <v>460047900</v>
+      </c>
+      <c r="M114">
+        <v>647300</v>
+      </c>
+      <c r="N114">
+        <v>6632394000</v>
+      </c>
+      <c r="O114">
+        <v>27381600</v>
+      </c>
+      <c r="P114">
+        <v>695126076000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1673447280000</v>
+      </c>
+      <c r="B115">
+        <v>2468400</v>
+      </c>
+      <c r="C115">
+        <v>2488600</v>
+      </c>
+      <c r="D115">
+        <v>34800</v>
+      </c>
+      <c r="E115">
+        <v>40023706000</v>
+      </c>
+      <c r="F115">
+        <v>41982330000</v>
+      </c>
+      <c r="G115">
+        <v>295546000</v>
+      </c>
+      <c r="H115">
+        <v>4991800</v>
+      </c>
+      <c r="I115">
+        <v>82301582000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-11T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>7768940545000</v>
+      </c>
+      <c r="L115">
+        <v>465039700</v>
+      </c>
+      <c r="M115">
+        <v>20200</v>
+      </c>
+      <c r="N115">
+        <v>1958624000</v>
+      </c>
+      <c r="O115">
+        <v>27401800</v>
+      </c>
+      <c r="P115">
+        <v>697084700000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1673447400000</v>
+      </c>
+      <c r="B116">
+        <v>30000</v>
+      </c>
+      <c r="C116">
+        <v>19000</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>459892000</v>
+      </c>
+      <c r="F116">
+        <v>350724000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>49000</v>
+      </c>
+      <c r="I116">
+        <v>810616000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-11T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>7769751161000</v>
+      </c>
+      <c r="L116">
+        <v>465088700</v>
+      </c>
+      <c r="M116">
+        <v>-11000</v>
+      </c>
+      <c r="N116">
+        <v>-109168000</v>
+      </c>
+      <c r="O116">
+        <v>27390800</v>
+      </c>
+      <c r="P116">
+        <v>696975532000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1673448240000</v>
+      </c>
+      <c r="B117">
         <v>1746300</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>427000</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>20325400</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>22150750000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>9180278000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>383116860000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>22498700</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>414447888000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-11T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-01-11T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>8184199049000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>487587400</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>-1319300</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>-12970472000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>26071500</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>684005060000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230111/VNINDEX_HOSE_5p_20230111.xlsx
+++ b/name/vnindex/20230111/VNINDEX_HOSE_5p_20230111.xlsx
@@ -466,25 +466,25 @@
         <v>5969300</v>
       </c>
       <c r="E2">
-        <v>52985032000</v>
+        <v>50005614400</v>
       </c>
       <c r="F2">
-        <v>48219945000</v>
+        <v>29215268700</v>
       </c>
       <c r="G2">
-        <v>60479720000</v>
+        <v>54341064800</v>
       </c>
       <c r="H2">
         <v>16126800</v>
       </c>
       <c r="I2">
-        <v>161684697000</v>
+        <v>133561947900</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-11T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>161684697000</v>
+        <v>133561947900</v>
       </c>
       <c r="L2">
         <v>16126800</v>
@@ -493,13 +493,13 @@
         <v>-4641700</v>
       </c>
       <c r="N2">
-        <v>-4765087000</v>
+        <v>-20790345700</v>
       </c>
       <c r="O2">
         <v>-4641700</v>
       </c>
       <c r="P2">
-        <v>-4765087000</v>
+        <v>-20790345700</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>34400</v>
       </c>
       <c r="E3">
-        <v>31755572000</v>
+        <v>29665064600</v>
       </c>
       <c r="F3">
-        <v>38075076000</v>
+        <v>36028724400</v>
       </c>
       <c r="G3">
-        <v>419714000</v>
+        <v>367566200</v>
       </c>
       <c r="H3">
         <v>6839000</v>
       </c>
       <c r="I3">
-        <v>70250362000</v>
+        <v>66061355200</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-11T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>231935059000</v>
+        <v>199623303100</v>
       </c>
       <c r="L3">
         <v>22965800</v>
@@ -543,13 +543,13 @@
         <v>-1591800</v>
       </c>
       <c r="N3">
-        <v>6319504000</v>
+        <v>6363659800</v>
       </c>
       <c r="O3">
         <v>-6233500</v>
       </c>
       <c r="P3">
-        <v>1554417000</v>
+        <v>-14426685900</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>14200</v>
       </c>
       <c r="E4">
-        <v>19435474000</v>
+        <v>18954855100</v>
       </c>
       <c r="F4">
-        <v>33780456000</v>
+        <v>30931407900</v>
       </c>
       <c r="G4">
         <v>105634000</v>
@@ -578,13 +578,13 @@
         <v>4241800</v>
       </c>
       <c r="I4">
-        <v>53321564000</v>
+        <v>49991897000</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-11T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>285256623000</v>
+        <v>249615200100</v>
       </c>
       <c r="L4">
         <v>27207600</v>
@@ -593,13 +593,13 @@
         <v>821400</v>
       </c>
       <c r="N4">
-        <v>14344982000</v>
+        <v>11976552800</v>
       </c>
       <c r="O4">
         <v>-5412100</v>
       </c>
       <c r="P4">
-        <v>15899399000</v>
+        <v>-2450133100</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>14600</v>
       </c>
       <c r="E5">
-        <v>20700753000</v>
+        <v>20518235700</v>
       </c>
       <c r="F5">
-        <v>26968574000</v>
+        <v>24230614700</v>
       </c>
       <c r="G5">
         <v>90943000</v>
@@ -628,13 +628,13 @@
         <v>3823000</v>
       </c>
       <c r="I5">
-        <v>47760270000</v>
+        <v>44839793400</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-11T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>333016893000</v>
+        <v>294454993500</v>
       </c>
       <c r="L5">
         <v>31030600</v>
@@ -643,13 +643,13 @@
         <v>-93800</v>
       </c>
       <c r="N5">
-        <v>6267821000</v>
+        <v>3712379000</v>
       </c>
       <c r="O5">
         <v>-5505900</v>
       </c>
       <c r="P5">
-        <v>22167220000</v>
+        <v>1262245900</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>5400</v>
       </c>
       <c r="E6">
-        <v>21745373000</v>
+        <v>20648970500</v>
       </c>
       <c r="F6">
-        <v>18833310000</v>
+        <v>17103042000</v>
       </c>
       <c r="G6">
-        <v>71669000</v>
+        <v>68572100</v>
       </c>
       <c r="H6">
         <v>3103000</v>
       </c>
       <c r="I6">
-        <v>40650352000</v>
+        <v>37820584600</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-11T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>373667245000</v>
+        <v>332275578100</v>
       </c>
       <c r="L6">
         <v>34133600</v>
@@ -693,13 +693,13 @@
         <v>-204400</v>
       </c>
       <c r="N6">
-        <v>-2912063000</v>
+        <v>-3545928500</v>
       </c>
       <c r="O6">
         <v>-5710300</v>
       </c>
       <c r="P6">
-        <v>19255157000</v>
+        <v>-2283682600</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>53400</v>
       </c>
       <c r="E7">
-        <v>15563778000</v>
+        <v>13296747300</v>
       </c>
       <c r="F7">
-        <v>20450696000</v>
+        <v>18472775900</v>
       </c>
       <c r="G7">
-        <v>523559000</v>
+        <v>508474100</v>
       </c>
       <c r="H7">
         <v>2645100</v>
       </c>
       <c r="I7">
-        <v>36538033000</v>
+        <v>32277997300</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-11T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>410205278000</v>
+        <v>364553575400</v>
       </c>
       <c r="L7">
         <v>36778700</v>
@@ -743,13 +743,13 @@
         <v>276700</v>
       </c>
       <c r="N7">
-        <v>4886918000</v>
+        <v>5176028600</v>
       </c>
       <c r="O7">
         <v>-5433600</v>
       </c>
       <c r="P7">
-        <v>24142075000</v>
+        <v>2892346000</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>6500</v>
       </c>
       <c r="E8">
-        <v>16366009000</v>
+        <v>15209666500</v>
       </c>
       <c r="F8">
-        <v>17199579000</v>
+        <v>16829749200</v>
       </c>
       <c r="G8">
         <v>37266000</v>
@@ -778,13 +778,13 @@
         <v>2486600</v>
       </c>
       <c r="I8">
-        <v>33602854000</v>
+        <v>32076681700</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-11T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>443808132000</v>
+        <v>396630257100</v>
       </c>
       <c r="L8">
         <v>39265300</v>
@@ -793,13 +793,13 @@
         <v>-25500</v>
       </c>
       <c r="N8">
-        <v>833570000</v>
+        <v>1620082700</v>
       </c>
       <c r="O8">
         <v>-5459100</v>
       </c>
       <c r="P8">
-        <v>24975645000</v>
+        <v>4512428700</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>55800</v>
       </c>
       <c r="E9">
-        <v>16879708000</v>
+        <v>16077910600</v>
       </c>
       <c r="F9">
-        <v>27896299000</v>
+        <v>27096599500</v>
       </c>
       <c r="G9">
-        <v>753367000</v>
+        <v>750370000</v>
       </c>
       <c r="H9">
         <v>3172800</v>
       </c>
       <c r="I9">
-        <v>45529374000</v>
+        <v>43924880100</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-11T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>489337506000</v>
+        <v>440555137200</v>
       </c>
       <c r="L9">
         <v>42438100</v>
@@ -843,13 +843,13 @@
         <v>435400</v>
       </c>
       <c r="N9">
-        <v>11016591000</v>
+        <v>11018688900</v>
       </c>
       <c r="O9">
         <v>-5023700</v>
       </c>
       <c r="P9">
-        <v>35992236000</v>
+        <v>15531117600</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>800</v>
       </c>
       <c r="E10">
-        <v>17815177000</v>
+        <v>16483909600</v>
       </c>
       <c r="F10">
-        <v>34004665000</v>
+        <v>31801070800</v>
       </c>
       <c r="G10">
         <v>15115000</v>
@@ -878,13 +878,13 @@
         <v>3376800</v>
       </c>
       <c r="I10">
-        <v>51834957000</v>
+        <v>48300095400</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-11T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>541172463000</v>
+        <v>488855232600</v>
       </c>
       <c r="L10">
         <v>45814900</v>
@@ -893,13 +893,13 @@
         <v>1153800</v>
       </c>
       <c r="N10">
-        <v>16189488000</v>
+        <v>15317161200</v>
       </c>
       <c r="O10">
         <v>-3869900</v>
       </c>
       <c r="P10">
-        <v>52181724000</v>
+        <v>30848278800</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>5700</v>
       </c>
       <c r="E11">
-        <v>16277062000</v>
+        <v>16219120000</v>
       </c>
       <c r="F11">
-        <v>42805319000</v>
+        <v>39316211600</v>
       </c>
       <c r="G11">
         <v>84020000</v>
@@ -928,13 +928,13 @@
         <v>3821700</v>
       </c>
       <c r="I11">
-        <v>59166401000</v>
+        <v>55619351600</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-11T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>600338864000</v>
+        <v>544474584200</v>
       </c>
       <c r="L11">
         <v>49636600</v>
@@ -943,13 +943,13 @@
         <v>1673600</v>
       </c>
       <c r="N11">
-        <v>26528257000</v>
+        <v>23097091600</v>
       </c>
       <c r="O11">
         <v>-2196300</v>
       </c>
       <c r="P11">
-        <v>78709981000</v>
+        <v>53945370400</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>64000</v>
       </c>
       <c r="E12">
-        <v>25885879000</v>
+        <v>24791174800</v>
       </c>
       <c r="F12">
-        <v>77238452000</v>
+        <v>69471227000</v>
       </c>
       <c r="G12">
-        <v>1055500000</v>
+        <v>1000555000</v>
       </c>
       <c r="H12">
         <v>6808600</v>
       </c>
       <c r="I12">
-        <v>104179831000</v>
+        <v>95262956800</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-11T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>704518695000</v>
+        <v>639737541000</v>
       </c>
       <c r="L12">
         <v>56445200</v>
@@ -993,13 +993,13 @@
         <v>3375400</v>
       </c>
       <c r="N12">
-        <v>51352573000</v>
+        <v>44680052200</v>
       </c>
       <c r="O12">
         <v>1179100</v>
       </c>
       <c r="P12">
-        <v>130062554000</v>
+        <v>98625422600</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>13500</v>
       </c>
       <c r="E13">
-        <v>22429414000</v>
+        <v>21003241600</v>
       </c>
       <c r="F13">
-        <v>72120671000</v>
+        <v>60864238700</v>
       </c>
       <c r="G13">
         <v>224568000</v>
@@ -1028,13 +1028,13 @@
         <v>5458600</v>
       </c>
       <c r="I13">
-        <v>94774653000</v>
+        <v>82092048300</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-11T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>799293348000</v>
+        <v>721829589300</v>
       </c>
       <c r="L13">
         <v>61903800</v>
@@ -1043,13 +1043,13 @@
         <v>2537900</v>
       </c>
       <c r="N13">
-        <v>49691257000</v>
+        <v>39860997100</v>
       </c>
       <c r="O13">
         <v>3717000</v>
       </c>
       <c r="P13">
-        <v>179753811000</v>
+        <v>138486419700</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>24300</v>
       </c>
       <c r="E14">
-        <v>23666886000</v>
+        <v>21480874200</v>
       </c>
       <c r="F14">
-        <v>81024986000</v>
+        <v>77114300600</v>
       </c>
       <c r="G14">
         <v>324832000</v>
@@ -1078,13 +1078,13 @@
         <v>6395700</v>
       </c>
       <c r="I14">
-        <v>105016704000</v>
+        <v>98920006800</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-11T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>904310052000</v>
+        <v>820749596100</v>
       </c>
       <c r="L14">
         <v>68299500</v>
@@ -1093,13 +1093,13 @@
         <v>3401400</v>
       </c>
       <c r="N14">
-        <v>57358100000</v>
+        <v>55633426400</v>
       </c>
       <c r="O14">
         <v>7118400</v>
       </c>
       <c r="P14">
-        <v>237111911000</v>
+        <v>194119846100</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>17100</v>
       </c>
       <c r="E15">
-        <v>24690240000</v>
+        <v>20634100200</v>
       </c>
       <c r="F15">
-        <v>82585647000</v>
+        <v>67039508700</v>
       </c>
       <c r="G15">
         <v>883519000</v>
@@ -1128,13 +1128,13 @@
         <v>6690100</v>
       </c>
       <c r="I15">
-        <v>108159406000</v>
+        <v>88557127900</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-11T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1012469458000</v>
+        <v>909306724000</v>
       </c>
       <c r="L15">
         <v>74989600</v>
@@ -1143,13 +1143,13 @@
         <v>3708000</v>
       </c>
       <c r="N15">
-        <v>57895407000</v>
+        <v>46405408500</v>
       </c>
       <c r="O15">
         <v>10826400</v>
       </c>
       <c r="P15">
-        <v>295007318000</v>
+        <v>240525254600</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>9000</v>
       </c>
       <c r="E16">
-        <v>34590677000</v>
+        <v>23495283500</v>
       </c>
       <c r="F16">
-        <v>72287510000</v>
+        <v>63255251300</v>
       </c>
       <c r="G16">
-        <v>208381000</v>
+        <v>188401000</v>
       </c>
       <c r="H16">
         <v>6482700</v>
       </c>
       <c r="I16">
-        <v>107086568000</v>
+        <v>86938935800</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-11T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1119556026000</v>
+        <v>996245659800</v>
       </c>
       <c r="L16">
         <v>81472300</v>
@@ -1193,13 +1193,13 @@
         <v>2655300</v>
       </c>
       <c r="N16">
-        <v>37696833000</v>
+        <v>39759967800</v>
       </c>
       <c r="O16">
         <v>13481700</v>
       </c>
       <c r="P16">
-        <v>332704151000</v>
+        <v>280285222400</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>5900</v>
       </c>
       <c r="E17">
-        <v>41792577000</v>
+        <v>36270804300</v>
       </c>
       <c r="F17">
-        <v>91406732000</v>
+        <v>80154795200</v>
       </c>
       <c r="G17">
         <v>101122000</v>
@@ -1228,13 +1228,13 @@
         <v>8362300</v>
       </c>
       <c r="I17">
-        <v>133300431000</v>
+        <v>116526721500</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-11T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1252856457000</v>
+        <v>1112772381300</v>
       </c>
       <c r="L17">
         <v>89834600</v>
@@ -1243,13 +1243,13 @@
         <v>3521600</v>
       </c>
       <c r="N17">
-        <v>49614155000</v>
+        <v>43883990900</v>
       </c>
       <c r="O17">
         <v>17003300</v>
       </c>
       <c r="P17">
-        <v>382318306000</v>
+        <v>324169213300</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>17200</v>
       </c>
       <c r="E18">
-        <v>29399213000</v>
+        <v>26062553000</v>
       </c>
       <c r="F18">
-        <v>34602886000</v>
+        <v>32045745700</v>
       </c>
       <c r="G18">
-        <v>242861000</v>
+        <v>233070800</v>
       </c>
       <c r="H18">
         <v>4255000</v>
       </c>
       <c r="I18">
-        <v>64244960000</v>
+        <v>58341369500</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-11T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1317101417000</v>
+        <v>1171113750800</v>
       </c>
       <c r="L18">
         <v>94089600</v>
@@ -1293,13 +1293,13 @@
         <v>188400</v>
       </c>
       <c r="N18">
-        <v>5203673000</v>
+        <v>5983192700</v>
       </c>
       <c r="O18">
         <v>17191700</v>
       </c>
       <c r="P18">
-        <v>387521979000</v>
+        <v>330152406000</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>9800</v>
       </c>
       <c r="E19">
-        <v>23207183000</v>
+        <v>20621471300</v>
       </c>
       <c r="F19">
-        <v>42373423000</v>
+        <v>32427379000</v>
       </c>
       <c r="G19">
         <v>135141000</v>
@@ -1328,13 +1328,13 @@
         <v>4185000</v>
       </c>
       <c r="I19">
-        <v>65715747000</v>
+        <v>53183991300</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-11T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1382817164000</v>
+        <v>1224297742100</v>
       </c>
       <c r="L19">
         <v>98274600</v>
@@ -1343,13 +1343,13 @@
         <v>1149400</v>
       </c>
       <c r="N19">
-        <v>19166240000</v>
+        <v>11805907700</v>
       </c>
       <c r="O19">
         <v>18341100</v>
       </c>
       <c r="P19">
-        <v>406688219000</v>
+        <v>341958313700</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>14600</v>
       </c>
       <c r="E20">
-        <v>25967512000</v>
+        <v>24361819300</v>
       </c>
       <c r="F20">
-        <v>37990109000</v>
+        <v>27984125000</v>
       </c>
       <c r="G20">
         <v>105462000</v>
@@ -1378,13 +1378,13 @@
         <v>3411100</v>
       </c>
       <c r="I20">
-        <v>64063083000</v>
+        <v>52451406300</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-11T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1446880247000</v>
+        <v>1276749148400</v>
       </c>
       <c r="L20">
         <v>101685700</v>
@@ -1393,13 +1393,13 @@
         <v>58900</v>
       </c>
       <c r="N20">
-        <v>12022597000</v>
+        <v>3622305700</v>
       </c>
       <c r="O20">
         <v>18400000</v>
       </c>
       <c r="P20">
-        <v>418710816000</v>
+        <v>345580619400</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>7700</v>
       </c>
       <c r="E21">
-        <v>30824008000</v>
+        <v>27774660400</v>
       </c>
       <c r="F21">
-        <v>21759782000</v>
+        <v>20343599600</v>
       </c>
       <c r="G21">
         <v>82944000</v>
@@ -1428,13 +1428,13 @@
         <v>3188600</v>
       </c>
       <c r="I21">
-        <v>52666734000</v>
+        <v>48201204000</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-11T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1499546981000</v>
+        <v>1324950352400</v>
       </c>
       <c r="L21">
         <v>104874300</v>
@@ -1443,13 +1443,13 @@
         <v>-669700</v>
       </c>
       <c r="N21">
-        <v>-9064226000</v>
+        <v>-7431060800</v>
       </c>
       <c r="O21">
         <v>17730300</v>
       </c>
       <c r="P21">
-        <v>409646590000</v>
+        <v>338149558600</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>13500</v>
       </c>
       <c r="E22">
-        <v>26217122000</v>
+        <v>22498044800</v>
       </c>
       <c r="F22">
-        <v>28022538000</v>
+        <v>26282879400</v>
       </c>
       <c r="G22">
         <v>67072000.00000001</v>
@@ -1478,13 +1478,13 @@
         <v>3433800</v>
       </c>
       <c r="I22">
-        <v>54306732000</v>
+        <v>48847996200</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-11T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1553853713000</v>
+        <v>1373798348600</v>
       </c>
       <c r="L22">
         <v>108308100</v>
@@ -1493,13 +1493,13 @@
         <v>-294300</v>
       </c>
       <c r="N22">
-        <v>1805416000</v>
+        <v>3784834600</v>
       </c>
       <c r="O22">
         <v>17436000</v>
       </c>
       <c r="P22">
-        <v>411452006000</v>
+        <v>341934393200</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>2000</v>
       </c>
       <c r="E23">
-        <v>20164458000</v>
+        <v>19836286500</v>
       </c>
       <c r="F23">
-        <v>23771369000</v>
+        <v>21505337300</v>
       </c>
       <c r="G23">
         <v>89231000.00000001</v>
@@ -1528,13 +1528,13 @@
         <v>2573800</v>
       </c>
       <c r="I23">
-        <v>44025058000</v>
+        <v>41430854800</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-11T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1597878771000</v>
+        <v>1415229203400</v>
       </c>
       <c r="L23">
         <v>110881900</v>
@@ -1543,13 +1543,13 @@
         <v>150200</v>
       </c>
       <c r="N23">
-        <v>3606911000</v>
+        <v>1669050800</v>
       </c>
       <c r="O23">
         <v>17586200</v>
       </c>
       <c r="P23">
-        <v>415058917000</v>
+        <v>343603444000</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>1000</v>
       </c>
       <c r="E24">
-        <v>29214349000</v>
+        <v>28452311800</v>
       </c>
       <c r="F24">
-        <v>27588889000</v>
+        <v>24272009200</v>
       </c>
       <c r="G24">
         <v>8766000</v>
@@ -1578,13 +1578,13 @@
         <v>3138400</v>
       </c>
       <c r="I24">
-        <v>56812004000</v>
+        <v>52733087000</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-11T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1654690775000</v>
+        <v>1467962290400</v>
       </c>
       <c r="L24">
         <v>114020300</v>
@@ -1593,13 +1593,13 @@
         <v>13400</v>
       </c>
       <c r="N24">
-        <v>-1625460000</v>
+        <v>-4180302600</v>
       </c>
       <c r="O24">
         <v>17599600</v>
       </c>
       <c r="P24">
-        <v>413433457000</v>
+        <v>339423141400</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>2800</v>
       </c>
       <c r="E25">
-        <v>29631070000</v>
+        <v>29093208400</v>
       </c>
       <c r="F25">
-        <v>22597098000</v>
+        <v>20214982500</v>
       </c>
       <c r="G25">
         <v>63614000</v>
@@ -1628,13 +1628,13 @@
         <v>3283100</v>
       </c>
       <c r="I25">
-        <v>52291782000</v>
+        <v>49371804900</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-11T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1706982557000</v>
+        <v>1517334095300</v>
       </c>
       <c r="L25">
         <v>117303400</v>
@@ -1643,13 +1643,13 @@
         <v>-371900</v>
       </c>
       <c r="N25">
-        <v>-7033972000</v>
+        <v>-8878225900</v>
       </c>
       <c r="O25">
         <v>17227700</v>
       </c>
       <c r="P25">
-        <v>406399485000</v>
+        <v>330544915500</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>4100</v>
       </c>
       <c r="E26">
-        <v>68437526000</v>
+        <v>67550314100</v>
       </c>
       <c r="F26">
-        <v>13666020000</v>
+        <v>11850837000</v>
       </c>
       <c r="G26">
         <v>67264000</v>
@@ -1678,13 +1678,13 @@
         <v>5329000</v>
       </c>
       <c r="I26">
-        <v>82170810000</v>
+        <v>79468415100</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-11T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1789153367000</v>
+        <v>1596802510400</v>
       </c>
       <c r="L26">
         <v>122632400</v>
@@ -1693,13 +1693,13 @@
         <v>-3852700</v>
       </c>
       <c r="N26">
-        <v>-54771506000</v>
+        <v>-55699477100</v>
       </c>
       <c r="O26">
         <v>13375000</v>
       </c>
       <c r="P26">
-        <v>351627979000</v>
+        <v>274845438400</v>
       </c>
     </row>
     <row r="27">
@@ -1716,25 +1716,25 @@
         <v>31200</v>
       </c>
       <c r="E27">
-        <v>28538813000</v>
+        <v>26200453700</v>
       </c>
       <c r="F27">
-        <v>26219282000</v>
+        <v>25726874900</v>
       </c>
       <c r="G27">
-        <v>819256000</v>
+        <v>791284000</v>
       </c>
       <c r="H27">
         <v>3441300</v>
       </c>
       <c r="I27">
-        <v>55577351000</v>
+        <v>52718612600</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-11T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1844730718000</v>
+        <v>1649521123000</v>
       </c>
       <c r="L27">
         <v>126073700</v>
@@ -1743,13 +1743,13 @@
         <v>41300</v>
       </c>
       <c r="N27">
-        <v>-2319531000</v>
+        <v>-473578800</v>
       </c>
       <c r="O27">
         <v>13416300</v>
       </c>
       <c r="P27">
-        <v>349308448000</v>
+        <v>274371859600</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>21700</v>
       </c>
       <c r="E28">
-        <v>31252800000</v>
+        <v>31076476500</v>
       </c>
       <c r="F28">
-        <v>19575365000</v>
+        <v>19217822900</v>
       </c>
       <c r="G28">
         <v>274450000</v>
@@ -1778,13 +1778,13 @@
         <v>3256800</v>
       </c>
       <c r="I28">
-        <v>51102615000</v>
+        <v>50568749400</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-11T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1895833333000</v>
+        <v>1700089872400</v>
       </c>
       <c r="L28">
         <v>129330500</v>
@@ -1793,13 +1793,13 @@
         <v>-811700</v>
       </c>
       <c r="N28">
-        <v>-11677435000</v>
+        <v>-11858653600</v>
       </c>
       <c r="O28">
         <v>12604600</v>
       </c>
       <c r="P28">
-        <v>337631013000</v>
+        <v>262513206000</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>31600</v>
       </c>
       <c r="E29">
-        <v>24616515000</v>
+        <v>23165967000</v>
       </c>
       <c r="F29">
-        <v>23337622000</v>
+        <v>20909852200</v>
       </c>
       <c r="G29">
-        <v>1041695000</v>
+        <v>50886800</v>
       </c>
       <c r="H29">
         <v>2813500</v>
       </c>
       <c r="I29">
-        <v>48995832000</v>
+        <v>44126706000</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-11T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1944829165000</v>
+        <v>1744216578400</v>
       </c>
       <c r="L29">
         <v>132144000</v>
@@ -1843,13 +1843,13 @@
         <v>-253100</v>
       </c>
       <c r="N29">
-        <v>-1278893000</v>
+        <v>-2256114800</v>
       </c>
       <c r="O29">
         <v>12351500</v>
       </c>
       <c r="P29">
-        <v>336352120000</v>
+        <v>260257091200</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>3000</v>
       </c>
       <c r="E30">
-        <v>21590728000</v>
+        <v>21258260800</v>
       </c>
       <c r="F30">
-        <v>23565333000</v>
+        <v>22871727300</v>
       </c>
       <c r="G30">
         <v>44400000</v>
@@ -1878,13 +1878,13 @@
         <v>2552500</v>
       </c>
       <c r="I30">
-        <v>45200461000</v>
+        <v>44174388100</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-11T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1990029626000</v>
+        <v>1788390966500</v>
       </c>
       <c r="L30">
         <v>134696500</v>
@@ -1893,13 +1893,13 @@
         <v>-168100</v>
       </c>
       <c r="N30">
-        <v>1974605000</v>
+        <v>1613466500</v>
       </c>
       <c r="O30">
         <v>12183400</v>
       </c>
       <c r="P30">
-        <v>338326725000</v>
+        <v>261870557700</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>20200</v>
       </c>
       <c r="E31">
-        <v>21587438000</v>
+        <v>20401425200</v>
       </c>
       <c r="F31">
-        <v>33710809000</v>
+        <v>30247076200</v>
       </c>
       <c r="G31">
         <v>211423000</v>
@@ -1928,13 +1928,13 @@
         <v>2854100</v>
       </c>
       <c r="I31">
-        <v>55509670000</v>
+        <v>50859924400</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-11T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2045539296000</v>
+        <v>1839250890900</v>
       </c>
       <c r="L31">
         <v>137550600</v>
@@ -1943,13 +1943,13 @@
         <v>321900</v>
       </c>
       <c r="N31">
-        <v>12123371000</v>
+        <v>9845651000</v>
       </c>
       <c r="O31">
         <v>12505300</v>
       </c>
       <c r="P31">
-        <v>350450096000</v>
+        <v>271716208700</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +1966,25 @@
         <v>800</v>
       </c>
       <c r="E32">
-        <v>14913592000</v>
+        <v>13914292300</v>
       </c>
       <c r="F32">
-        <v>21400282000</v>
+        <v>16991295400</v>
       </c>
       <c r="G32">
-        <v>54480000</v>
+        <v>26008500</v>
       </c>
       <c r="H32">
         <v>2155600</v>
       </c>
       <c r="I32">
-        <v>36368354000</v>
+        <v>30931596200</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-11T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2081907650000</v>
+        <v>1870182487100</v>
       </c>
       <c r="L32">
         <v>139706200</v>
@@ -1993,13 +1993,13 @@
         <v>263200</v>
       </c>
       <c r="N32">
-        <v>6486690000</v>
+        <v>3077003100</v>
       </c>
       <c r="O32">
         <v>12768500</v>
       </c>
       <c r="P32">
-        <v>356936786000</v>
+        <v>274793211800</v>
       </c>
     </row>
     <row r="33">
@@ -2016,25 +2016,25 @@
         <v>1500</v>
       </c>
       <c r="E33">
-        <v>14863548000</v>
+        <v>14257554600</v>
       </c>
       <c r="F33">
-        <v>36138483000</v>
+        <v>34502021100</v>
       </c>
       <c r="G33">
-        <v>20230000</v>
+        <v>7243000</v>
       </c>
       <c r="H33">
         <v>2956500</v>
       </c>
       <c r="I33">
-        <v>51022261000</v>
+        <v>48766818700</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-11T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2132929911000</v>
+        <v>1918949305800</v>
       </c>
       <c r="L33">
         <v>142662700</v>
@@ -2043,13 +2043,13 @@
         <v>1458400</v>
       </c>
       <c r="N33">
-        <v>21274935000</v>
+        <v>20244466500</v>
       </c>
       <c r="O33">
         <v>14226900</v>
       </c>
       <c r="P33">
-        <v>378211721000</v>
+        <v>295037678300</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>3600</v>
       </c>
       <c r="E34">
-        <v>28781182000</v>
+        <v>28487276200</v>
       </c>
       <c r="F34">
-        <v>32185235000</v>
+        <v>29862859700</v>
       </c>
       <c r="G34">
         <v>53595000</v>
@@ -2078,13 +2078,13 @@
         <v>3376700</v>
       </c>
       <c r="I34">
-        <v>61020012000</v>
+        <v>58403730900</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-11T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2193949923000</v>
+        <v>1977353036700</v>
       </c>
       <c r="L34">
         <v>146039400</v>
@@ -2093,13 +2093,13 @@
         <v>-88900</v>
       </c>
       <c r="N34">
-        <v>3404053000</v>
+        <v>1375583500</v>
       </c>
       <c r="O34">
         <v>14138000</v>
       </c>
       <c r="P34">
-        <v>381615774000</v>
+        <v>296413261800</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>3100</v>
       </c>
       <c r="E35">
-        <v>18357624000</v>
+        <v>18028253700</v>
       </c>
       <c r="F35">
-        <v>49604840000</v>
+        <v>40856796800</v>
       </c>
       <c r="G35">
         <v>13421000</v>
@@ -2128,13 +2128,13 @@
         <v>3753600</v>
       </c>
       <c r="I35">
-        <v>67975885000</v>
+        <v>58898471500</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-11T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2261925808000</v>
+        <v>2036251508200</v>
       </c>
       <c r="L35">
         <v>149793000</v>
@@ -2143,13 +2143,13 @@
         <v>1492500</v>
       </c>
       <c r="N35">
-        <v>31247216000</v>
+        <v>22828543100</v>
       </c>
       <c r="O35">
         <v>15630500</v>
       </c>
       <c r="P35">
-        <v>412862990000</v>
+        <v>319241804900</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>1900</v>
       </c>
       <c r="E36">
-        <v>23724324000</v>
+        <v>22520628900</v>
       </c>
       <c r="F36">
-        <v>56018490000</v>
+        <v>49167348000</v>
       </c>
       <c r="G36">
         <v>30380000</v>
@@ -2178,13 +2178,13 @@
         <v>4695200</v>
       </c>
       <c r="I36">
-        <v>79773194000</v>
+        <v>71718356900</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-11T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2341699002000</v>
+        <v>2107969865100</v>
       </c>
       <c r="L36">
         <v>154488200</v>
@@ -2193,13 +2193,13 @@
         <v>1886300</v>
       </c>
       <c r="N36">
-        <v>32294166000</v>
+        <v>26646719100</v>
       </c>
       <c r="O36">
         <v>17516800</v>
       </c>
       <c r="P36">
-        <v>445157156000</v>
+        <v>345888524000</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>10100</v>
       </c>
       <c r="E37">
-        <v>28815395000</v>
+        <v>27057754400</v>
       </c>
       <c r="F37">
-        <v>79010414000</v>
+        <v>76255471700</v>
       </c>
       <c r="G37">
         <v>71942000</v>
@@ -2228,13 +2228,13 @@
         <v>6539100</v>
       </c>
       <c r="I37">
-        <v>107897751000</v>
+        <v>103385168100</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-11T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>2449596753000</v>
+        <v>2211355033200</v>
       </c>
       <c r="L37">
         <v>161027300</v>
@@ -2243,13 +2243,13 @@
         <v>3489000</v>
       </c>
       <c r="N37">
-        <v>50195019000</v>
+        <v>49197717300</v>
       </c>
       <c r="O37">
         <v>21005800</v>
       </c>
       <c r="P37">
-        <v>495352175000</v>
+        <v>395086241300</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>13900</v>
       </c>
       <c r="E38">
-        <v>27456909000</v>
+        <v>26238528600</v>
       </c>
       <c r="F38">
-        <v>51861505000</v>
+        <v>40145532700</v>
       </c>
       <c r="G38">
         <v>287332000</v>
@@ -2278,13 +2278,13 @@
         <v>4650600</v>
       </c>
       <c r="I38">
-        <v>79605746000</v>
+        <v>66671393300</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-11T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2529202499000</v>
+        <v>2278026426500</v>
       </c>
       <c r="L38">
         <v>165677900</v>
@@ -2293,13 +2293,13 @@
         <v>1491500</v>
       </c>
       <c r="N38">
-        <v>24404596000</v>
+        <v>13907004100</v>
       </c>
       <c r="O38">
         <v>22497300</v>
       </c>
       <c r="P38">
-        <v>519756771000</v>
+        <v>408993245400</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>18800</v>
       </c>
       <c r="E39">
-        <v>22334582000</v>
+        <v>18716703500</v>
       </c>
       <c r="F39">
-        <v>55340095000</v>
+        <v>36868285300</v>
       </c>
       <c r="G39">
         <v>296186000</v>
@@ -2328,13 +2328,13 @@
         <v>4366700</v>
       </c>
       <c r="I39">
-        <v>77970863000</v>
+        <v>55881174800</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-11T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2607173362000</v>
+        <v>2333907601300</v>
       </c>
       <c r="L39">
         <v>170044600</v>
@@ -2343,13 +2343,13 @@
         <v>1936700</v>
       </c>
       <c r="N39">
-        <v>33005513000</v>
+        <v>18151581800</v>
       </c>
       <c r="O39">
         <v>24434000</v>
       </c>
       <c r="P39">
-        <v>552762284000</v>
+        <v>427144827200</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>7900</v>
       </c>
       <c r="E40">
-        <v>24620175000</v>
+        <v>23523273000</v>
       </c>
       <c r="F40">
-        <v>41651934000</v>
+        <v>39776711100</v>
       </c>
       <c r="G40">
-        <v>124622000.00000001</v>
+        <v>121724900.00000001</v>
       </c>
       <c r="H40">
         <v>3773800</v>
       </c>
       <c r="I40">
-        <v>66396731000</v>
+        <v>63421709000</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-11T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2673570093000</v>
+        <v>2397329310300</v>
       </c>
       <c r="L40">
         <v>173818400</v>
@@ -2393,13 +2393,13 @@
         <v>802700</v>
       </c>
       <c r="N40">
-        <v>17031759000</v>
+        <v>16253438100</v>
       </c>
       <c r="O40">
         <v>25236700</v>
       </c>
       <c r="P40">
-        <v>569794043000</v>
+        <v>443398265300</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>5300</v>
       </c>
       <c r="E41">
-        <v>24940523000</v>
+        <v>24472291700</v>
       </c>
       <c r="F41">
-        <v>33859139000</v>
+        <v>32023576400</v>
       </c>
       <c r="G41">
         <v>138109000</v>
@@ -2428,13 +2428,13 @@
         <v>3311900</v>
       </c>
       <c r="I41">
-        <v>58937771000</v>
+        <v>56633977100</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-11T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2732507864000</v>
+        <v>2453963287400</v>
       </c>
       <c r="L41">
         <v>177130300</v>
@@ -2443,13 +2443,13 @@
         <v>223200</v>
       </c>
       <c r="N41">
-        <v>8918616000</v>
+        <v>7551284700</v>
       </c>
       <c r="O41">
         <v>25459900</v>
       </c>
       <c r="P41">
-        <v>578712659000</v>
+        <v>450949550000</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>8100</v>
       </c>
       <c r="E42">
-        <v>19979786000</v>
+        <v>19686279800</v>
       </c>
       <c r="F42">
-        <v>52687954000</v>
+        <v>50774769100</v>
       </c>
       <c r="G42">
         <v>84123000</v>
@@ -2478,13 +2478,13 @@
         <v>4004600</v>
       </c>
       <c r="I42">
-        <v>72751863000</v>
+        <v>70545171900</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-11T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2805259727000</v>
+        <v>2524508459300</v>
       </c>
       <c r="L42">
         <v>181134900</v>
@@ -2493,13 +2493,13 @@
         <v>1776500</v>
       </c>
       <c r="N42">
-        <v>32708168000</v>
+        <v>31088489300</v>
       </c>
       <c r="O42">
         <v>27236400</v>
       </c>
       <c r="P42">
-        <v>611420827000</v>
+        <v>482038039300</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>24300</v>
       </c>
       <c r="E43">
-        <v>21384057000</v>
+        <v>19791651000</v>
       </c>
       <c r="F43">
-        <v>45610765000</v>
+        <v>44749926700</v>
       </c>
       <c r="G43">
         <v>493955000</v>
@@ -2528,13 +2528,13 @@
         <v>3676400</v>
       </c>
       <c r="I43">
-        <v>67488777000</v>
+        <v>65035532700</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-11T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2872748504000</v>
+        <v>2589543992000</v>
       </c>
       <c r="L43">
         <v>184811300</v>
@@ -2543,13 +2543,13 @@
         <v>1228300</v>
       </c>
       <c r="N43">
-        <v>24226708000</v>
+        <v>24958275700</v>
       </c>
       <c r="O43">
         <v>28464700</v>
       </c>
       <c r="P43">
-        <v>635647535000</v>
+        <v>506996315000</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>11200</v>
       </c>
       <c r="E44">
-        <v>25195920000</v>
+        <v>24928587600</v>
       </c>
       <c r="F44">
-        <v>53763595000</v>
+        <v>51397863100</v>
       </c>
       <c r="G44">
         <v>391735000</v>
@@ -2578,13 +2578,13 @@
         <v>4334400</v>
       </c>
       <c r="I44">
-        <v>79351250000</v>
+        <v>76718185700</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-11T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2952099754000</v>
+        <v>2666262177700</v>
       </c>
       <c r="L44">
         <v>189145700</v>
@@ -2593,13 +2593,13 @@
         <v>1288200</v>
       </c>
       <c r="N44">
-        <v>28567675000</v>
+        <v>26469275500</v>
       </c>
       <c r="O44">
         <v>29752900</v>
       </c>
       <c r="P44">
-        <v>664215210000</v>
+        <v>533465590500</v>
       </c>
     </row>
     <row r="45">
@@ -2616,25 +2616,25 @@
         <v>27400</v>
       </c>
       <c r="E45">
-        <v>20835768000</v>
+        <v>19281024300</v>
       </c>
       <c r="F45">
-        <v>57298734000</v>
+        <v>42463783800</v>
       </c>
       <c r="G45">
-        <v>287804000</v>
+        <v>285806000</v>
       </c>
       <c r="H45">
         <v>4523600</v>
       </c>
       <c r="I45">
-        <v>78422306000</v>
+        <v>62030614100</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-11T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3030522060000</v>
+        <v>2728292791800</v>
       </c>
       <c r="L45">
         <v>193669300</v>
@@ -2643,13 +2643,13 @@
         <v>2229800</v>
       </c>
       <c r="N45">
-        <v>36462966000</v>
+        <v>23182759500</v>
       </c>
       <c r="O45">
         <v>31982700</v>
       </c>
       <c r="P45">
-        <v>700678176000</v>
+        <v>556648350000</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>1100</v>
       </c>
       <c r="E46">
-        <v>17303069000</v>
+        <v>16406666300</v>
       </c>
       <c r="F46">
-        <v>65465164000</v>
+        <v>63511619500</v>
       </c>
       <c r="G46">
-        <v>11700000</v>
+        <v>10201500</v>
       </c>
       <c r="H46">
         <v>4694400</v>
       </c>
       <c r="I46">
-        <v>82779933000</v>
+        <v>79928487300</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-11T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3113301993000</v>
+        <v>2808221279100</v>
       </c>
       <c r="L46">
         <v>198363700</v>
@@ -2693,13 +2693,13 @@
         <v>2402500</v>
       </c>
       <c r="N46">
-        <v>48162095000</v>
+        <v>47104953200</v>
       </c>
       <c r="O46">
         <v>34385200</v>
       </c>
       <c r="P46">
-        <v>748840271000</v>
+        <v>603753303200</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>10400</v>
       </c>
       <c r="E47">
-        <v>17753303000</v>
+        <v>16790167100</v>
       </c>
       <c r="F47">
-        <v>53939506000</v>
+        <v>52040407000</v>
       </c>
       <c r="G47">
-        <v>148804000</v>
+        <v>104748100</v>
       </c>
       <c r="H47">
         <v>4384100</v>
       </c>
       <c r="I47">
-        <v>71841613000</v>
+        <v>68935322200</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-11T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>3185143606000</v>
+        <v>2877156601300</v>
       </c>
       <c r="L47">
         <v>202747800</v>
@@ -2743,13 +2743,13 @@
         <v>2360900</v>
       </c>
       <c r="N47">
-        <v>36186203000</v>
+        <v>35250239900</v>
       </c>
       <c r="O47">
         <v>36746100</v>
       </c>
       <c r="P47">
-        <v>785026474000</v>
+        <v>639003543100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,25 +2766,25 @@
         <v>13500</v>
       </c>
       <c r="E48">
-        <v>18240263000</v>
+        <v>17818685000</v>
       </c>
       <c r="F48">
-        <v>88972618000</v>
+        <v>86194399000</v>
       </c>
       <c r="G48">
-        <v>255539000</v>
+        <v>166428200</v>
       </c>
       <c r="H48">
         <v>5941100</v>
       </c>
       <c r="I48">
-        <v>107468420000</v>
+        <v>104179512200</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-11T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3292612026000</v>
+        <v>2981336113500</v>
       </c>
       <c r="L48">
         <v>208688900</v>
@@ -2793,13 +2793,13 @@
         <v>3992800</v>
       </c>
       <c r="N48">
-        <v>70732355000</v>
+        <v>68375714000</v>
       </c>
       <c r="O48">
         <v>40738900</v>
       </c>
       <c r="P48">
-        <v>855758829000</v>
+        <v>707379257100</v>
       </c>
     </row>
     <row r="49">
@@ -2816,25 +2816,25 @@
         <v>35400</v>
       </c>
       <c r="E49">
-        <v>28695025000</v>
+        <v>26393329000</v>
       </c>
       <c r="F49">
-        <v>112989277000</v>
+        <v>110034434800</v>
       </c>
       <c r="G49">
-        <v>707493000</v>
+        <v>662538000</v>
       </c>
       <c r="H49">
         <v>8463500</v>
       </c>
       <c r="I49">
-        <v>142391795000</v>
+        <v>137090301800</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-11T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>3435003821000</v>
+        <v>3118426415300</v>
       </c>
       <c r="L49">
         <v>217152400</v>
@@ -2843,13 +2843,13 @@
         <v>5100700</v>
       </c>
       <c r="N49">
-        <v>84294252000</v>
+        <v>83641105800</v>
       </c>
       <c r="O49">
         <v>45839600</v>
       </c>
       <c r="P49">
-        <v>940053081000</v>
+        <v>791020362900</v>
       </c>
     </row>
     <row r="50">
@@ -2866,25 +2866,25 @@
         <v>12900</v>
       </c>
       <c r="E50">
-        <v>26021073000</v>
+        <v>24199396500</v>
       </c>
       <c r="F50">
-        <v>144838493000</v>
+        <v>138680756900</v>
       </c>
       <c r="G50">
-        <v>303148000</v>
+        <v>133617700</v>
       </c>
       <c r="H50">
         <v>9509000</v>
       </c>
       <c r="I50">
-        <v>171162714000</v>
+        <v>163013771100</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-11T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>3606166535000</v>
+        <v>3281440186400</v>
       </c>
       <c r="L50">
         <v>226661400</v>
@@ -2893,13 +2893,13 @@
         <v>6244100</v>
       </c>
       <c r="N50">
-        <v>118817420000</v>
+        <v>114481360400</v>
       </c>
       <c r="O50">
         <v>52083700</v>
       </c>
       <c r="P50">
-        <v>1058870501000</v>
+        <v>905501723300</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>8700</v>
       </c>
       <c r="E51">
-        <v>23574448000</v>
+        <v>23139783100</v>
       </c>
       <c r="F51">
-        <v>123295787000</v>
+        <v>115749341000</v>
       </c>
       <c r="G51">
         <v>310115000</v>
@@ -2928,13 +2928,13 @@
         <v>8872700</v>
       </c>
       <c r="I51">
-        <v>147180350000</v>
+        <v>139199239100</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-11T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>3753346885000</v>
+        <v>3420639425500</v>
       </c>
       <c r="L51">
         <v>235534100</v>
@@ -2943,13 +2943,13 @@
         <v>5673600</v>
       </c>
       <c r="N51">
-        <v>99721339000</v>
+        <v>92609557900</v>
       </c>
       <c r="O51">
         <v>57757300</v>
       </c>
       <c r="P51">
-        <v>1158591840000</v>
+        <v>998111281200</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>20600</v>
       </c>
       <c r="E52">
-        <v>30172498000</v>
+        <v>29035136500</v>
       </c>
       <c r="F52">
-        <v>60953611000</v>
+        <v>58187180200</v>
       </c>
       <c r="G52">
         <v>510430000</v>
@@ -2978,13 +2978,13 @@
         <v>5659900</v>
       </c>
       <c r="I52">
-        <v>91636539000</v>
+        <v>87732746700</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-11T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>3844983424000</v>
+        <v>3508372172200</v>
       </c>
       <c r="L52">
         <v>241194000</v>
@@ -2993,13 +2993,13 @@
         <v>1993900</v>
       </c>
       <c r="N52">
-        <v>30781113000</v>
+        <v>29152043700</v>
       </c>
       <c r="O52">
         <v>59751200</v>
       </c>
       <c r="P52">
-        <v>1189372953000</v>
+        <v>1027263324900</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>12600</v>
       </c>
       <c r="E53">
-        <v>32057641000</v>
+        <v>31600998100</v>
       </c>
       <c r="F53">
-        <v>37802105000</v>
+        <v>35648760500</v>
       </c>
       <c r="G53">
         <v>927516000</v>
@@ -3028,13 +3028,13 @@
         <v>3836300</v>
       </c>
       <c r="I53">
-        <v>70787262000</v>
+        <v>68177274600</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-11T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>3915770686000</v>
+        <v>3576549446800</v>
       </c>
       <c r="L53">
         <v>245030300</v>
@@ -3043,13 +3043,13 @@
         <v>108300</v>
       </c>
       <c r="N53">
-        <v>5744464000</v>
+        <v>4047762400</v>
       </c>
       <c r="O53">
         <v>59859500</v>
       </c>
       <c r="P53">
-        <v>1195117417000</v>
+        <v>1031311087300</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>12200</v>
       </c>
       <c r="E54">
-        <v>37398522000</v>
+        <v>37065954900</v>
       </c>
       <c r="F54">
-        <v>39582437000</v>
+        <v>37650870500</v>
       </c>
       <c r="G54">
         <v>64935000</v>
@@ -3078,13 +3078,13 @@
         <v>4761400</v>
       </c>
       <c r="I54">
-        <v>77045894000</v>
+        <v>74781760400</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-11T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>3992816580000</v>
+        <v>3651331207200</v>
       </c>
       <c r="L54">
         <v>249791700</v>
@@ -3093,13 +3093,13 @@
         <v>-160000</v>
       </c>
       <c r="N54">
-        <v>2183915000</v>
+        <v>584915600</v>
       </c>
       <c r="O54">
         <v>59699500</v>
       </c>
       <c r="P54">
-        <v>1197301332000</v>
+        <v>1031896002900</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>19700</v>
       </c>
       <c r="E55">
-        <v>27303283000</v>
+        <v>26684002900</v>
       </c>
       <c r="F55">
-        <v>41683352000</v>
+        <v>38869968200</v>
       </c>
       <c r="G55">
         <v>353700000</v>
@@ -3128,13 +3128,13 @@
         <v>3584800</v>
       </c>
       <c r="I55">
-        <v>69340335000</v>
+        <v>65907671100</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-11T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>4062156915000</v>
+        <v>3717238878300</v>
       </c>
       <c r="L55">
         <v>253376500</v>
@@ -3143,13 +3143,13 @@
         <v>323300</v>
       </c>
       <c r="N55">
-        <v>14380069000</v>
+        <v>12185965300</v>
       </c>
       <c r="O55">
         <v>60022800</v>
       </c>
       <c r="P55">
-        <v>1211681401000</v>
+        <v>1044081968200</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>21200</v>
       </c>
       <c r="E56">
-        <v>30413026000</v>
+        <v>29796643000</v>
       </c>
       <c r="F56">
-        <v>23939813000</v>
+        <v>23344109300</v>
       </c>
       <c r="G56">
         <v>531180000</v>
@@ -3178,13 +3178,13 @@
         <v>3149600</v>
       </c>
       <c r="I56">
-        <v>54884019000</v>
+        <v>53671932300</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-11T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4117040934000</v>
+        <v>3770910810600</v>
       </c>
       <c r="L56">
         <v>256526100</v>
@@ -3193,13 +3193,13 @@
         <v>-460200</v>
       </c>
       <c r="N56">
-        <v>-6473213000</v>
+        <v>-6452533700</v>
       </c>
       <c r="O56">
         <v>59562600</v>
       </c>
       <c r="P56">
-        <v>1205208188000</v>
+        <v>1037629434500</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>14900</v>
       </c>
       <c r="E57">
-        <v>35707174000</v>
+        <v>33912070900</v>
       </c>
       <c r="F57">
-        <v>20977321000</v>
+        <v>19976622700</v>
       </c>
       <c r="G57">
         <v>268204000</v>
@@ -3228,13 +3228,13 @@
         <v>3066000</v>
       </c>
       <c r="I57">
-        <v>56952699000</v>
+        <v>54156897600</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-11T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4173993633000</v>
+        <v>3825067708200</v>
       </c>
       <c r="L57">
         <v>259592100</v>
@@ -3243,13 +3243,13 @@
         <v>-1024500</v>
       </c>
       <c r="N57">
-        <v>-14729853000</v>
+        <v>-13935448200</v>
       </c>
       <c r="O57">
         <v>58538100</v>
       </c>
       <c r="P57">
-        <v>1190478335000</v>
+        <v>1023693986300</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>300</v>
       </c>
       <c r="E58">
-        <v>25276462000</v>
+        <v>24510828400</v>
       </c>
       <c r="F58">
-        <v>37146244000</v>
+        <v>34577115700</v>
       </c>
       <c r="G58">
         <v>20105000</v>
@@ -3278,13 +3278,13 @@
         <v>3476100</v>
       </c>
       <c r="I58">
-        <v>62442811000</v>
+        <v>59108049100</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-11T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4236436444000</v>
+        <v>3884175757300</v>
       </c>
       <c r="L58">
         <v>263068200</v>
@@ -3293,13 +3293,13 @@
         <v>-123600</v>
       </c>
       <c r="N58">
-        <v>11869782000</v>
+        <v>10066287300</v>
       </c>
       <c r="O58">
         <v>58414500</v>
       </c>
       <c r="P58">
-        <v>1202348117000</v>
+        <v>1033760273600</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>4200</v>
       </c>
       <c r="E59">
-        <v>27139360000</v>
+        <v>23681421400</v>
       </c>
       <c r="F59">
-        <v>25301870000</v>
+        <v>24645726800</v>
       </c>
       <c r="G59">
         <v>31857000</v>
@@ -3328,13 +3328,13 @@
         <v>3260900</v>
       </c>
       <c r="I59">
-        <v>52473087000</v>
+        <v>48359005200</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-11T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4288909531000</v>
+        <v>3932534762500</v>
       </c>
       <c r="L59">
         <v>266329100</v>
@@ -3343,13 +3343,13 @@
         <v>-289300</v>
       </c>
       <c r="N59">
-        <v>-1837490000</v>
+        <v>964305400</v>
       </c>
       <c r="O59">
         <v>58125200</v>
       </c>
       <c r="P59">
-        <v>1200510627000</v>
+        <v>1034724579000</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>17900</v>
       </c>
       <c r="E60">
-        <v>28913206000</v>
+        <v>26758962400</v>
       </c>
       <c r="F60">
-        <v>17968321000</v>
+        <v>16710979600</v>
       </c>
       <c r="G60">
         <v>839340000</v>
@@ -3378,13 +3378,13 @@
         <v>2354200</v>
       </c>
       <c r="I60">
-        <v>47720867000</v>
+        <v>44309282000</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-11T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4336630398000</v>
+        <v>3976844044500</v>
       </c>
       <c r="L60">
         <v>268683300</v>
@@ -3393,13 +3393,13 @@
         <v>-691900</v>
       </c>
       <c r="N60">
-        <v>-10944885000</v>
+        <v>-10047982800</v>
       </c>
       <c r="O60">
         <v>57433300</v>
       </c>
       <c r="P60">
-        <v>1189565742000</v>
+        <v>1024676596200</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>600</v>
       </c>
       <c r="E61">
-        <v>19500118000</v>
+        <v>16770550300</v>
       </c>
       <c r="F61">
-        <v>23072097000</v>
+        <v>21060910200</v>
       </c>
       <c r="G61">
         <v>48480000</v>
@@ -3428,13 +3428,13 @@
         <v>2179200</v>
       </c>
       <c r="I61">
-        <v>42620695000</v>
+        <v>37879940500</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-11T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4379251093000</v>
+        <v>4014723985000</v>
       </c>
       <c r="L61">
         <v>270862500</v>
@@ -3443,13 +3443,13 @@
         <v>-206400</v>
       </c>
       <c r="N61">
-        <v>3571979000</v>
+        <v>4290359900</v>
       </c>
       <c r="O61">
         <v>57226900</v>
       </c>
       <c r="P61">
-        <v>1193137721000</v>
+        <v>1028966956100</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>11300</v>
       </c>
       <c r="E62">
-        <v>26211382000</v>
+        <v>25196897500</v>
       </c>
       <c r="F62">
-        <v>23482375000</v>
+        <v>21824134900</v>
       </c>
       <c r="G62">
         <v>359985000</v>
@@ -3478,13 +3478,13 @@
         <v>2518000</v>
       </c>
       <c r="I62">
-        <v>50053742000</v>
+        <v>47381017400</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-11T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4429304835000</v>
+        <v>4062105002400</v>
       </c>
       <c r="L62">
         <v>273380500</v>
@@ -3493,13 +3493,13 @@
         <v>17700</v>
       </c>
       <c r="N62">
-        <v>-2729007000</v>
+        <v>-3372762600</v>
       </c>
       <c r="O62">
         <v>57244600</v>
       </c>
       <c r="P62">
-        <v>1190408714000</v>
+        <v>1025594193500</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>4900</v>
       </c>
       <c r="E63">
-        <v>29395842000</v>
+        <v>28644294300</v>
       </c>
       <c r="F63">
-        <v>29814524000</v>
+        <v>29550388400</v>
       </c>
       <c r="G63">
         <v>64640000</v>
@@ -3528,13 +3528,13 @@
         <v>2866400</v>
       </c>
       <c r="I63">
-        <v>59275006000</v>
+        <v>58259322700</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-11T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4488579841000</v>
+        <v>4120364325100</v>
       </c>
       <c r="L63">
         <v>276246900</v>
@@ -3543,13 +3543,13 @@
         <v>-139300</v>
       </c>
       <c r="N63">
-        <v>418682000</v>
+        <v>906094100</v>
       </c>
       <c r="O63">
         <v>57105300</v>
       </c>
       <c r="P63">
-        <v>1190827396000</v>
+        <v>1026500287600</v>
       </c>
     </row>
     <row r="64">
@@ -3566,25 +3566,25 @@
         <v>2400</v>
       </c>
       <c r="E64">
-        <v>20260054000</v>
+        <v>17964851500</v>
       </c>
       <c r="F64">
-        <v>25404685000</v>
+        <v>22334458300</v>
       </c>
       <c r="G64">
-        <v>31550000</v>
+        <v>1679900</v>
       </c>
       <c r="H64">
         <v>2175000</v>
       </c>
       <c r="I64">
-        <v>45696289000</v>
+        <v>40300989700</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-11T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4534276130000</v>
+        <v>4160665314800</v>
       </c>
       <c r="L64">
         <v>278421900</v>
@@ -3593,13 +3593,13 @@
         <v>270600</v>
       </c>
       <c r="N64">
-        <v>5144631000</v>
+        <v>4369606800</v>
       </c>
       <c r="O64">
         <v>57375900</v>
       </c>
       <c r="P64">
-        <v>1195972027000</v>
+        <v>1030869894400</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>51400</v>
       </c>
       <c r="E65">
-        <v>20919733000</v>
+        <v>18918536200</v>
       </c>
       <c r="F65">
-        <v>27881650000</v>
+        <v>25712920900</v>
       </c>
       <c r="G65">
         <v>1139220000</v>
@@ -3628,13 +3628,13 @@
         <v>2494400</v>
       </c>
       <c r="I65">
-        <v>49940603000</v>
+        <v>45770677100</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-11T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4584216733000</v>
+        <v>4206435991900</v>
       </c>
       <c r="L65">
         <v>280916300</v>
@@ -3643,13 +3643,13 @@
         <v>215200</v>
       </c>
       <c r="N65">
-        <v>6961917000</v>
+        <v>6794384700</v>
       </c>
       <c r="O65">
         <v>57591100</v>
       </c>
       <c r="P65">
-        <v>1202933944000</v>
+        <v>1037664279100</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>20500</v>
       </c>
       <c r="E66">
-        <v>10952426000</v>
+        <v>10013665700</v>
       </c>
       <c r="F66">
-        <v>23265019000</v>
+        <v>21191994100</v>
       </c>
       <c r="G66">
         <v>298366000</v>
@@ -3678,13 +3678,13 @@
         <v>1863900</v>
       </c>
       <c r="I66">
-        <v>34515811000</v>
+        <v>31504025800</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-11T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4618732544000</v>
+        <v>4237940017700</v>
       </c>
       <c r="L66">
         <v>282780200</v>
@@ -3693,13 +3693,13 @@
         <v>634000</v>
       </c>
       <c r="N66">
-        <v>12312593000</v>
+        <v>11178328400</v>
       </c>
       <c r="O66">
         <v>58225100</v>
       </c>
       <c r="P66">
-        <v>1215246537000</v>
+        <v>1048842607500</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>2100</v>
       </c>
       <c r="E67">
-        <v>16259940000</v>
+        <v>15575125500</v>
       </c>
       <c r="F67">
-        <v>18478272000</v>
+        <v>16702249800</v>
       </c>
       <c r="G67">
         <v>57540000</v>
@@ -3728,13 +3728,13 @@
         <v>1845400</v>
       </c>
       <c r="I67">
-        <v>34795752000</v>
+        <v>32334915300</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-11T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>4653528296000</v>
+        <v>4270274933000</v>
       </c>
       <c r="L67">
         <v>284625600</v>
@@ -3743,13 +3743,13 @@
         <v>47300</v>
       </c>
       <c r="N67">
-        <v>2218332000</v>
+        <v>1127124300</v>
       </c>
       <c r="O67">
         <v>58272400</v>
       </c>
       <c r="P67">
-        <v>1217464869000</v>
+        <v>1049969731800</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>2100</v>
       </c>
       <c r="E68">
-        <v>15801198000</v>
+        <v>15107492400</v>
       </c>
       <c r="F68">
-        <v>14233596000</v>
+        <v>11546385900</v>
       </c>
       <c r="G68">
         <v>50715000</v>
@@ -3778,13 +3778,13 @@
         <v>1616200</v>
       </c>
       <c r="I68">
-        <v>30085509000</v>
+        <v>26704593300</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-11T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>4683613805000</v>
+        <v>4296979526300</v>
       </c>
       <c r="L68">
         <v>286241800</v>
@@ -3793,13 +3793,13 @@
         <v>-150500</v>
       </c>
       <c r="N68">
-        <v>-1567602000</v>
+        <v>-3561106500</v>
       </c>
       <c r="O68">
         <v>58121900</v>
       </c>
       <c r="P68">
-        <v>1215897267000</v>
+        <v>1046408625300</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>1000</v>
       </c>
       <c r="E69">
-        <v>23292368000</v>
+        <v>21583178900</v>
       </c>
       <c r="F69">
-        <v>12391233000</v>
+        <v>11397128100</v>
       </c>
       <c r="G69">
         <v>72200000</v>
@@ -3828,13 +3828,13 @@
         <v>2055300</v>
       </c>
       <c r="I69">
-        <v>35755801000</v>
+        <v>33052507000</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-11T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>4719369606000</v>
+        <v>4330032033300</v>
       </c>
       <c r="L69">
         <v>288297100</v>
@@ -3843,13 +3843,13 @@
         <v>-851500</v>
       </c>
       <c r="N69">
-        <v>-10901135000</v>
+        <v>-10186050800</v>
       </c>
       <c r="O69">
         <v>57270400</v>
       </c>
       <c r="P69">
-        <v>1204996132000</v>
+        <v>1036222574500</v>
       </c>
     </row>
     <row r="70">
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>930700000</v>
+        <v>225805600</v>
       </c>
       <c r="F70">
-        <v>30952000</v>
+        <v>982000</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>39700</v>
       </c>
       <c r="I70">
-        <v>961652000</v>
+        <v>226787600</v>
       </c>
       <c r="J70" t="str">
         <v>2023-01-11T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>4720331258000</v>
+        <v>4330258820900</v>
       </c>
       <c r="L70">
         <v>288336800</v>
@@ -3893,13 +3893,13 @@
         <v>-35500</v>
       </c>
       <c r="N70">
-        <v>-899748000</v>
+        <v>-224823600</v>
       </c>
       <c r="O70">
         <v>57234900</v>
       </c>
       <c r="P70">
-        <v>1204096384000</v>
+        <v>1035997750900</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>252100</v>
       </c>
       <c r="E71">
-        <v>59664065000</v>
+        <v>55869063800</v>
       </c>
       <c r="F71">
-        <v>43793553000</v>
+        <v>39071180100</v>
       </c>
       <c r="G71">
-        <v>1959004000</v>
+        <v>1935627400</v>
       </c>
       <c r="H71">
         <v>7097900</v>
       </c>
       <c r="I71">
-        <v>105416622000</v>
+        <v>96875871300</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-11T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>4825747880000</v>
+        <v>4427134692200</v>
       </c>
       <c r="L71">
         <v>295434700</v>
@@ -3943,13 +3943,13 @@
         <v>-843800</v>
       </c>
       <c r="N71">
-        <v>-15870512000</v>
+        <v>-16797883700</v>
       </c>
       <c r="O71">
         <v>56391100</v>
       </c>
       <c r="P71">
-        <v>1188225872000</v>
+        <v>1019199867200</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>3900</v>
       </c>
       <c r="E72">
-        <v>21912525000</v>
+        <v>21280957200</v>
       </c>
       <c r="F72">
-        <v>17673993000</v>
+        <v>15917451300</v>
       </c>
       <c r="G72">
-        <v>38358000</v>
+        <v>36859500</v>
       </c>
       <c r="H72">
         <v>2479100</v>
       </c>
       <c r="I72">
-        <v>39624876000</v>
+        <v>37235268000</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-11T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>4865372756000</v>
+        <v>4464369960200</v>
       </c>
       <c r="L72">
         <v>297913800</v>
@@ -3993,13 +3993,13 @@
         <v>-354000</v>
       </c>
       <c r="N72">
-        <v>-4238532000</v>
+        <v>-5363505900</v>
       </c>
       <c r="O72">
         <v>56037100</v>
       </c>
       <c r="P72">
-        <v>1183987340000</v>
+        <v>1013836361300</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>57300</v>
       </c>
       <c r="E73">
-        <v>28416967000</v>
+        <v>27037447900</v>
       </c>
       <c r="F73">
-        <v>29375243000</v>
+        <v>27337283000</v>
       </c>
       <c r="G73">
         <v>800268000</v>
@@ -4028,13 +4028,13 @@
         <v>3493800</v>
       </c>
       <c r="I73">
-        <v>58592478000</v>
+        <v>55174998900</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-11T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>4923965234000</v>
+        <v>4519544959100</v>
       </c>
       <c r="L73">
         <v>301407600</v>
@@ -4043,13 +4043,13 @@
         <v>70900</v>
       </c>
       <c r="N73">
-        <v>958276000</v>
+        <v>299835100</v>
       </c>
       <c r="O73">
         <v>56108000</v>
       </c>
       <c r="P73">
-        <v>1184945616000</v>
+        <v>1014136196400</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>114900</v>
       </c>
       <c r="E74">
-        <v>28402857000</v>
+        <v>27390770100</v>
       </c>
       <c r="F74">
-        <v>45865970000</v>
+        <v>44043694100</v>
       </c>
       <c r="G74">
         <v>1075543000</v>
@@ -4078,13 +4078,13 @@
         <v>5063800</v>
       </c>
       <c r="I74">
-        <v>75344370000</v>
+        <v>72510007200</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-11T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>4999309604000</v>
+        <v>4592054966300</v>
       </c>
       <c r="L74">
         <v>306471400</v>
@@ -4093,13 +4093,13 @@
         <v>1616500</v>
       </c>
       <c r="N74">
-        <v>17463113000</v>
+        <v>16652924000</v>
       </c>
       <c r="O74">
         <v>57724500</v>
       </c>
       <c r="P74">
-        <v>1202408729000</v>
+        <v>1030789120400</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>1300</v>
       </c>
       <c r="E75">
-        <v>19748076000</v>
+        <v>19446777600</v>
       </c>
       <c r="F75">
-        <v>33749237000</v>
+        <v>33061325600</v>
       </c>
       <c r="G75">
         <v>57350000</v>
@@ -4128,13 +4128,13 @@
         <v>3172100</v>
       </c>
       <c r="I75">
-        <v>53554663000</v>
+        <v>52565453200</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-11T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>5052864267000</v>
+        <v>4644620419500</v>
       </c>
       <c r="L75">
         <v>309643500</v>
@@ -4143,13 +4143,13 @@
         <v>835000</v>
       </c>
       <c r="N75">
-        <v>14001161000</v>
+        <v>13614548000</v>
       </c>
       <c r="O75">
         <v>58559500</v>
       </c>
       <c r="P75">
-        <v>1216409890000</v>
+        <v>1044403668400</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>73200</v>
       </c>
       <c r="E76">
-        <v>21335788000</v>
+        <v>20368556200</v>
       </c>
       <c r="F76">
-        <v>53305964000</v>
+        <v>50927844500</v>
       </c>
       <c r="G76">
         <v>689250000</v>
@@ -4178,13 +4178,13 @@
         <v>4372400</v>
       </c>
       <c r="I76">
-        <v>75331002000</v>
+        <v>71985650700</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-11T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>5128195269000</v>
+        <v>4716606070200</v>
       </c>
       <c r="L76">
         <v>314015900</v>
@@ -4193,13 +4193,13 @@
         <v>1525000</v>
       </c>
       <c r="N76">
-        <v>31970176000</v>
+        <v>30559288300</v>
       </c>
       <c r="O76">
         <v>60084500</v>
       </c>
       <c r="P76">
-        <v>1248380066000</v>
+        <v>1074962956700</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>9500</v>
       </c>
       <c r="E77">
-        <v>19877775000</v>
+        <v>19813839000</v>
       </c>
       <c r="F77">
-        <v>37139427000</v>
+        <v>35421446700</v>
       </c>
       <c r="G77">
         <v>258666000</v>
@@ -4228,13 +4228,13 @@
         <v>3669100</v>
       </c>
       <c r="I77">
-        <v>57275868000</v>
+        <v>55493951700</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-11T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>5185471137000</v>
+        <v>4772100021900</v>
       </c>
       <c r="L77">
         <v>317685000</v>
@@ -4243,13 +4243,13 @@
         <v>1025200</v>
       </c>
       <c r="N77">
-        <v>17261652000</v>
+        <v>15607607700</v>
       </c>
       <c r="O77">
         <v>61109700</v>
       </c>
       <c r="P77">
-        <v>1265641718000</v>
+        <v>1090570564400</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>6600</v>
       </c>
       <c r="E78">
-        <v>30176431000</v>
+        <v>29596411600</v>
       </c>
       <c r="F78">
-        <v>35753607000</v>
+        <v>34387274700</v>
       </c>
       <c r="G78">
         <v>124020000</v>
@@ -4278,13 +4278,13 @@
         <v>3928700</v>
       </c>
       <c r="I78">
-        <v>66054058000</v>
+        <v>64107706300</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-11T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>5251525195000</v>
+        <v>4836207728200</v>
       </c>
       <c r="L78">
         <v>321613700</v>
@@ -4293,13 +4293,13 @@
         <v>369900</v>
       </c>
       <c r="N78">
-        <v>5577176000</v>
+        <v>4790863100</v>
       </c>
       <c r="O78">
         <v>61479600</v>
       </c>
       <c r="P78">
-        <v>1271218894000</v>
+        <v>1095361427500</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>6500</v>
       </c>
       <c r="E79">
-        <v>26461978000</v>
+        <v>23405237800</v>
       </c>
       <c r="F79">
-        <v>45018813000</v>
+        <v>41852282700</v>
       </c>
       <c r="G79">
         <v>79575000</v>
@@ -4328,13 +4328,13 @@
         <v>4761100</v>
       </c>
       <c r="I79">
-        <v>71560366000</v>
+        <v>65337095500</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-11T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>5323085561000</v>
+        <v>4901544823700</v>
       </c>
       <c r="L79">
         <v>326374800</v>
@@ -4343,13 +4343,13 @@
         <v>1625600</v>
       </c>
       <c r="N79">
-        <v>18556835000</v>
+        <v>18447044900</v>
       </c>
       <c r="O79">
         <v>63105200</v>
       </c>
       <c r="P79">
-        <v>1289775729000</v>
+        <v>1113808472400</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>7000</v>
       </c>
       <c r="E80">
-        <v>34577437000</v>
+        <v>32240776000</v>
       </c>
       <c r="F80">
-        <v>40845583000</v>
+        <v>39722107600</v>
       </c>
       <c r="G80">
         <v>148720000</v>
@@ -4378,13 +4378,13 @@
         <v>4442600</v>
       </c>
       <c r="I80">
-        <v>75571740000</v>
+        <v>72111603600</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-11T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>5398657301000</v>
+        <v>4973656427300</v>
       </c>
       <c r="L80">
         <v>330817400</v>
@@ -4393,13 +4393,13 @@
         <v>180000</v>
       </c>
       <c r="N80">
-        <v>6268146000</v>
+        <v>7481331600</v>
       </c>
       <c r="O80">
         <v>63285200</v>
       </c>
       <c r="P80">
-        <v>1296043875000</v>
+        <v>1121289804000</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>7200</v>
       </c>
       <c r="E81">
-        <v>29133219000</v>
+        <v>27292461600</v>
       </c>
       <c r="F81">
-        <v>22267532000</v>
+        <v>21797003000</v>
       </c>
       <c r="G81">
         <v>133755000</v>
@@ -4428,13 +4428,13 @@
         <v>3067500</v>
       </c>
       <c r="I81">
-        <v>51534506000</v>
+        <v>49223219600</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-11T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>5450191807000</v>
+        <v>5022879646900</v>
       </c>
       <c r="L81">
         <v>333884900</v>
@@ -4443,13 +4443,13 @@
         <v>-545100</v>
       </c>
       <c r="N81">
-        <v>-6865687000</v>
+        <v>-5495458600</v>
       </c>
       <c r="O81">
         <v>62740100</v>
       </c>
       <c r="P81">
-        <v>1289178188000</v>
+        <v>1115794345400</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>5100</v>
       </c>
       <c r="E82">
-        <v>40930573000</v>
+        <v>31978933600</v>
       </c>
       <c r="F82">
-        <v>15668122000</v>
+        <v>14707483600</v>
       </c>
       <c r="G82">
         <v>76585000</v>
@@ -4478,13 +4478,13 @@
         <v>3208800</v>
       </c>
       <c r="I82">
-        <v>56675280000</v>
+        <v>46763002200</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-11T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>5506867087000</v>
+        <v>5069642649100</v>
       </c>
       <c r="L82">
         <v>337093700</v>
@@ -4493,13 +4493,13 @@
         <v>-1323100</v>
       </c>
       <c r="N82">
-        <v>-25262451000</v>
+        <v>-17271450000</v>
       </c>
       <c r="O82">
         <v>61417000</v>
       </c>
       <c r="P82">
-        <v>1263915737000</v>
+        <v>1098522895400</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>5100</v>
       </c>
       <c r="E83">
-        <v>61907475000</v>
+        <v>54497192700</v>
       </c>
       <c r="F83">
-        <v>15079960000</v>
+        <v>14280160600</v>
       </c>
       <c r="G83">
         <v>44398000</v>
@@ -4528,13 +4528,13 @@
         <v>4467000</v>
       </c>
       <c r="I83">
-        <v>77031833000</v>
+        <v>68821751300</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-11T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>5583898920000</v>
+        <v>5138464400400</v>
       </c>
       <c r="L83">
         <v>341560700</v>
@@ -4543,13 +4543,13 @@
         <v>-2643300</v>
       </c>
       <c r="N83">
-        <v>-46827515000</v>
+        <v>-40217032100</v>
       </c>
       <c r="O83">
         <v>58773700</v>
       </c>
       <c r="P83">
-        <v>1217088222000</v>
+        <v>1058305863300</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>107800</v>
       </c>
       <c r="E84">
-        <v>90880802000</v>
+        <v>86443244000</v>
       </c>
       <c r="F84">
-        <v>14672232000</v>
+        <v>12967438500</v>
       </c>
       <c r="G84">
-        <v>2635945000</v>
+        <v>81002500</v>
       </c>
       <c r="H84">
         <v>6213900</v>
       </c>
       <c r="I84">
-        <v>108188979000</v>
+        <v>99491685000</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-11T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>5692087899000</v>
+        <v>5237956085400</v>
       </c>
       <c r="L84">
         <v>347774600</v>
@@ -4593,13 +4593,13 @@
         <v>-4349100</v>
       </c>
       <c r="N84">
-        <v>-76208570000</v>
+        <v>-73475805500</v>
       </c>
       <c r="O84">
         <v>54424600</v>
       </c>
       <c r="P84">
-        <v>1140879652000</v>
+        <v>984830057800</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>12300</v>
       </c>
       <c r="E85">
-        <v>53581100000</v>
+        <v>50829854000</v>
       </c>
       <c r="F85">
-        <v>16064630000</v>
+        <v>15297597800</v>
       </c>
       <c r="G85">
         <v>75700000</v>
@@ -4628,13 +4628,13 @@
         <v>4337600</v>
       </c>
       <c r="I85">
-        <v>69721430000</v>
+        <v>66203151800</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-11T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>5761809329000</v>
+        <v>5304159237200</v>
       </c>
       <c r="L85">
         <v>352112200</v>
@@ -4643,13 +4643,13 @@
         <v>-2396500</v>
       </c>
       <c r="N85">
-        <v>-37516470000</v>
+        <v>-35532256200</v>
       </c>
       <c r="O85">
         <v>52028100</v>
       </c>
       <c r="P85">
-        <v>1103363182000</v>
+        <v>949297801600</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>7000</v>
       </c>
       <c r="E86">
-        <v>70744746000</v>
+        <v>62964134400</v>
       </c>
       <c r="F86">
-        <v>20145302000</v>
+        <v>17715534200</v>
       </c>
       <c r="G86">
-        <v>256890000</v>
+        <v>252594300</v>
       </c>
       <c r="H86">
         <v>5079900</v>
       </c>
       <c r="I86">
-        <v>91146938000</v>
+        <v>80932262900</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-11T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>5852956267000</v>
+        <v>5385091500100</v>
       </c>
       <c r="L86">
         <v>357192100</v>
@@ -4693,13 +4693,13 @@
         <v>-2970900</v>
       </c>
       <c r="N86">
-        <v>-50599444000</v>
+        <v>-45248600200</v>
       </c>
       <c r="O86">
         <v>49057200</v>
       </c>
       <c r="P86">
-        <v>1052763738000</v>
+        <v>904049201400</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>6100</v>
       </c>
       <c r="E87">
-        <v>29166214000</v>
+        <v>27605875900</v>
       </c>
       <c r="F87">
-        <v>35360672000</v>
+        <v>33173761100</v>
       </c>
       <c r="G87">
         <v>109921000</v>
@@ -4728,13 +4728,13 @@
         <v>4294900</v>
       </c>
       <c r="I87">
-        <v>64636807000</v>
+        <v>60889558000</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-11T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>5917593074000</v>
+        <v>5445981058100</v>
       </c>
       <c r="L87">
         <v>361487000</v>
@@ -4743,13 +4743,13 @@
         <v>430800</v>
       </c>
       <c r="N87">
-        <v>6194458000</v>
+        <v>5567885200</v>
       </c>
       <c r="O87">
         <v>49488000</v>
       </c>
       <c r="P87">
-        <v>1058958196000</v>
+        <v>909617086600</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>10800</v>
       </c>
       <c r="E88">
-        <v>31056024000</v>
+        <v>28377405300</v>
       </c>
       <c r="F88">
-        <v>24218922000</v>
+        <v>21377066700</v>
       </c>
       <c r="G88">
         <v>175239000</v>
@@ -4778,13 +4778,13 @@
         <v>3398500</v>
       </c>
       <c r="I88">
-        <v>55450185000</v>
+        <v>49929711000</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-11T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>5973043259000</v>
+        <v>5495910769100</v>
       </c>
       <c r="L88">
         <v>364885500</v>
@@ -4793,13 +4793,13 @@
         <v>-523700</v>
       </c>
       <c r="N88">
-        <v>-6837102000</v>
+        <v>-7000338600</v>
       </c>
       <c r="O88">
         <v>48964300</v>
       </c>
       <c r="P88">
-        <v>1052121094000</v>
+        <v>902616748000</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>24800</v>
       </c>
       <c r="E89">
-        <v>23539118000</v>
+        <v>19029831800</v>
       </c>
       <c r="F89">
-        <v>19508873000</v>
+        <v>18268914200</v>
       </c>
       <c r="G89">
         <v>159756000</v>
@@ -4828,13 +4828,13 @@
         <v>2552700</v>
       </c>
       <c r="I89">
-        <v>43207747000</v>
+        <v>37458502000</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-11T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>6016251006000</v>
+        <v>5533369271100</v>
       </c>
       <c r="L89">
         <v>367438200</v>
@@ -4843,13 +4843,13 @@
         <v>-150500</v>
       </c>
       <c r="N89">
-        <v>-4030245000</v>
+        <v>-760917600</v>
       </c>
       <c r="O89">
         <v>48813800</v>
       </c>
       <c r="P89">
-        <v>1048090849000</v>
+        <v>901855830400</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>4100</v>
       </c>
       <c r="E90">
-        <v>26249105000</v>
+        <v>23278478600</v>
       </c>
       <c r="F90">
-        <v>28221901000</v>
+        <v>27144179800</v>
       </c>
       <c r="G90">
         <v>80460000</v>
@@ -4878,13 +4878,13 @@
         <v>3348600</v>
       </c>
       <c r="I90">
-        <v>54551466000</v>
+        <v>50503118400</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-11T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>6070802472000</v>
+        <v>5583872389500</v>
       </c>
       <c r="L90">
         <v>370786800</v>
@@ -4893,13 +4893,13 @@
         <v>278500</v>
       </c>
       <c r="N90">
-        <v>1972796000</v>
+        <v>3865701200</v>
       </c>
       <c r="O90">
         <v>49092300</v>
       </c>
       <c r="P90">
-        <v>1050063645000</v>
+        <v>905721531600</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>5700</v>
       </c>
       <c r="E91">
-        <v>21758738000</v>
+        <v>19196802500</v>
       </c>
       <c r="F91">
-        <v>18652679000</v>
+        <v>17178055100</v>
       </c>
       <c r="G91">
         <v>62011000</v>
@@ -4928,13 +4928,13 @@
         <v>2457700</v>
       </c>
       <c r="I91">
-        <v>40473428000</v>
+        <v>36436868600</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-11T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>6111275900000</v>
+        <v>5620309258100</v>
       </c>
       <c r="L91">
         <v>373244500</v>
@@ -4943,13 +4943,13 @@
         <v>-232600</v>
       </c>
       <c r="N91">
-        <v>-3106059000</v>
+        <v>-2018747400</v>
       </c>
       <c r="O91">
         <v>48859700</v>
       </c>
       <c r="P91">
-        <v>1046957586000</v>
+        <v>903702784200</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>4600</v>
       </c>
       <c r="E92">
-        <v>42974026000</v>
+        <v>36777029200</v>
       </c>
       <c r="F92">
-        <v>16956298000</v>
+        <v>15608547100</v>
       </c>
       <c r="G92">
         <v>72379000</v>
@@ -4978,13 +4978,13 @@
         <v>3446500</v>
       </c>
       <c r="I92">
-        <v>60002703000</v>
+        <v>52457955300</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-11T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>6171278603000</v>
+        <v>5672767213400</v>
       </c>
       <c r="L92">
         <v>376691000</v>
@@ -4993,13 +4993,13 @@
         <v>-1546500</v>
       </c>
       <c r="N92">
-        <v>-26017728000</v>
+        <v>-21168482100</v>
       </c>
       <c r="O92">
         <v>47313200</v>
       </c>
       <c r="P92">
-        <v>1020939858000</v>
+        <v>882534302100</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>100</v>
       </c>
       <c r="E93">
-        <v>45926805000</v>
+        <v>44674758300</v>
       </c>
       <c r="F93">
-        <v>15381952000</v>
+        <v>14534000800</v>
       </c>
       <c r="G93">
         <v>3504999.9999999995</v>
@@ -5028,13 +5028,13 @@
         <v>3626900</v>
       </c>
       <c r="I93">
-        <v>61312262000</v>
+        <v>59212264100</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-11T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>6232590865000</v>
+        <v>5731979477500</v>
       </c>
       <c r="L93">
         <v>380317900</v>
@@ -5043,13 +5043,13 @@
         <v>-2019200</v>
       </c>
       <c r="N93">
-        <v>-30544853000</v>
+        <v>-30140757500</v>
       </c>
       <c r="O93">
         <v>45294000</v>
       </c>
       <c r="P93">
-        <v>990395005000</v>
+        <v>852393544600</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>13200</v>
       </c>
       <c r="E94">
-        <v>52680086000</v>
+        <v>46292380100</v>
       </c>
       <c r="F94">
-        <v>17287916000</v>
+        <v>16270134800</v>
       </c>
       <c r="G94">
-        <v>140325000</v>
+        <v>95370000</v>
       </c>
       <c r="H94">
         <v>3776000</v>
       </c>
       <c r="I94">
-        <v>70108327000</v>
+        <v>62657884900</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-11T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>6302699192000</v>
+        <v>5794637362400</v>
       </c>
       <c r="L94">
         <v>384093900</v>
@@ -5093,13 +5093,13 @@
         <v>-1875600</v>
       </c>
       <c r="N94">
-        <v>-35392170000</v>
+        <v>-30022245300</v>
       </c>
       <c r="O94">
         <v>43418400</v>
       </c>
       <c r="P94">
-        <v>955002835000</v>
+        <v>822371299300</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>7200</v>
       </c>
       <c r="E95">
-        <v>39557004000</v>
+        <v>37046716800</v>
       </c>
       <c r="F95">
-        <v>21874029000</v>
+        <v>21646257000</v>
       </c>
       <c r="G95">
         <v>204440000</v>
@@ -5128,13 +5128,13 @@
         <v>3544300</v>
       </c>
       <c r="I95">
-        <v>61635473000</v>
+        <v>58897413800</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-11T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>6364334665000</v>
+        <v>5853534776200</v>
       </c>
       <c r="L95">
         <v>387638200</v>
@@ -5143,13 +5143,13 @@
         <v>-1202900</v>
       </c>
       <c r="N95">
-        <v>-17682975000</v>
+        <v>-15400459800</v>
       </c>
       <c r="O95">
         <v>42215500</v>
       </c>
       <c r="P95">
-        <v>937319860000</v>
+        <v>806970839500</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>11200</v>
       </c>
       <c r="E96">
-        <v>21540957000</v>
+        <v>19671128700</v>
       </c>
       <c r="F96">
-        <v>41906650000</v>
+        <v>41186371000</v>
       </c>
       <c r="G96">
         <v>232706000</v>
@@ -5178,13 +5178,13 @@
         <v>3446900</v>
       </c>
       <c r="I96">
-        <v>63680313000</v>
+        <v>61090205700</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-11T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>6428014978000</v>
+        <v>5914624981900</v>
       </c>
       <c r="L96">
         <v>391085100</v>
@@ -5193,13 +5193,13 @@
         <v>797500</v>
       </c>
       <c r="N96">
-        <v>20365693000</v>
+        <v>21515242300</v>
       </c>
       <c r="O96">
         <v>43013000</v>
       </c>
       <c r="P96">
-        <v>957685553000</v>
+        <v>828486081800</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>3800</v>
       </c>
       <c r="E97">
-        <v>21682113000</v>
+        <v>19345352100</v>
       </c>
       <c r="F97">
-        <v>33440120000</v>
+        <v>31582979000</v>
       </c>
       <c r="G97">
         <v>24574000</v>
@@ -5228,13 +5228,13 @@
         <v>2897600</v>
       </c>
       <c r="I97">
-        <v>55146807000</v>
+        <v>50952905100</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-11T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>6483161785000</v>
+        <v>5965577887000</v>
       </c>
       <c r="L97">
         <v>393982700</v>
@@ -5243,13 +5243,13 @@
         <v>374400</v>
       </c>
       <c r="N97">
-        <v>11758007000</v>
+        <v>12237626900</v>
       </c>
       <c r="O97">
         <v>43387400</v>
       </c>
       <c r="P97">
-        <v>969443560000</v>
+        <v>840723708700</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>1400</v>
       </c>
       <c r="E98">
-        <v>23330077000</v>
+        <v>22048559800</v>
       </c>
       <c r="F98">
-        <v>30713838000</v>
+        <v>28221632700</v>
       </c>
       <c r="G98">
         <v>32155000</v>
@@ -5278,13 +5278,13 @@
         <v>2874700</v>
       </c>
       <c r="I98">
-        <v>54076070000</v>
+        <v>50302347500</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-11T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>6537237855000</v>
+        <v>6015880234500</v>
       </c>
       <c r="L98">
         <v>396857400</v>
@@ -5293,13 +5293,13 @@
         <v>277100</v>
       </c>
       <c r="N98">
-        <v>7383761000</v>
+        <v>6173072900</v>
       </c>
       <c r="O98">
         <v>43664500</v>
       </c>
       <c r="P98">
-        <v>976827321000</v>
+        <v>846896781600</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>2900</v>
       </c>
       <c r="E99">
-        <v>26162883000</v>
+        <v>23791356900</v>
       </c>
       <c r="F99">
-        <v>25843663000</v>
+        <v>24300907300</v>
       </c>
       <c r="G99">
         <v>48462000</v>
@@ -5328,13 +5328,13 @@
         <v>2602000</v>
       </c>
       <c r="I99">
-        <v>52055008000</v>
+        <v>48140726200</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-11T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>6589292863000</v>
+        <v>6064020960700</v>
       </c>
       <c r="L99">
         <v>399459400</v>
@@ -5343,13 +5343,13 @@
         <v>-160700</v>
       </c>
       <c r="N99">
-        <v>-319220000</v>
+        <v>509550400</v>
       </c>
       <c r="O99">
         <v>43503800</v>
       </c>
       <c r="P99">
-        <v>976508101000</v>
+        <v>847406332000</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>4400</v>
       </c>
       <c r="E100">
-        <v>51061145000</v>
+        <v>48082426700</v>
       </c>
       <c r="F100">
-        <v>13670738000</v>
+        <v>12871038500</v>
       </c>
       <c r="G100">
         <v>158255000</v>
@@ -5378,13 +5378,13 @@
         <v>3398100</v>
       </c>
       <c r="I100">
-        <v>64890138000</v>
+        <v>61111720200</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-11T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>6654183001000</v>
+        <v>6125132680900</v>
       </c>
       <c r="L100">
         <v>402857500</v>
@@ -5393,13 +5393,13 @@
         <v>-2049500</v>
       </c>
       <c r="N100">
-        <v>-37390407000</v>
+        <v>-35211388200</v>
       </c>
       <c r="O100">
         <v>41454300</v>
       </c>
       <c r="P100">
-        <v>939117694000</v>
+        <v>812194943800</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>7200</v>
       </c>
       <c r="E101">
-        <v>66662711000</v>
+        <v>60432147800</v>
       </c>
       <c r="F101">
-        <v>19204756000</v>
+        <v>18583577800</v>
       </c>
       <c r="G101">
         <v>198537000</v>
@@ -5428,13 +5428,13 @@
         <v>4796500</v>
       </c>
       <c r="I101">
-        <v>86066004000</v>
+        <v>79214262600</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-11T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>6740249005000</v>
+        <v>6204346943500</v>
       </c>
       <c r="L101">
         <v>407654000</v>
@@ -5443,13 +5443,13 @@
         <v>-2716100</v>
       </c>
       <c r="N101">
-        <v>-47457955000</v>
+        <v>-41848570000</v>
       </c>
       <c r="O101">
         <v>38738200</v>
       </c>
       <c r="P101">
-        <v>891659739000</v>
+        <v>770346373800</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>17400</v>
       </c>
       <c r="E102">
-        <v>59982994000</v>
+        <v>55620161200</v>
       </c>
       <c r="F102">
-        <v>19808780000</v>
+        <v>18796393400</v>
       </c>
       <c r="G102">
         <v>256123000</v>
@@ -5478,13 +5478,13 @@
         <v>4642000</v>
       </c>
       <c r="I102">
-        <v>80047897000</v>
+        <v>74672677600</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-11T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>6820296902000</v>
+        <v>6279019621100</v>
       </c>
       <c r="L102">
         <v>412296000</v>
@@ -5493,13 +5493,13 @@
         <v>-2452400</v>
       </c>
       <c r="N102">
-        <v>-40174214000</v>
+        <v>-36823767800</v>
       </c>
       <c r="O102">
         <v>36285800</v>
       </c>
       <c r="P102">
-        <v>851485525000</v>
+        <v>733522606000</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>5000</v>
       </c>
       <c r="E103">
-        <v>41818699000</v>
+        <v>41043375100</v>
       </c>
       <c r="F103">
-        <v>24536165000</v>
+        <v>22967035700</v>
       </c>
       <c r="G103">
-        <v>142670000</v>
+        <v>60352400</v>
       </c>
       <c r="H103">
         <v>3759800</v>
       </c>
       <c r="I103">
-        <v>66497534000</v>
+        <v>64070763200</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-11T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>6886794436000</v>
+        <v>6343090384300</v>
       </c>
       <c r="L103">
         <v>416055800</v>
@@ -5543,13 +5543,13 @@
         <v>-993000</v>
       </c>
       <c r="N103">
-        <v>-17282534000</v>
+        <v>-18076339400</v>
       </c>
       <c r="O103">
         <v>35292800</v>
       </c>
       <c r="P103">
-        <v>834202991000</v>
+        <v>715446266600</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>9900</v>
       </c>
       <c r="E104">
-        <v>29872837000</v>
+        <v>25671342700</v>
       </c>
       <c r="F104">
-        <v>20364330000</v>
+        <v>17434562700</v>
       </c>
       <c r="G104">
         <v>166355000</v>
@@ -5578,13 +5578,13 @@
         <v>2697200</v>
       </c>
       <c r="I104">
-        <v>50403522000</v>
+        <v>43272260400</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-11T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>6937197958000</v>
+        <v>6386362644700</v>
       </c>
       <c r="L104">
         <v>418753000</v>
@@ -5593,13 +5593,13 @@
         <v>-691500</v>
       </c>
       <c r="N104">
-        <v>-9508507000</v>
+        <v>-8236780000</v>
       </c>
       <c r="O104">
         <v>34601300</v>
       </c>
       <c r="P104">
-        <v>824694484000</v>
+        <v>707209486600</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>9000</v>
       </c>
       <c r="E105">
-        <v>26225082000</v>
+        <v>24235673400</v>
       </c>
       <c r="F105">
-        <v>32438433000</v>
+        <v>29892981000</v>
       </c>
       <c r="G105">
         <v>153004000</v>
@@ -5628,13 +5628,13 @@
         <v>3170500</v>
       </c>
       <c r="I105">
-        <v>58816519000</v>
+        <v>54281658400</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-11T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>6996014477000</v>
+        <v>6440644303100</v>
       </c>
       <c r="L105">
         <v>421923500</v>
@@ -5643,13 +5643,13 @@
         <v>80700</v>
       </c>
       <c r="N105">
-        <v>6213351000</v>
+        <v>5657307600</v>
       </c>
       <c r="O105">
         <v>34682000</v>
       </c>
       <c r="P105">
-        <v>830907835000</v>
+        <v>712866794200</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>9100</v>
       </c>
       <c r="E106">
-        <v>22243192000</v>
+        <v>19340297800</v>
       </c>
       <c r="F106">
-        <v>30390948000</v>
+        <v>27828812700</v>
       </c>
       <c r="G106">
-        <v>118209000</v>
+        <v>103723500</v>
       </c>
       <c r="H106">
         <v>2746000</v>
       </c>
       <c r="I106">
-        <v>52752349000</v>
+        <v>47272834000</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-11T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>7048766826000</v>
+        <v>6487917137100</v>
       </c>
       <c r="L106">
         <v>424669500</v>
@@ -5693,13 +5693,13 @@
         <v>336700</v>
       </c>
       <c r="N106">
-        <v>8147756000</v>
+        <v>8488514900</v>
       </c>
       <c r="O106">
         <v>35018700</v>
       </c>
       <c r="P106">
-        <v>839055591000</v>
+        <v>721355309100</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>4800</v>
       </c>
       <c r="E107">
-        <v>29800968000</v>
+        <v>29015953800</v>
       </c>
       <c r="F107">
-        <v>29540438000</v>
+        <v>27904475600</v>
       </c>
       <c r="G107">
         <v>100435000</v>
@@ -5728,13 +5728,13 @@
         <v>3397900</v>
       </c>
       <c r="I107">
-        <v>59441841000</v>
+        <v>57020864400</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-11T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>7108208667000</v>
+        <v>6544938001500</v>
       </c>
       <c r="L107">
         <v>428067400</v>
@@ -5743,13 +5743,13 @@
         <v>252500</v>
       </c>
       <c r="N107">
-        <v>-260530000</v>
+        <v>-1111478200</v>
       </c>
       <c r="O107">
         <v>35271200</v>
       </c>
       <c r="P107">
-        <v>838795061000</v>
+        <v>720243830900</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>1600</v>
       </c>
       <c r="E108">
-        <v>29131539000</v>
+        <v>28022549100</v>
       </c>
       <c r="F108">
-        <v>22710237000</v>
+        <v>18450101400</v>
       </c>
       <c r="G108">
         <v>5424000</v>
@@ -5778,13 +5778,13 @@
         <v>2698100</v>
       </c>
       <c r="I108">
-        <v>51847200000</v>
+        <v>46478074500</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-11T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>7160055867000</v>
+        <v>6591416076000</v>
       </c>
       <c r="L108">
         <v>430765500</v>
@@ -5793,13 +5793,13 @@
         <v>-305100</v>
       </c>
       <c r="N108">
-        <v>-6421302000</v>
+        <v>-9572447700</v>
       </c>
       <c r="O108">
         <v>34966100</v>
       </c>
       <c r="P108">
-        <v>832373759000</v>
+        <v>710671383200</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>11600</v>
       </c>
       <c r="E109">
-        <v>35502019000</v>
+        <v>34199023300</v>
       </c>
       <c r="F109">
-        <v>23340985000</v>
+        <v>20856871600</v>
       </c>
       <c r="G109">
         <v>335880000</v>
@@ -5828,13 +5828,13 @@
         <v>3001500</v>
       </c>
       <c r="I109">
-        <v>59178884000</v>
+        <v>55391774900</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-11T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>7219234751000</v>
+        <v>6646807850900</v>
       </c>
       <c r="L109">
         <v>433767000</v>
@@ -5843,13 +5843,13 @@
         <v>-488700</v>
       </c>
       <c r="N109">
-        <v>-12161034000</v>
+        <v>-13342151700</v>
       </c>
       <c r="O109">
         <v>34477400</v>
       </c>
       <c r="P109">
-        <v>820212725000</v>
+        <v>697329231500</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>4500</v>
       </c>
       <c r="E110">
-        <v>106234852000</v>
+        <v>97240954900</v>
       </c>
       <c r="F110">
-        <v>19783223000</v>
+        <v>19297908800</v>
       </c>
       <c r="G110">
         <v>102621000</v>
@@ -5878,13 +5878,13 @@
         <v>7109600</v>
       </c>
       <c r="I110">
-        <v>126120696000</v>
+        <v>116641484700</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-11T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>7345355447000</v>
+        <v>6763449335600</v>
       </c>
       <c r="L110">
         <v>440876600</v>
@@ -5893,13 +5893,13 @@
         <v>-4888900</v>
       </c>
       <c r="N110">
-        <v>-86451629000</v>
+        <v>-77943046100</v>
       </c>
       <c r="O110">
         <v>29588500</v>
       </c>
       <c r="P110">
-        <v>733761096000</v>
+        <v>619386185400</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>15900</v>
       </c>
       <c r="E111">
-        <v>67062547000</v>
+        <v>65107104400</v>
       </c>
       <c r="F111">
-        <v>29981781000</v>
+        <v>29471491800</v>
       </c>
       <c r="G111">
         <v>290650000</v>
@@ -5928,13 +5928,13 @@
         <v>5723900</v>
       </c>
       <c r="I111">
-        <v>97334978000</v>
+        <v>94869246200</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-11T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>7442690425000</v>
+        <v>6858318581800</v>
       </c>
       <c r="L111">
         <v>446600500</v>
@@ -5943,13 +5943,13 @@
         <v>-2365200</v>
       </c>
       <c r="N111">
-        <v>-37080766000</v>
+        <v>-35635612600</v>
       </c>
       <c r="O111">
         <v>27223300</v>
       </c>
       <c r="P111">
-        <v>696680330000</v>
+        <v>583750572800</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>8000</v>
       </c>
       <c r="E112">
-        <v>44895434000</v>
+        <v>42433398500</v>
       </c>
       <c r="F112">
-        <v>35591428000</v>
+        <v>33102019900</v>
       </c>
       <c r="G112">
         <v>152055000</v>
@@ -5978,13 +5978,13 @@
         <v>4388600</v>
       </c>
       <c r="I112">
-        <v>80638917000</v>
+        <v>75687473400</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-11T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>7523329342000</v>
+        <v>6934006055200</v>
       </c>
       <c r="L112">
         <v>450989100</v>
@@ -5993,13 +5993,13 @@
         <v>-534000</v>
       </c>
       <c r="N112">
-        <v>-9304006000</v>
+        <v>-9331378600</v>
       </c>
       <c r="O112">
         <v>26689300</v>
       </c>
       <c r="P112">
-        <v>687376324000</v>
+        <v>574419194200</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>40600</v>
       </c>
       <c r="E113">
-        <v>39124923000</v>
+        <v>36195655200</v>
       </c>
       <c r="F113">
-        <v>40242281000</v>
+        <v>37223502800</v>
       </c>
       <c r="G113">
         <v>291431000</v>
@@ -6028,13 +6028,13 @@
         <v>4515000</v>
       </c>
       <c r="I113">
-        <v>79658635000</v>
+        <v>73710589000</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-11T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>7602987977000</v>
+        <v>7007716644200</v>
       </c>
       <c r="L113">
         <v>455504100</v>
@@ -6043,13 +6043,13 @@
         <v>45000</v>
       </c>
       <c r="N113">
-        <v>1117358000</v>
+        <v>1027847600</v>
       </c>
       <c r="O113">
         <v>26734300</v>
       </c>
       <c r="P113">
-        <v>688493682000</v>
+        <v>575447041800</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>13900</v>
       </c>
       <c r="E114">
-        <v>38346392000</v>
+        <v>36174366200</v>
       </c>
       <c r="F114">
-        <v>44978786000</v>
+        <v>43420845500</v>
       </c>
       <c r="G114">
         <v>325808000</v>
@@ -6078,13 +6078,13 @@
         <v>4543800</v>
       </c>
       <c r="I114">
-        <v>83650986000</v>
+        <v>79921019700</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-11T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>7686638963000</v>
+        <v>7087637663900</v>
       </c>
       <c r="L114">
         <v>460047900</v>
@@ -6093,13 +6093,13 @@
         <v>647300</v>
       </c>
       <c r="N114">
-        <v>6632394000</v>
+        <v>7246479300</v>
       </c>
       <c r="O114">
         <v>27381600</v>
       </c>
       <c r="P114">
-        <v>695126076000</v>
+        <v>582693521100</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>34800</v>
       </c>
       <c r="E115">
-        <v>40023706000</v>
+        <v>37651081000</v>
       </c>
       <c r="F115">
-        <v>41982330000</v>
+        <v>40698914700</v>
       </c>
       <c r="G115">
         <v>295546000</v>
@@ -6128,13 +6128,13 @@
         <v>4991800</v>
       </c>
       <c r="I115">
-        <v>82301582000</v>
+        <v>78645541700</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-11T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>7768940545000</v>
+        <v>7166283205600</v>
       </c>
       <c r="L115">
         <v>465039700</v>
@@ -6143,13 +6143,13 @@
         <v>20200</v>
       </c>
       <c r="N115">
-        <v>1958624000</v>
+        <v>3047833700</v>
       </c>
       <c r="O115">
         <v>27401800</v>
       </c>
       <c r="P115">
-        <v>697084700000</v>
+        <v>585741354800</v>
       </c>
     </row>
     <row r="116">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>459892000</v>
+        <v>454397500</v>
       </c>
       <c r="F116">
         <v>350724000</v>
@@ -6178,13 +6178,13 @@
         <v>49000</v>
       </c>
       <c r="I116">
-        <v>810616000</v>
+        <v>805121500</v>
       </c>
       <c r="J116" t="str">
         <v>2023-01-11T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>7769751161000</v>
+        <v>7167088327100</v>
       </c>
       <c r="L116">
         <v>465088700</v>
@@ -6193,13 +6193,13 @@
         <v>-11000</v>
       </c>
       <c r="N116">
-        <v>-109168000</v>
+        <v>-103673500</v>
       </c>
       <c r="O116">
         <v>27390800</v>
       </c>
       <c r="P116">
-        <v>696975532000</v>
+        <v>585637681300</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>20325400</v>
       </c>
       <c r="E117">
-        <v>22150750000</v>
+        <v>22146154600</v>
       </c>
       <c r="F117">
-        <v>9180278000</v>
+        <v>7462097900</v>
       </c>
       <c r="G117">
-        <v>383116860000</v>
+        <v>349456953600</v>
       </c>
       <c r="H117">
         <v>22498700</v>
       </c>
       <c r="I117">
-        <v>414447888000</v>
+        <v>379065206100</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-11T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>8184199049000</v>
+        <v>7546153533200</v>
       </c>
       <c r="L117">
         <v>487587400</v>
@@ -6243,13 +6243,13 @@
         <v>-1319300</v>
       </c>
       <c r="N117">
-        <v>-12970472000</v>
+        <v>-14684056700</v>
       </c>
       <c r="O117">
         <v>26071500</v>
       </c>
       <c r="P117">
-        <v>684005060000</v>
+        <v>570953624600</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230111/VNINDEX_HOSE_5p_20230111.xlsx
+++ b/name/vnindex/20230111/VNINDEX_HOSE_5p_20230111.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-20790345700</v>
       </c>
+      <c r="Q2">
+        <v>29215268700</v>
+      </c>
+      <c r="R2">
+        <v>50005614400</v>
+      </c>
+      <c r="S2">
+        <v>2757900</v>
+      </c>
+      <c r="T2">
+        <v>7399600</v>
+      </c>
+      <c r="U2">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V2">
+        <v>28210903150</v>
+      </c>
+      <c r="W2">
+        <v>65053047700</v>
+      </c>
+      <c r="X2">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y2">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z2">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA2">
+        <v>224754.3</v>
+      </c>
+      <c r="AB2">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC2">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-14426685900</v>
       </c>
+      <c r="Q3">
+        <v>65243993100</v>
+      </c>
+      <c r="R3">
+        <v>79670679000</v>
+      </c>
+      <c r="S3">
+        <v>5364300</v>
+      </c>
+      <c r="T3">
+        <v>11597800</v>
+      </c>
+      <c r="U3">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V3">
+        <v>28210903150</v>
+      </c>
+      <c r="W3">
+        <v>65053047700</v>
+      </c>
+      <c r="X3">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y3">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z3">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA3">
+        <v>224754.3</v>
+      </c>
+      <c r="AB3">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC3">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-2450133100</v>
       </c>
+      <c r="Q4">
+        <v>96175401000</v>
+      </c>
+      <c r="R4">
+        <v>98625534100</v>
+      </c>
+      <c r="S4">
+        <v>7888800</v>
+      </c>
+      <c r="T4">
+        <v>13300900</v>
+      </c>
+      <c r="U4">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V4">
+        <v>28210903150</v>
+      </c>
+      <c r="W4">
+        <v>65053047700</v>
+      </c>
+      <c r="X4">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y4">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z4">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA4">
+        <v>224754.3</v>
+      </c>
+      <c r="AB4">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC4">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>1262245900</v>
       </c>
+      <c r="Q5">
+        <v>120406015700</v>
+      </c>
+      <c r="R5">
+        <v>119143769800</v>
+      </c>
+      <c r="S5">
+        <v>9746100</v>
+      </c>
+      <c r="T5">
+        <v>15252000</v>
+      </c>
+      <c r="U5">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V5">
+        <v>28210903150</v>
+      </c>
+      <c r="W5">
+        <v>65053047700</v>
+      </c>
+      <c r="X5">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y5">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z5">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA5">
+        <v>224754.3</v>
+      </c>
+      <c r="AB5">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-2283682600</v>
       </c>
+      <c r="Q6">
+        <v>137509057700</v>
+      </c>
+      <c r="R6">
+        <v>139792740300</v>
+      </c>
+      <c r="S6">
+        <v>11192700</v>
+      </c>
+      <c r="T6">
+        <v>16903000</v>
+      </c>
+      <c r="U6">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V6">
+        <v>28210903150</v>
+      </c>
+      <c r="W6">
+        <v>65053047700</v>
+      </c>
+      <c r="X6">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y6">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z6">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA6">
+        <v>224754.3</v>
+      </c>
+      <c r="AB6">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC6">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>2892346000</v>
       </c>
+      <c r="Q7">
+        <v>155981833600</v>
+      </c>
+      <c r="R7">
+        <v>153089487600</v>
+      </c>
+      <c r="S7">
+        <v>12626900</v>
+      </c>
+      <c r="T7">
+        <v>18060500</v>
+      </c>
+      <c r="U7">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V7">
+        <v>28210903150</v>
+      </c>
+      <c r="W7">
+        <v>65053047700</v>
+      </c>
+      <c r="X7">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y7">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z7">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA7">
+        <v>224754.3</v>
+      </c>
+      <c r="AB7">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC7">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>4512428700</v>
       </c>
+      <c r="Q8">
+        <v>172811582800</v>
+      </c>
+      <c r="R8">
+        <v>168299154100</v>
+      </c>
+      <c r="S8">
+        <v>13854200</v>
+      </c>
+      <c r="T8">
+        <v>19313300</v>
+      </c>
+      <c r="U8">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V8">
+        <v>28210903150</v>
+      </c>
+      <c r="W8">
+        <v>65053047700</v>
+      </c>
+      <c r="X8">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y8">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z8">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA8">
+        <v>224754.3</v>
+      </c>
+      <c r="AB8">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC8">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>15531117600</v>
       </c>
+      <c r="Q9">
+        <v>199908182300</v>
+      </c>
+      <c r="R9">
+        <v>184377064700</v>
+      </c>
+      <c r="S9">
+        <v>15630400</v>
+      </c>
+      <c r="T9">
+        <v>20654100</v>
+      </c>
+      <c r="U9">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V9">
+        <v>28210903150</v>
+      </c>
+      <c r="W9">
+        <v>65053047700</v>
+      </c>
+      <c r="X9">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y9">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z9">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA9">
+        <v>224754.3</v>
+      </c>
+      <c r="AB9">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC9">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>30848278800</v>
       </c>
+      <c r="Q10">
+        <v>231709253100</v>
+      </c>
+      <c r="R10">
+        <v>200860974300</v>
+      </c>
+      <c r="S10">
+        <v>17895300</v>
+      </c>
+      <c r="T10">
+        <v>21765200</v>
+      </c>
+      <c r="U10">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V10">
+        <v>28210903150</v>
+      </c>
+      <c r="W10">
+        <v>65053047700</v>
+      </c>
+      <c r="X10">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y10">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z10">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA10">
+        <v>224754.3</v>
+      </c>
+      <c r="AB10">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC10">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>53945370400</v>
       </c>
+      <c r="Q11">
+        <v>271025464700</v>
+      </c>
+      <c r="R11">
+        <v>217080094300</v>
+      </c>
+      <c r="S11">
+        <v>20640100</v>
+      </c>
+      <c r="T11">
+        <v>22836400</v>
+      </c>
+      <c r="U11">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V11">
+        <v>28210903150</v>
+      </c>
+      <c r="W11">
+        <v>65053047700</v>
+      </c>
+      <c r="X11">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y11">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z11">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA11">
+        <v>224754.3</v>
+      </c>
+      <c r="AB11">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC11">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>98625422600</v>
       </c>
+      <c r="Q12">
+        <v>340496691700</v>
+      </c>
+      <c r="R12">
+        <v>241871269100</v>
+      </c>
+      <c r="S12">
+        <v>25700100</v>
+      </c>
+      <c r="T12">
+        <v>24521000</v>
+      </c>
+      <c r="U12">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V12">
+        <v>28210903150</v>
+      </c>
+      <c r="W12">
+        <v>65053047700</v>
+      </c>
+      <c r="X12">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y12">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z12">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA12">
+        <v>224754.3</v>
+      </c>
+      <c r="AB12">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC12">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>138486419700</v>
       </c>
+      <c r="Q13">
+        <v>401360930400</v>
+      </c>
+      <c r="R13">
+        <v>262874510700</v>
+      </c>
+      <c r="S13">
+        <v>29691600</v>
+      </c>
+      <c r="T13">
+        <v>25974600</v>
+      </c>
+      <c r="U13">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V13">
+        <v>28210903150</v>
+      </c>
+      <c r="W13">
+        <v>65053047700</v>
+      </c>
+      <c r="X13">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y13">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z13">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA13">
+        <v>224754.3</v>
+      </c>
+      <c r="AB13">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC13">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>194119846100</v>
       </c>
+      <c r="Q14">
+        <v>478475231000</v>
+      </c>
+      <c r="R14">
+        <v>284355384900</v>
+      </c>
+      <c r="S14">
+        <v>34578000</v>
+      </c>
+      <c r="T14">
+        <v>27459600</v>
+      </c>
+      <c r="U14">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V14">
+        <v>28210903150</v>
+      </c>
+      <c r="W14">
+        <v>65053047700</v>
+      </c>
+      <c r="X14">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y14">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z14">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA14">
+        <v>224754.3</v>
+      </c>
+      <c r="AB14">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC14">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>240525254600</v>
       </c>
+      <c r="Q15">
+        <v>545514739700</v>
+      </c>
+      <c r="R15">
+        <v>304989485100</v>
+      </c>
+      <c r="S15">
+        <v>39768500</v>
+      </c>
+      <c r="T15">
+        <v>28942100</v>
+      </c>
+      <c r="U15">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V15">
+        <v>28210903150</v>
+      </c>
+      <c r="W15">
+        <v>65053047700</v>
+      </c>
+      <c r="X15">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y15">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z15">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA15">
+        <v>224754.3</v>
+      </c>
+      <c r="AB15">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC15">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>280285222400</v>
       </c>
+      <c r="Q16">
+        <v>608769991000</v>
+      </c>
+      <c r="R16">
+        <v>328484768600</v>
+      </c>
+      <c r="S16">
+        <v>44333000</v>
+      </c>
+      <c r="T16">
+        <v>30851300</v>
+      </c>
+      <c r="U16">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V16">
+        <v>28210903150</v>
+      </c>
+      <c r="W16">
+        <v>65053047700</v>
+      </c>
+      <c r="X16">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y16">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z16">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA16">
+        <v>224754.3</v>
+      </c>
+      <c r="AB16">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC16">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>324169213300</v>
       </c>
+      <c r="Q17">
+        <v>688924786200</v>
+      </c>
+      <c r="R17">
+        <v>364755572900</v>
+      </c>
+      <c r="S17">
+        <v>50272000</v>
+      </c>
+      <c r="T17">
+        <v>33268700</v>
+      </c>
+      <c r="U17">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V17">
+        <v>28210903150</v>
+      </c>
+      <c r="W17">
+        <v>65053047700</v>
+      </c>
+      <c r="X17">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y17">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z17">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA17">
+        <v>224754.3</v>
+      </c>
+      <c r="AB17">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC17">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>330152406000</v>
       </c>
+      <c r="Q18">
+        <v>720970531900</v>
+      </c>
+      <c r="R18">
+        <v>390818125900</v>
+      </c>
+      <c r="S18">
+        <v>52485100</v>
+      </c>
+      <c r="T18">
+        <v>35293400</v>
+      </c>
+      <c r="U18">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V18">
+        <v>28210903150</v>
+      </c>
+      <c r="W18">
+        <v>65053047700</v>
+      </c>
+      <c r="X18">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y18">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z18">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA18">
+        <v>224754.3</v>
+      </c>
+      <c r="AB18">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC18">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>341958313700</v>
       </c>
+      <c r="Q19">
+        <v>753397910900</v>
+      </c>
+      <c r="R19">
+        <v>411439597200</v>
+      </c>
+      <c r="S19">
+        <v>55147400</v>
+      </c>
+      <c r="T19">
+        <v>36806300</v>
+      </c>
+      <c r="U19">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V19">
+        <v>28210903150</v>
+      </c>
+      <c r="W19">
+        <v>65053047700</v>
+      </c>
+      <c r="X19">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y19">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z19">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA19">
+        <v>224754.3</v>
+      </c>
+      <c r="AB19">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC19">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>345580619400</v>
       </c>
+      <c r="Q20">
+        <v>781382035900</v>
+      </c>
+      <c r="R20">
+        <v>435801416500</v>
+      </c>
+      <c r="S20">
+        <v>56875100</v>
+      </c>
+      <c r="T20">
+        <v>38475100</v>
+      </c>
+      <c r="U20">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V20">
+        <v>28210903150</v>
+      </c>
+      <c r="W20">
+        <v>65053047700</v>
+      </c>
+      <c r="X20">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y20">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z20">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA20">
+        <v>224754.3</v>
+      </c>
+      <c r="AB20">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC20">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>338149558600</v>
       </c>
+      <c r="Q21">
+        <v>801725635500</v>
+      </c>
+      <c r="R21">
+        <v>463576076900</v>
+      </c>
+      <c r="S21">
+        <v>58130700</v>
+      </c>
+      <c r="T21">
+        <v>40400400</v>
+      </c>
+      <c r="U21">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V21">
+        <v>28210903150</v>
+      </c>
+      <c r="W21">
+        <v>65053047700</v>
+      </c>
+      <c r="X21">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y21">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z21">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA21">
+        <v>224754.3</v>
+      </c>
+      <c r="AB21">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC21">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>341934393200</v>
       </c>
+      <c r="Q22">
+        <v>828008514900</v>
+      </c>
+      <c r="R22">
+        <v>486074121700</v>
+      </c>
+      <c r="S22">
+        <v>59693700</v>
+      </c>
+      <c r="T22">
+        <v>42257700</v>
+      </c>
+      <c r="U22">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V22">
+        <v>28210903150</v>
+      </c>
+      <c r="W22">
+        <v>65053047700</v>
+      </c>
+      <c r="X22">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y22">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z22">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA22">
+        <v>224754.3</v>
+      </c>
+      <c r="AB22">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC22">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>343603444000</v>
       </c>
+      <c r="Q23">
+        <v>849513852200</v>
+      </c>
+      <c r="R23">
+        <v>505910408200</v>
+      </c>
+      <c r="S23">
+        <v>61054700</v>
+      </c>
+      <c r="T23">
+        <v>43468500</v>
+      </c>
+      <c r="U23">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V23">
+        <v>28210903150</v>
+      </c>
+      <c r="W23">
+        <v>65053047700</v>
+      </c>
+      <c r="X23">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y23">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z23">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA23">
+        <v>224754.3</v>
+      </c>
+      <c r="AB23">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC23">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>339423141400</v>
       </c>
+      <c r="Q24">
+        <v>873785861400</v>
+      </c>
+      <c r="R24">
+        <v>534362720000</v>
+      </c>
+      <c r="S24">
+        <v>62630100</v>
+      </c>
+      <c r="T24">
+        <v>45030500</v>
+      </c>
+      <c r="U24">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V24">
+        <v>28210903150</v>
+      </c>
+      <c r="W24">
+        <v>65053047700</v>
+      </c>
+      <c r="X24">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y24">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z24">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA24">
+        <v>224754.3</v>
+      </c>
+      <c r="AB24">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC24">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>330544915500</v>
       </c>
+      <c r="Q25">
+        <v>894000843900</v>
+      </c>
+      <c r="R25">
+        <v>563455928400</v>
+      </c>
+      <c r="S25">
+        <v>64084300</v>
+      </c>
+      <c r="T25">
+        <v>46856600</v>
+      </c>
+      <c r="U25">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V25">
+        <v>28210903150</v>
+      </c>
+      <c r="W25">
+        <v>65053047700</v>
+      </c>
+      <c r="X25">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y25">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z25">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA25">
+        <v>224754.3</v>
+      </c>
+      <c r="AB25">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC25">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>274845438400</v>
       </c>
+      <c r="Q26">
+        <v>905851680900</v>
+      </c>
+      <c r="R26">
+        <v>631006242500</v>
+      </c>
+      <c r="S26">
+        <v>64820400</v>
+      </c>
+      <c r="T26">
+        <v>51445400</v>
+      </c>
+      <c r="U26">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V26">
+        <v>28210903150</v>
+      </c>
+      <c r="W26">
+        <v>65053047700</v>
+      </c>
+      <c r="X26">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y26">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z26">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA26">
+        <v>224754.3</v>
+      </c>
+      <c r="AB26">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC26">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>274371859600</v>
       </c>
+      <c r="Q27">
+        <v>931578555800</v>
+      </c>
+      <c r="R27">
+        <v>657206696200</v>
+      </c>
+      <c r="S27">
+        <v>66546100</v>
+      </c>
+      <c r="T27">
+        <v>53129800</v>
+      </c>
+      <c r="U27">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V27">
+        <v>28210903150</v>
+      </c>
+      <c r="W27">
+        <v>65053047700</v>
+      </c>
+      <c r="X27">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y27">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z27">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA27">
+        <v>224754.3</v>
+      </c>
+      <c r="AB27">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC27">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>262513206000</v>
       </c>
+      <c r="Q28">
+        <v>950796378700</v>
+      </c>
+      <c r="R28">
+        <v>688283172700</v>
+      </c>
+      <c r="S28">
+        <v>67757800</v>
+      </c>
+      <c r="T28">
+        <v>55153200</v>
+      </c>
+      <c r="U28">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V28">
+        <v>28210903150</v>
+      </c>
+      <c r="W28">
+        <v>65053047700</v>
+      </c>
+      <c r="X28">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y28">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z28">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA28">
+        <v>224754.3</v>
+      </c>
+      <c r="AB28">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC28">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>260257091200</v>
       </c>
+      <c r="Q29">
+        <v>971706230900</v>
+      </c>
+      <c r="R29">
+        <v>711449139700</v>
+      </c>
+      <c r="S29">
+        <v>69022200</v>
+      </c>
+      <c r="T29">
+        <v>56670700</v>
+      </c>
+      <c r="U29">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V29">
+        <v>28210903150</v>
+      </c>
+      <c r="W29">
+        <v>65053047700</v>
+      </c>
+      <c r="X29">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y29">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z29">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA29">
+        <v>224754.3</v>
+      </c>
+      <c r="AB29">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC29">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>261870557700</v>
       </c>
+      <c r="Q30">
+        <v>994577958200</v>
+      </c>
+      <c r="R30">
+        <v>732707400500</v>
+      </c>
+      <c r="S30">
+        <v>70212900</v>
+      </c>
+      <c r="T30">
+        <v>58029500</v>
+      </c>
+      <c r="U30">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V30">
+        <v>28210903150</v>
+      </c>
+      <c r="W30">
+        <v>65053047700</v>
+      </c>
+      <c r="X30">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y30">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z30">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA30">
+        <v>224754.3</v>
+      </c>
+      <c r="AB30">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC30">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>271716208700</v>
       </c>
+      <c r="Q31">
+        <v>1024825034400</v>
+      </c>
+      <c r="R31">
+        <v>753108825700</v>
+      </c>
+      <c r="S31">
+        <v>71790800</v>
+      </c>
+      <c r="T31">
+        <v>59285500</v>
+      </c>
+      <c r="U31">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V31">
+        <v>28210903150</v>
+      </c>
+      <c r="W31">
+        <v>65053047700</v>
+      </c>
+      <c r="X31">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y31">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z31">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA31">
+        <v>224754.3</v>
+      </c>
+      <c r="AB31">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>274793211800</v>
       </c>
+      <c r="Q32">
+        <v>1041816329800</v>
+      </c>
+      <c r="R32">
+        <v>767023118000</v>
+      </c>
+      <c r="S32">
+        <v>72999800</v>
+      </c>
+      <c r="T32">
+        <v>60231300</v>
+      </c>
+      <c r="U32">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V32">
+        <v>28210903150</v>
+      </c>
+      <c r="W32">
+        <v>65053047700</v>
+      </c>
+      <c r="X32">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y32">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z32">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA32">
+        <v>224754.3</v>
+      </c>
+      <c r="AB32">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC32">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>295037678300</v>
       </c>
+      <c r="Q33">
+        <v>1076318350900</v>
+      </c>
+      <c r="R33">
+        <v>781280672600</v>
+      </c>
+      <c r="S33">
+        <v>75206500</v>
+      </c>
+      <c r="T33">
+        <v>60979600</v>
+      </c>
+      <c r="U33">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V33">
+        <v>28210903150</v>
+      </c>
+      <c r="W33">
+        <v>65053047700</v>
+      </c>
+      <c r="X33">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y33">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z33">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA33">
+        <v>224754.3</v>
+      </c>
+      <c r="AB33">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC33">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>296413261800</v>
       </c>
+      <c r="Q34">
+        <v>1106181210600</v>
+      </c>
+      <c r="R34">
+        <v>809767948800</v>
+      </c>
+      <c r="S34">
+        <v>76848600</v>
+      </c>
+      <c r="T34">
+        <v>62710600</v>
+      </c>
+      <c r="U34">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V34">
+        <v>28210903150</v>
+      </c>
+      <c r="W34">
+        <v>65053047700</v>
+      </c>
+      <c r="X34">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y34">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z34">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA34">
+        <v>224754.3</v>
+      </c>
+      <c r="AB34">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC34">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>319241804900</v>
       </c>
+      <c r="Q35">
+        <v>1147038007400</v>
+      </c>
+      <c r="R35">
+        <v>827796202500</v>
+      </c>
+      <c r="S35">
+        <v>79470100</v>
+      </c>
+      <c r="T35">
+        <v>63839600</v>
+      </c>
+      <c r="U35">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V35">
+        <v>28210903150</v>
+      </c>
+      <c r="W35">
+        <v>65053047700</v>
+      </c>
+      <c r="X35">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y35">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z35">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA35">
+        <v>224754.3</v>
+      </c>
+      <c r="AB35">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC35">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>345888524000</v>
       </c>
+      <c r="Q36">
+        <v>1196205355400</v>
+      </c>
+      <c r="R36">
+        <v>850316831400</v>
+      </c>
+      <c r="S36">
+        <v>82759900</v>
+      </c>
+      <c r="T36">
+        <v>65243100</v>
+      </c>
+      <c r="U36">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V36">
+        <v>28210903150</v>
+      </c>
+      <c r="W36">
+        <v>65053047700</v>
+      </c>
+      <c r="X36">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y36">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z36">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA36">
+        <v>224754.3</v>
+      </c>
+      <c r="AB36">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC36">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>395086241300</v>
       </c>
+      <c r="Q37">
+        <v>1272460827100</v>
+      </c>
+      <c r="R37">
+        <v>877374585800</v>
+      </c>
+      <c r="S37">
+        <v>87768900</v>
+      </c>
+      <c r="T37">
+        <v>66763100</v>
+      </c>
+      <c r="U37">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V37">
+        <v>28210903150</v>
+      </c>
+      <c r="W37">
+        <v>65053047700</v>
+      </c>
+      <c r="X37">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y37">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z37">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA37">
+        <v>224754.3</v>
+      </c>
+      <c r="AB37">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC37">
+        <v>10</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>408993245400</v>
       </c>
+      <c r="Q38">
+        <v>1312606359800</v>
+      </c>
+      <c r="R38">
+        <v>903613114400</v>
+      </c>
+      <c r="S38">
+        <v>90833000</v>
+      </c>
+      <c r="T38">
+        <v>68335700</v>
+      </c>
+      <c r="U38">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V38">
+        <v>28210903150</v>
+      </c>
+      <c r="W38">
+        <v>65053047700</v>
+      </c>
+      <c r="X38">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y38">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z38">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA38">
+        <v>224754.3</v>
+      </c>
+      <c r="AB38">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC38">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>427144827200</v>
       </c>
+      <c r="Q39">
+        <v>1349474645100</v>
+      </c>
+      <c r="R39">
+        <v>922329817900</v>
+      </c>
+      <c r="S39">
+        <v>93975300</v>
+      </c>
+      <c r="T39">
+        <v>69541300</v>
+      </c>
+      <c r="U39">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V39">
+        <v>28210903150</v>
+      </c>
+      <c r="W39">
+        <v>65053047700</v>
+      </c>
+      <c r="X39">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y39">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z39">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA39">
+        <v>224754.3</v>
+      </c>
+      <c r="AB39">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC39">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>443398265300</v>
       </c>
+      <c r="Q40">
+        <v>1389251356200</v>
+      </c>
+      <c r="R40">
+        <v>945853090900</v>
+      </c>
+      <c r="S40">
+        <v>96259600</v>
+      </c>
+      <c r="T40">
+        <v>71022900</v>
+      </c>
+      <c r="U40">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V40">
+        <v>28210903150</v>
+      </c>
+      <c r="W40">
+        <v>65053047700</v>
+      </c>
+      <c r="X40">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y40">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z40">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA40">
+        <v>224754.3</v>
+      </c>
+      <c r="AB40">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC40">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>450949550000</v>
       </c>
+      <c r="Q41">
+        <v>1421274932600</v>
+      </c>
+      <c r="R41">
+        <v>970325382600</v>
+      </c>
+      <c r="S41">
+        <v>98024500</v>
+      </c>
+      <c r="T41">
+        <v>72564600</v>
+      </c>
+      <c r="U41">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V41">
+        <v>28210903150</v>
+      </c>
+      <c r="W41">
+        <v>65053047700</v>
+      </c>
+      <c r="X41">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y41">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z41">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA41">
+        <v>224754.3</v>
+      </c>
+      <c r="AB41">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC41">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>482038039300</v>
       </c>
+      <c r="Q42">
+        <v>1472049701700</v>
+      </c>
+      <c r="R42">
+        <v>990011662400</v>
+      </c>
+      <c r="S42">
+        <v>100911000</v>
+      </c>
+      <c r="T42">
+        <v>73674600</v>
+      </c>
+      <c r="U42">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V42">
+        <v>28210903150</v>
+      </c>
+      <c r="W42">
+        <v>65053047700</v>
+      </c>
+      <c r="X42">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y42">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z42">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA42">
+        <v>224754.3</v>
+      </c>
+      <c r="AB42">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC42">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>506996315000</v>
       </c>
+      <c r="Q43">
+        <v>1516799628400</v>
+      </c>
+      <c r="R43">
+        <v>1009803313400</v>
+      </c>
+      <c r="S43">
+        <v>103351200</v>
+      </c>
+      <c r="T43">
+        <v>74886500</v>
+      </c>
+      <c r="U43">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V43">
+        <v>28210903150</v>
+      </c>
+      <c r="W43">
+        <v>65053047700</v>
+      </c>
+      <c r="X43">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y43">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z43">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA43">
+        <v>224754.3</v>
+      </c>
+      <c r="AB43">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC43">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>533465590500</v>
       </c>
+      <c r="Q44">
+        <v>1568197491500</v>
+      </c>
+      <c r="R44">
+        <v>1034731901000</v>
+      </c>
+      <c r="S44">
+        <v>106156900</v>
+      </c>
+      <c r="T44">
+        <v>76404000</v>
+      </c>
+      <c r="U44">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V44">
+        <v>28210903150</v>
+      </c>
+      <c r="W44">
+        <v>65053047700</v>
+      </c>
+      <c r="X44">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y44">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z44">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA44">
+        <v>224754.3</v>
+      </c>
+      <c r="AB44">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC44">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>556648350000</v>
       </c>
+      <c r="Q45">
+        <v>1610661275300</v>
+      </c>
+      <c r="R45">
+        <v>1054012925300</v>
+      </c>
+      <c r="S45">
+        <v>109519900</v>
+      </c>
+      <c r="T45">
+        <v>77537200</v>
+      </c>
+      <c r="U45">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V45">
+        <v>28210903150</v>
+      </c>
+      <c r="W45">
+        <v>65053047700</v>
+      </c>
+      <c r="X45">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y45">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z45">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA45">
+        <v>224754.3</v>
+      </c>
+      <c r="AB45">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC45">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>603753303200</v>
       </c>
+      <c r="Q46">
+        <v>1674172894800</v>
+      </c>
+      <c r="R46">
+        <v>1070419591600</v>
+      </c>
+      <c r="S46">
+        <v>113067800</v>
+      </c>
+      <c r="T46">
+        <v>78682600</v>
+      </c>
+      <c r="U46">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V46">
+        <v>28210903150</v>
+      </c>
+      <c r="W46">
+        <v>65053047700</v>
+      </c>
+      <c r="X46">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y46">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z46">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA46">
+        <v>224754.3</v>
+      </c>
+      <c r="AB46">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC46">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>639003543100</v>
       </c>
+      <c r="Q47">
+        <v>1726213301800</v>
+      </c>
+      <c r="R47">
+        <v>1087209758700</v>
+      </c>
+      <c r="S47">
+        <v>116435100</v>
+      </c>
+      <c r="T47">
+        <v>79689000</v>
+      </c>
+      <c r="U47">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V47">
+        <v>28210903150</v>
+      </c>
+      <c r="W47">
+        <v>65053047700</v>
+      </c>
+      <c r="X47">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y47">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z47">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA47">
+        <v>224754.3</v>
+      </c>
+      <c r="AB47">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC47">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>707379257100</v>
       </c>
+      <c r="Q48">
+        <v>1812407700800</v>
+      </c>
+      <c r="R48">
+        <v>1105028443700</v>
+      </c>
+      <c r="S48">
+        <v>121395300</v>
+      </c>
+      <c r="T48">
+        <v>80656400</v>
+      </c>
+      <c r="U48">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V48">
+        <v>28210903150</v>
+      </c>
+      <c r="W48">
+        <v>65053047700</v>
+      </c>
+      <c r="X48">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y48">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z48">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA48">
+        <v>224754.3</v>
+      </c>
+      <c r="AB48">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC48">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>791020362900</v>
       </c>
+      <c r="Q49">
+        <v>1922442135600</v>
+      </c>
+      <c r="R49">
+        <v>1131421772700</v>
+      </c>
+      <c r="S49">
+        <v>128159700</v>
+      </c>
+      <c r="T49">
+        <v>82320100</v>
+      </c>
+      <c r="U49">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V49">
+        <v>28210903150</v>
+      </c>
+      <c r="W49">
+        <v>65053047700</v>
+      </c>
+      <c r="X49">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y49">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z49">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA49">
+        <v>224754.3</v>
+      </c>
+      <c r="AB49">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC49">
+        <v>17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>905501723300</v>
       </c>
+      <c r="Q50">
+        <v>2061122892500</v>
+      </c>
+      <c r="R50">
+        <v>1155621169200</v>
+      </c>
+      <c r="S50">
+        <v>136029800</v>
+      </c>
+      <c r="T50">
+        <v>83946100</v>
+      </c>
+      <c r="U50">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V50">
+        <v>28210903150</v>
+      </c>
+      <c r="W50">
+        <v>65053047700</v>
+      </c>
+      <c r="X50">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y50">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z50">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA50">
+        <v>224754.3</v>
+      </c>
+      <c r="AB50">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC50">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>998111281200</v>
       </c>
+      <c r="Q51">
+        <v>2176872233500</v>
+      </c>
+      <c r="R51">
+        <v>1178760952300</v>
+      </c>
+      <c r="S51">
+        <v>143298600</v>
+      </c>
+      <c r="T51">
+        <v>85541300</v>
+      </c>
+      <c r="U51">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V51">
+        <v>28210903150</v>
+      </c>
+      <c r="W51">
+        <v>65053047700</v>
+      </c>
+      <c r="X51">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y51">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z51">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA51">
+        <v>224754.3</v>
+      </c>
+      <c r="AB51">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC51">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>1027263324900</v>
       </c>
+      <c r="Q52">
+        <v>2235059413700</v>
+      </c>
+      <c r="R52">
+        <v>1207796088800</v>
+      </c>
+      <c r="S52">
+        <v>147115200</v>
+      </c>
+      <c r="T52">
+        <v>87364000</v>
+      </c>
+      <c r="U52">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V52">
+        <v>28210903150</v>
+      </c>
+      <c r="W52">
+        <v>65053047700</v>
+      </c>
+      <c r="X52">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y52">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z52">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA52">
+        <v>224754.3</v>
+      </c>
+      <c r="AB52">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC52">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>1031311087300</v>
       </c>
+      <c r="Q53">
+        <v>2270708174200</v>
+      </c>
+      <c r="R53">
+        <v>1239397086900</v>
+      </c>
+      <c r="S53">
+        <v>149081200</v>
+      </c>
+      <c r="T53">
+        <v>89221700</v>
+      </c>
+      <c r="U53">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V53">
+        <v>28210903150</v>
+      </c>
+      <c r="W53">
+        <v>65053047700</v>
+      </c>
+      <c r="X53">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y53">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z53">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA53">
+        <v>224754.3</v>
+      </c>
+      <c r="AB53">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC53">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>1031896002900</v>
       </c>
+      <c r="Q54">
+        <v>2308359044700</v>
+      </c>
+      <c r="R54">
+        <v>1276463041800</v>
+      </c>
+      <c r="S54">
+        <v>151375800</v>
+      </c>
+      <c r="T54">
+        <v>91676300</v>
+      </c>
+      <c r="U54">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V54">
+        <v>28210903150</v>
+      </c>
+      <c r="W54">
+        <v>65053047700</v>
+      </c>
+      <c r="X54">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y54">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z54">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA54">
+        <v>224754.3</v>
+      </c>
+      <c r="AB54">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC54">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>1044081968200</v>
       </c>
+      <c r="Q55">
+        <v>2347229012900</v>
+      </c>
+      <c r="R55">
+        <v>1303147044700</v>
+      </c>
+      <c r="S55">
+        <v>153320000</v>
+      </c>
+      <c r="T55">
+        <v>93297200</v>
+      </c>
+      <c r="U55">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V55">
+        <v>28210903150</v>
+      </c>
+      <c r="W55">
+        <v>65053047700</v>
+      </c>
+      <c r="X55">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y55">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z55">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA55">
+        <v>224754.3</v>
+      </c>
+      <c r="AB55">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC55">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>1037629434500</v>
       </c>
+      <c r="Q56">
+        <v>2370573122200</v>
+      </c>
+      <c r="R56">
+        <v>1332943687700</v>
+      </c>
+      <c r="S56">
+        <v>154654100</v>
+      </c>
+      <c r="T56">
+        <v>95091500</v>
+      </c>
+      <c r="U56">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V56">
+        <v>28210903150</v>
+      </c>
+      <c r="W56">
+        <v>65053047700</v>
+      </c>
+      <c r="X56">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y56">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z56">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA56">
+        <v>224754.3</v>
+      </c>
+      <c r="AB56">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC56">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>1023693986300</v>
       </c>
+      <c r="Q57">
+        <v>2390549744900</v>
+      </c>
+      <c r="R57">
+        <v>1366855758600</v>
+      </c>
+      <c r="S57">
+        <v>155667400</v>
+      </c>
+      <c r="T57">
+        <v>97129300</v>
+      </c>
+      <c r="U57">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V57">
+        <v>28210903150</v>
+      </c>
+      <c r="W57">
+        <v>65053047700</v>
+      </c>
+      <c r="X57">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y57">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z57">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA57">
+        <v>224754.3</v>
+      </c>
+      <c r="AB57">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC57">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>1033760273600</v>
       </c>
+      <c r="Q58">
+        <v>2425126860600</v>
+      </c>
+      <c r="R58">
+        <v>1391366587000</v>
+      </c>
+      <c r="S58">
+        <v>157343500</v>
+      </c>
+      <c r="T58">
+        <v>98929000</v>
+      </c>
+      <c r="U58">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V58">
+        <v>28210903150</v>
+      </c>
+      <c r="W58">
+        <v>65053047700</v>
+      </c>
+      <c r="X58">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y58">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z58">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA58">
+        <v>224754.3</v>
+      </c>
+      <c r="AB58">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC58">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>1034724579000</v>
       </c>
+      <c r="Q59">
+        <v>2449772587400</v>
+      </c>
+      <c r="R59">
+        <v>1415048008400</v>
+      </c>
+      <c r="S59">
+        <v>158827200</v>
+      </c>
+      <c r="T59">
+        <v>100702000</v>
+      </c>
+      <c r="U59">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V59">
+        <v>28210903150</v>
+      </c>
+      <c r="W59">
+        <v>65053047700</v>
+      </c>
+      <c r="X59">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y59">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z59">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA59">
+        <v>224754.3</v>
+      </c>
+      <c r="AB59">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC59">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>1024676596200</v>
       </c>
+      <c r="Q60">
+        <v>2466483567000</v>
+      </c>
+      <c r="R60">
+        <v>1441806970800</v>
+      </c>
+      <c r="S60">
+        <v>159649400</v>
+      </c>
+      <c r="T60">
+        <v>102216100</v>
+      </c>
+      <c r="U60">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V60">
+        <v>28210903150</v>
+      </c>
+      <c r="W60">
+        <v>65053047700</v>
+      </c>
+      <c r="X60">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y60">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z60">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA60">
+        <v>224754.3</v>
+      </c>
+      <c r="AB60">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>1028966956100</v>
       </c>
+      <c r="Q61">
+        <v>2487544477200</v>
+      </c>
+      <c r="R61">
+        <v>1458577521100</v>
+      </c>
+      <c r="S61">
+        <v>160635500</v>
+      </c>
+      <c r="T61">
+        <v>103408600</v>
+      </c>
+      <c r="U61">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V61">
+        <v>28210903150</v>
+      </c>
+      <c r="W61">
+        <v>65053047700</v>
+      </c>
+      <c r="X61">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y61">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z61">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA61">
+        <v>224754.3</v>
+      </c>
+      <c r="AB61">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC61">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>1025594193500</v>
       </c>
+      <c r="Q62">
+        <v>2509368612100</v>
+      </c>
+      <c r="R62">
+        <v>1483774418600</v>
+      </c>
+      <c r="S62">
+        <v>161897700</v>
+      </c>
+      <c r="T62">
+        <v>104653100</v>
+      </c>
+      <c r="U62">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V62">
+        <v>28210903150</v>
+      </c>
+      <c r="W62">
+        <v>65053047700</v>
+      </c>
+      <c r="X62">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y62">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z62">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA62">
+        <v>224754.3</v>
+      </c>
+      <c r="AB62">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC62">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>1026500287600</v>
       </c>
+      <c r="Q63">
+        <v>2538919000500</v>
+      </c>
+      <c r="R63">
+        <v>1512418712900</v>
+      </c>
+      <c r="S63">
+        <v>163258800</v>
+      </c>
+      <c r="T63">
+        <v>106153500</v>
+      </c>
+      <c r="U63">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V63">
+        <v>28210903150</v>
+      </c>
+      <c r="W63">
+        <v>65053047700</v>
+      </c>
+      <c r="X63">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y63">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z63">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA63">
+        <v>224754.3</v>
+      </c>
+      <c r="AB63">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC63">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>1030869894400</v>
       </c>
+      <c r="Q64">
+        <v>2561253458800</v>
+      </c>
+      <c r="R64">
+        <v>1530383564400</v>
+      </c>
+      <c r="S64">
+        <v>164480400</v>
+      </c>
+      <c r="T64">
+        <v>107104500</v>
+      </c>
+      <c r="U64">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V64">
+        <v>28210903150</v>
+      </c>
+      <c r="W64">
+        <v>65053047700</v>
+      </c>
+      <c r="X64">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y64">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z64">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA64">
+        <v>224754.3</v>
+      </c>
+      <c r="AB64">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC64">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>1037664279100</v>
       </c>
+      <c r="Q65">
+        <v>2586966379700</v>
+      </c>
+      <c r="R65">
+        <v>1549302100600</v>
+      </c>
+      <c r="S65">
+        <v>165809500</v>
+      </c>
+      <c r="T65">
+        <v>108218400</v>
+      </c>
+      <c r="U65">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V65">
+        <v>28210903150</v>
+      </c>
+      <c r="W65">
+        <v>65053047700</v>
+      </c>
+      <c r="X65">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y65">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z65">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA65">
+        <v>224754.3</v>
+      </c>
+      <c r="AB65">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC65">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>1048842607500</v>
       </c>
+      <c r="Q66">
+        <v>2608158373800</v>
+      </c>
+      <c r="R66">
+        <v>1559315766300</v>
+      </c>
+      <c r="S66">
+        <v>167048200</v>
+      </c>
+      <c r="T66">
+        <v>108823100</v>
+      </c>
+      <c r="U66">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V66">
+        <v>28210903150</v>
+      </c>
+      <c r="W66">
+        <v>65053047700</v>
+      </c>
+      <c r="X66">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y66">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z66">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA66">
+        <v>224754.3</v>
+      </c>
+      <c r="AB66">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC66">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>1049969731800</v>
       </c>
+      <c r="Q67">
+        <v>2624860623600</v>
+      </c>
+      <c r="R67">
+        <v>1574890891800</v>
+      </c>
+      <c r="S67">
+        <v>167993500</v>
+      </c>
+      <c r="T67">
+        <v>109721100</v>
+      </c>
+      <c r="U67">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V67">
+        <v>28210903150</v>
+      </c>
+      <c r="W67">
+        <v>65053047700</v>
+      </c>
+      <c r="X67">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y67">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z67">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA67">
+        <v>224754.3</v>
+      </c>
+      <c r="AB67">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC67">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>1046408625300</v>
       </c>
+      <c r="Q68">
+        <v>2636407009500</v>
+      </c>
+      <c r="R68">
+        <v>1589998384200</v>
+      </c>
+      <c r="S68">
+        <v>168725300</v>
+      </c>
+      <c r="T68">
+        <v>110603400</v>
+      </c>
+      <c r="U68">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V68">
+        <v>28210903150</v>
+      </c>
+      <c r="W68">
+        <v>65053047700</v>
+      </c>
+      <c r="X68">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y68">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z68">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA68">
+        <v>224754.3</v>
+      </c>
+      <c r="AB68">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC68">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>1036222574500</v>
       </c>
+      <c r="Q69">
+        <v>2647804137600</v>
+      </c>
+      <c r="R69">
+        <v>1611581563100</v>
+      </c>
+      <c r="S69">
+        <v>169326700</v>
+      </c>
+      <c r="T69">
+        <v>112056300</v>
+      </c>
+      <c r="U69">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V69">
+        <v>28210903150</v>
+      </c>
+      <c r="W69">
+        <v>65053047700</v>
+      </c>
+      <c r="X69">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y69">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z69">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA69">
+        <v>224754.3</v>
+      </c>
+      <c r="AB69">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC69">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>1035997750900</v>
       </c>
+      <c r="Q70">
+        <v>2647805119600</v>
+      </c>
+      <c r="R70">
+        <v>1611807368700</v>
+      </c>
+      <c r="S70">
+        <v>169328800</v>
+      </c>
+      <c r="T70">
+        <v>112093900</v>
+      </c>
+      <c r="U70">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V70">
+        <v>28210903150</v>
+      </c>
+      <c r="W70">
+        <v>65053047700</v>
+      </c>
+      <c r="X70">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y70">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z70">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA70">
+        <v>224754.3</v>
+      </c>
+      <c r="AB70">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>1019199867200</v>
       </c>
+      <c r="Q71">
+        <v>2686876299700</v>
+      </c>
+      <c r="R71">
+        <v>1667676432500</v>
+      </c>
+      <c r="S71">
+        <v>172329800</v>
+      </c>
+      <c r="T71">
+        <v>115938700</v>
+      </c>
+      <c r="U71">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V71">
+        <v>28210903150</v>
+      </c>
+      <c r="W71">
+        <v>65053047700</v>
+      </c>
+      <c r="X71">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y71">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z71">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA71">
+        <v>224754.3</v>
+      </c>
+      <c r="AB71">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC71">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>1013836361300</v>
       </c>
+      <c r="Q72">
+        <v>2702793751000</v>
+      </c>
+      <c r="R72">
+        <v>1688957389700</v>
+      </c>
+      <c r="S72">
+        <v>173390400</v>
+      </c>
+      <c r="T72">
+        <v>117353300</v>
+      </c>
+      <c r="U72">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V72">
+        <v>28210903150</v>
+      </c>
+      <c r="W72">
+        <v>65053047700</v>
+      </c>
+      <c r="X72">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y72">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z72">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA72">
+        <v>224754.3</v>
+      </c>
+      <c r="AB72">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC72">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>1014136196400</v>
       </c>
+      <c r="Q73">
+        <v>2730131034000</v>
+      </c>
+      <c r="R73">
+        <v>1715994837600</v>
+      </c>
+      <c r="S73">
+        <v>175144100</v>
+      </c>
+      <c r="T73">
+        <v>119036100</v>
+      </c>
+      <c r="U73">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V73">
+        <v>28210903150</v>
+      </c>
+      <c r="W73">
+        <v>65053047700</v>
+      </c>
+      <c r="X73">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y73">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z73">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA73">
+        <v>224754.3</v>
+      </c>
+      <c r="AB73">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC73">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>1030789120400</v>
       </c>
+      <c r="Q74">
+        <v>2774174728100</v>
+      </c>
+      <c r="R74">
+        <v>1743385607700</v>
+      </c>
+      <c r="S74">
+        <v>178426800</v>
+      </c>
+      <c r="T74">
+        <v>120702300</v>
+      </c>
+      <c r="U74">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V74">
+        <v>28210903150</v>
+      </c>
+      <c r="W74">
+        <v>65053047700</v>
+      </c>
+      <c r="X74">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y74">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z74">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA74">
+        <v>224754.3</v>
+      </c>
+      <c r="AB74">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC74">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>1044403668400</v>
       </c>
+      <c r="Q75">
+        <v>2807236053700</v>
+      </c>
+      <c r="R75">
+        <v>1762832385300</v>
+      </c>
+      <c r="S75">
+        <v>180429700</v>
+      </c>
+      <c r="T75">
+        <v>121870200</v>
+      </c>
+      <c r="U75">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V75">
+        <v>28210903150</v>
+      </c>
+      <c r="W75">
+        <v>65053047700</v>
+      </c>
+      <c r="X75">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y75">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z75">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA75">
+        <v>224754.3</v>
+      </c>
+      <c r="AB75">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC75">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>1074962956700</v>
       </c>
+      <c r="Q76">
+        <v>2858163898200</v>
+      </c>
+      <c r="R76">
+        <v>1783200941500</v>
+      </c>
+      <c r="S76">
+        <v>183341800</v>
+      </c>
+      <c r="T76">
+        <v>123257300</v>
+      </c>
+      <c r="U76">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V76">
+        <v>28210903150</v>
+      </c>
+      <c r="W76">
+        <v>65053047700</v>
+      </c>
+      <c r="X76">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y76">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z76">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA76">
+        <v>224754.3</v>
+      </c>
+      <c r="AB76">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC76">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>1090570564400</v>
       </c>
+      <c r="Q77">
+        <v>2893585344900</v>
+      </c>
+      <c r="R77">
+        <v>1803014780500</v>
+      </c>
+      <c r="S77">
+        <v>185684200</v>
+      </c>
+      <c r="T77">
+        <v>124574500</v>
+      </c>
+      <c r="U77">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V77">
+        <v>28210903150</v>
+      </c>
+      <c r="W77">
+        <v>65053047700</v>
+      </c>
+      <c r="X77">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y77">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z77">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA77">
+        <v>224754.3</v>
+      </c>
+      <c r="AB77">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC77">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>1095361427500</v>
       </c>
+      <c r="Q78">
+        <v>2927972619600</v>
+      </c>
+      <c r="R78">
+        <v>1832611192100</v>
+      </c>
+      <c r="S78">
+        <v>187830200</v>
+      </c>
+      <c r="T78">
+        <v>126350600</v>
+      </c>
+      <c r="U78">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V78">
+        <v>28210903150</v>
+      </c>
+      <c r="W78">
+        <v>65053047700</v>
+      </c>
+      <c r="X78">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y78">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z78">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA78">
+        <v>224754.3</v>
+      </c>
+      <c r="AB78">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>1113808472400</v>
       </c>
+      <c r="Q79">
+        <v>2969824902300</v>
+      </c>
+      <c r="R79">
+        <v>1856016429900</v>
+      </c>
+      <c r="S79">
+        <v>191020300</v>
+      </c>
+      <c r="T79">
+        <v>127915100</v>
+      </c>
+      <c r="U79">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V79">
+        <v>28210903150</v>
+      </c>
+      <c r="W79">
+        <v>65053047700</v>
+      </c>
+      <c r="X79">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y79">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z79">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA79">
+        <v>224754.3</v>
+      </c>
+      <c r="AB79">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC79">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>1121289804000</v>
       </c>
+      <c r="Q80">
+        <v>3009547009900</v>
+      </c>
+      <c r="R80">
+        <v>1888257205900</v>
+      </c>
+      <c r="S80">
+        <v>193328100</v>
+      </c>
+      <c r="T80">
+        <v>130042900</v>
+      </c>
+      <c r="U80">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V80">
+        <v>28210903150</v>
+      </c>
+      <c r="W80">
+        <v>65053047700</v>
+      </c>
+      <c r="X80">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y80">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z80">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA80">
+        <v>224754.3</v>
+      </c>
+      <c r="AB80">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC80">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>1115794345400</v>
       </c>
+      <c r="Q81">
+        <v>3031344012900</v>
+      </c>
+      <c r="R81">
+        <v>1915549667500</v>
+      </c>
+      <c r="S81">
+        <v>194585700</v>
+      </c>
+      <c r="T81">
+        <v>131845600</v>
+      </c>
+      <c r="U81">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V81">
+        <v>28210903150</v>
+      </c>
+      <c r="W81">
+        <v>65053047700</v>
+      </c>
+      <c r="X81">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y81">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z81">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA81">
+        <v>224754.3</v>
+      </c>
+      <c r="AB81">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC81">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>1098522895400</v>
       </c>
+      <c r="Q82">
+        <v>3046051496500</v>
+      </c>
+      <c r="R82">
+        <v>1947528601100</v>
+      </c>
+      <c r="S82">
+        <v>195526000</v>
+      </c>
+      <c r="T82">
+        <v>134109000</v>
+      </c>
+      <c r="U82">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V82">
+        <v>28210903150</v>
+      </c>
+      <c r="W82">
+        <v>65053047700</v>
+      </c>
+      <c r="X82">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y82">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z82">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA82">
+        <v>224754.3</v>
+      </c>
+      <c r="AB82">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC82">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>1058305863300</v>
       </c>
+      <c r="Q83">
+        <v>3060331657100</v>
+      </c>
+      <c r="R83">
+        <v>2002025793800</v>
+      </c>
+      <c r="S83">
+        <v>196435300</v>
+      </c>
+      <c r="T83">
+        <v>137661600</v>
+      </c>
+      <c r="U83">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V83">
+        <v>28210903150</v>
+      </c>
+      <c r="W83">
+        <v>65053047700</v>
+      </c>
+      <c r="X83">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y83">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z83">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA83">
+        <v>224754.3</v>
+      </c>
+      <c r="AB83">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC83">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>984830057800</v>
       </c>
+      <c r="Q84">
+        <v>3073299095600</v>
+      </c>
+      <c r="R84">
+        <v>2088469037800</v>
+      </c>
+      <c r="S84">
+        <v>197313800</v>
+      </c>
+      <c r="T84">
+        <v>142889200</v>
+      </c>
+      <c r="U84">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V84">
+        <v>28210903150</v>
+      </c>
+      <c r="W84">
+        <v>65053047700</v>
+      </c>
+      <c r="X84">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y84">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z84">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA84">
+        <v>224754.3</v>
+      </c>
+      <c r="AB84">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC84">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>949297801600</v>
       </c>
+      <c r="Q85">
+        <v>3088596693400</v>
+      </c>
+      <c r="R85">
+        <v>2139298891800</v>
+      </c>
+      <c r="S85">
+        <v>198278200</v>
+      </c>
+      <c r="T85">
+        <v>146250100</v>
+      </c>
+      <c r="U85">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V85">
+        <v>28210903150</v>
+      </c>
+      <c r="W85">
+        <v>65053047700</v>
+      </c>
+      <c r="X85">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y85">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z85">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA85">
+        <v>224754.3</v>
+      </c>
+      <c r="AB85">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC85">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>904049201400</v>
       </c>
+      <c r="Q86">
+        <v>3106312227600</v>
+      </c>
+      <c r="R86">
+        <v>2202263026200</v>
+      </c>
+      <c r="S86">
+        <v>199329200</v>
+      </c>
+      <c r="T86">
+        <v>150272000</v>
+      </c>
+      <c r="U86">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V86">
+        <v>28210903150</v>
+      </c>
+      <c r="W86">
+        <v>65053047700</v>
+      </c>
+      <c r="X86">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y86">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z86">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA86">
+        <v>224754.3</v>
+      </c>
+      <c r="AB86">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC86">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>909617086600</v>
       </c>
+      <c r="Q87">
+        <v>3139485988700</v>
+      </c>
+      <c r="R87">
+        <v>2229868902100</v>
+      </c>
+      <c r="S87">
+        <v>201689000</v>
+      </c>
+      <c r="T87">
+        <v>152201000</v>
+      </c>
+      <c r="U87">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V87">
+        <v>28210903150</v>
+      </c>
+      <c r="W87">
+        <v>65053047700</v>
+      </c>
+      <c r="X87">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y87">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z87">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA87">
+        <v>224754.3</v>
+      </c>
+      <c r="AB87">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC87">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>902616748000</v>
       </c>
+      <c r="Q88">
+        <v>3160863055400</v>
+      </c>
+      <c r="R88">
+        <v>2258246307400</v>
+      </c>
+      <c r="S88">
+        <v>203121000</v>
+      </c>
+      <c r="T88">
+        <v>154156700</v>
+      </c>
+      <c r="U88">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V88">
+        <v>28210903150</v>
+      </c>
+      <c r="W88">
+        <v>65053047700</v>
+      </c>
+      <c r="X88">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y88">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z88">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA88">
+        <v>224754.3</v>
+      </c>
+      <c r="AB88">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC88">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>901855830400</v>
       </c>
+      <c r="Q89">
+        <v>3179131969600</v>
+      </c>
+      <c r="R89">
+        <v>2277276139200</v>
+      </c>
+      <c r="S89">
+        <v>204309700</v>
+      </c>
+      <c r="T89">
+        <v>155495900</v>
+      </c>
+      <c r="U89">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V89">
+        <v>28210903150</v>
+      </c>
+      <c r="W89">
+        <v>65053047700</v>
+      </c>
+      <c r="X89">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y89">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z89">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA89">
+        <v>224754.3</v>
+      </c>
+      <c r="AB89">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC89">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>905721531600</v>
       </c>
+      <c r="Q90">
+        <v>3206276149400</v>
+      </c>
+      <c r="R90">
+        <v>2300554617800</v>
+      </c>
+      <c r="S90">
+        <v>206121200</v>
+      </c>
+      <c r="T90">
+        <v>157028900</v>
+      </c>
+      <c r="U90">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V90">
+        <v>28210903150</v>
+      </c>
+      <c r="W90">
+        <v>65053047700</v>
+      </c>
+      <c r="X90">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y90">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z90">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA90">
+        <v>224754.3</v>
+      </c>
+      <c r="AB90">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC90">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>903702784200</v>
       </c>
+      <c r="Q91">
+        <v>3223454204500</v>
+      </c>
+      <c r="R91">
+        <v>2319751420300</v>
+      </c>
+      <c r="S91">
+        <v>207230900</v>
+      </c>
+      <c r="T91">
+        <v>158371200</v>
+      </c>
+      <c r="U91">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V91">
+        <v>28210903150</v>
+      </c>
+      <c r="W91">
+        <v>65053047700</v>
+      </c>
+      <c r="X91">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y91">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z91">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA91">
+        <v>224754.3</v>
+      </c>
+      <c r="AB91">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC91">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>882534302100</v>
       </c>
+      <c r="Q92">
+        <v>3239062751600</v>
+      </c>
+      <c r="R92">
+        <v>2356528449500</v>
+      </c>
+      <c r="S92">
+        <v>208178600</v>
+      </c>
+      <c r="T92">
+        <v>160865400</v>
+      </c>
+      <c r="U92">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V92">
+        <v>28210903150</v>
+      </c>
+      <c r="W92">
+        <v>65053047700</v>
+      </c>
+      <c r="X92">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y92">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z92">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA92">
+        <v>224754.3</v>
+      </c>
+      <c r="AB92">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC92">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>852393544600</v>
       </c>
+      <c r="Q93">
+        <v>3253596752400</v>
+      </c>
+      <c r="R93">
+        <v>2401203207800</v>
+      </c>
+      <c r="S93">
+        <v>208982400</v>
+      </c>
+      <c r="T93">
+        <v>163688400</v>
+      </c>
+      <c r="U93">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V93">
+        <v>28210903150</v>
+      </c>
+      <c r="W93">
+        <v>65053047700</v>
+      </c>
+      <c r="X93">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y93">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z93">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA93">
+        <v>224754.3</v>
+      </c>
+      <c r="AB93">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC93">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>822371299300</v>
       </c>
+      <c r="Q94">
+        <v>3269866887200</v>
+      </c>
+      <c r="R94">
+        <v>2447495587900</v>
+      </c>
+      <c r="S94">
+        <v>209926000</v>
+      </c>
+      <c r="T94">
+        <v>166507600</v>
+      </c>
+      <c r="U94">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V94">
+        <v>28210903150</v>
+      </c>
+      <c r="W94">
+        <v>65053047700</v>
+      </c>
+      <c r="X94">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y94">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z94">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA94">
+        <v>224754.3</v>
+      </c>
+      <c r="AB94">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC94">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>806970839500</v>
       </c>
+      <c r="Q95">
+        <v>3291513144200</v>
+      </c>
+      <c r="R95">
+        <v>2484542304700</v>
+      </c>
+      <c r="S95">
+        <v>211093100</v>
+      </c>
+      <c r="T95">
+        <v>168877600</v>
+      </c>
+      <c r="U95">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V95">
+        <v>28210903150</v>
+      </c>
+      <c r="W95">
+        <v>65053047700</v>
+      </c>
+      <c r="X95">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y95">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z95">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA95">
+        <v>224754.3</v>
+      </c>
+      <c r="AB95">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC95">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>828486081800</v>
       </c>
+      <c r="Q96">
+        <v>3332699515200</v>
+      </c>
+      <c r="R96">
+        <v>2504213433400</v>
+      </c>
+      <c r="S96">
+        <v>213209700</v>
+      </c>
+      <c r="T96">
+        <v>170196700</v>
+      </c>
+      <c r="U96">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V96">
+        <v>28210903150</v>
+      </c>
+      <c r="W96">
+        <v>65053047700</v>
+      </c>
+      <c r="X96">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y96">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z96">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA96">
+        <v>224754.3</v>
+      </c>
+      <c r="AB96">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC96">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>840723708700</v>
       </c>
+      <c r="Q97">
+        <v>3364282494200</v>
+      </c>
+      <c r="R97">
+        <v>2523558785500</v>
+      </c>
+      <c r="S97">
+        <v>214843800</v>
+      </c>
+      <c r="T97">
+        <v>171456400</v>
+      </c>
+      <c r="U97">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V97">
+        <v>28210903150</v>
+      </c>
+      <c r="W97">
+        <v>65053047700</v>
+      </c>
+      <c r="X97">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y97">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z97">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA97">
+        <v>224754.3</v>
+      </c>
+      <c r="AB97">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC97">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>846896781600</v>
       </c>
+      <c r="Q98">
+        <v>3392504126900</v>
+      </c>
+      <c r="R98">
+        <v>2545607345300</v>
+      </c>
+      <c r="S98">
+        <v>216419000</v>
+      </c>
+      <c r="T98">
+        <v>172754500</v>
+      </c>
+      <c r="U98">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V98">
+        <v>28210903150</v>
+      </c>
+      <c r="W98">
+        <v>65053047700</v>
+      </c>
+      <c r="X98">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y98">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z98">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA98">
+        <v>224754.3</v>
+      </c>
+      <c r="AB98">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC98">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>847406332000</v>
       </c>
+      <c r="Q99">
+        <v>3416805034200</v>
+      </c>
+      <c r="R99">
+        <v>2569398702200</v>
+      </c>
+      <c r="S99">
+        <v>217638200</v>
+      </c>
+      <c r="T99">
+        <v>174134400</v>
+      </c>
+      <c r="U99">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V99">
+        <v>28210903150</v>
+      </c>
+      <c r="W99">
+        <v>65053047700</v>
+      </c>
+      <c r="X99">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y99">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z99">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA99">
+        <v>224754.3</v>
+      </c>
+      <c r="AB99">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC99">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>812194943800</v>
       </c>
+      <c r="Q100">
+        <v>3429676072700</v>
+      </c>
+      <c r="R100">
+        <v>2617481128900</v>
+      </c>
+      <c r="S100">
+        <v>218310300</v>
+      </c>
+      <c r="T100">
+        <v>176856000</v>
+      </c>
+      <c r="U100">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V100">
+        <v>28210903150</v>
+      </c>
+      <c r="W100">
+        <v>65053047700</v>
+      </c>
+      <c r="X100">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y100">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z100">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA100">
+        <v>224754.3</v>
+      </c>
+      <c r="AB100">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC100">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>770346373800</v>
       </c>
+      <c r="Q101">
+        <v>3448259650500</v>
+      </c>
+      <c r="R101">
+        <v>2677913276700</v>
+      </c>
+      <c r="S101">
+        <v>219346900</v>
+      </c>
+      <c r="T101">
+        <v>180608700</v>
+      </c>
+      <c r="U101">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V101">
+        <v>28210903150</v>
+      </c>
+      <c r="W101">
+        <v>65053047700</v>
+      </c>
+      <c r="X101">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y101">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z101">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA101">
+        <v>224754.3</v>
+      </c>
+      <c r="AB101">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC101">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>733522606000</v>
       </c>
+      <c r="Q102">
+        <v>3467056043900</v>
+      </c>
+      <c r="R102">
+        <v>2733533437900</v>
+      </c>
+      <c r="S102">
+        <v>220433000</v>
+      </c>
+      <c r="T102">
+        <v>184147200</v>
+      </c>
+      <c r="U102">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V102">
+        <v>28210903150</v>
+      </c>
+      <c r="W102">
+        <v>65053047700</v>
+      </c>
+      <c r="X102">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y102">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z102">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA102">
+        <v>224754.3</v>
+      </c>
+      <c r="AB102">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC102">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>715446266600</v>
       </c>
+      <c r="Q103">
+        <v>3490023079600</v>
+      </c>
+      <c r="R103">
+        <v>2774576813000</v>
+      </c>
+      <c r="S103">
+        <v>221813900</v>
+      </c>
+      <c r="T103">
+        <v>186521100</v>
+      </c>
+      <c r="U103">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V103">
+        <v>28210903150</v>
+      </c>
+      <c r="W103">
+        <v>65053047700</v>
+      </c>
+      <c r="X103">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y103">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z103">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA103">
+        <v>224754.3</v>
+      </c>
+      <c r="AB103">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC103">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>707209486600</v>
       </c>
+      <c r="Q104">
+        <v>3507457642300</v>
+      </c>
+      <c r="R104">
+        <v>2800248155700</v>
+      </c>
+      <c r="S104">
+        <v>222811800</v>
+      </c>
+      <c r="T104">
+        <v>188210500</v>
+      </c>
+      <c r="U104">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V104">
+        <v>28210903150</v>
+      </c>
+      <c r="W104">
+        <v>65053047700</v>
+      </c>
+      <c r="X104">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y104">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z104">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA104">
+        <v>224754.3</v>
+      </c>
+      <c r="AB104">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC104">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>712866794200</v>
       </c>
+      <c r="Q105">
+        <v>3537350623300</v>
+      </c>
+      <c r="R105">
+        <v>2824483829100</v>
+      </c>
+      <c r="S105">
+        <v>224432900</v>
+      </c>
+      <c r="T105">
+        <v>189750900</v>
+      </c>
+      <c r="U105">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V105">
+        <v>28210903150</v>
+      </c>
+      <c r="W105">
+        <v>65053047700</v>
+      </c>
+      <c r="X105">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y105">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z105">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA105">
+        <v>224754.3</v>
+      </c>
+      <c r="AB105">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC105">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>721355309100</v>
       </c>
+      <c r="Q106">
+        <v>3565179436000</v>
+      </c>
+      <c r="R106">
+        <v>2843824126900</v>
+      </c>
+      <c r="S106">
+        <v>225969700</v>
+      </c>
+      <c r="T106">
+        <v>190951000</v>
+      </c>
+      <c r="U106">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V106">
+        <v>28210903150</v>
+      </c>
+      <c r="W106">
+        <v>65053047700</v>
+      </c>
+      <c r="X106">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y106">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z106">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA106">
+        <v>224754.3</v>
+      </c>
+      <c r="AB106">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC106">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>720243830900</v>
       </c>
+      <c r="Q107">
+        <v>3593083911600</v>
+      </c>
+      <c r="R107">
+        <v>2872840080700</v>
+      </c>
+      <c r="S107">
+        <v>227792500</v>
+      </c>
+      <c r="T107">
+        <v>192521300</v>
+      </c>
+      <c r="U107">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V107">
+        <v>28210903150</v>
+      </c>
+      <c r="W107">
+        <v>65053047700</v>
+      </c>
+      <c r="X107">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y107">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z107">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA107">
+        <v>224754.3</v>
+      </c>
+      <c r="AB107">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC107">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>710671383200</v>
       </c>
+      <c r="Q108">
+        <v>3611534013000</v>
+      </c>
+      <c r="R108">
+        <v>2900862629800</v>
+      </c>
+      <c r="S108">
+        <v>228988200</v>
+      </c>
+      <c r="T108">
+        <v>194022100</v>
+      </c>
+      <c r="U108">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V108">
+        <v>28210903150</v>
+      </c>
+      <c r="W108">
+        <v>65053047700</v>
+      </c>
+      <c r="X108">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y108">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z108">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA108">
+        <v>224754.3</v>
+      </c>
+      <c r="AB108">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC108">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>697329231500</v>
       </c>
+      <c r="Q109">
+        <v>3632390884600</v>
+      </c>
+      <c r="R109">
+        <v>2935061653100</v>
+      </c>
+      <c r="S109">
+        <v>230238800</v>
+      </c>
+      <c r="T109">
+        <v>195761400</v>
+      </c>
+      <c r="U109">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V109">
+        <v>28210903150</v>
+      </c>
+      <c r="W109">
+        <v>65053047700</v>
+      </c>
+      <c r="X109">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y109">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z109">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA109">
+        <v>224754.3</v>
+      </c>
+      <c r="AB109">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC109">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>619386185400</v>
       </c>
+      <c r="Q110">
+        <v>3651688793400</v>
+      </c>
+      <c r="R110">
+        <v>3032302608000</v>
+      </c>
+      <c r="S110">
+        <v>231346900</v>
+      </c>
+      <c r="T110">
+        <v>201758400</v>
+      </c>
+      <c r="U110">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V110">
+        <v>28210903150</v>
+      </c>
+      <c r="W110">
+        <v>65053047700</v>
+      </c>
+      <c r="X110">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y110">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z110">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA110">
+        <v>224754.3</v>
+      </c>
+      <c r="AB110">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC110">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>583750572800</v>
       </c>
+      <c r="Q111">
+        <v>3681160285200</v>
+      </c>
+      <c r="R111">
+        <v>3097409712400</v>
+      </c>
+      <c r="S111">
+        <v>233018300</v>
+      </c>
+      <c r="T111">
+        <v>205795000</v>
+      </c>
+      <c r="U111">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V111">
+        <v>28210903150</v>
+      </c>
+      <c r="W111">
+        <v>65053047700</v>
+      </c>
+      <c r="X111">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y111">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z111">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA111">
+        <v>224754.3</v>
+      </c>
+      <c r="AB111">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC111">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>574419194200</v>
       </c>
+      <c r="Q112">
+        <v>3714262305100</v>
+      </c>
+      <c r="R112">
+        <v>3139843110900</v>
+      </c>
+      <c r="S112">
+        <v>234941600</v>
+      </c>
+      <c r="T112">
+        <v>208252300</v>
+      </c>
+      <c r="U112">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V112">
+        <v>28210903150</v>
+      </c>
+      <c r="W112">
+        <v>65053047700</v>
+      </c>
+      <c r="X112">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y112">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z112">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA112">
+        <v>224754.3</v>
+      </c>
+      <c r="AB112">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC112">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>575447041800</v>
       </c>
+      <c r="Q113">
+        <v>3751485807900</v>
+      </c>
+      <c r="R113">
+        <v>3176038766100</v>
+      </c>
+      <c r="S113">
+        <v>237201300</v>
+      </c>
+      <c r="T113">
+        <v>210467000</v>
+      </c>
+      <c r="U113">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V113">
+        <v>28210903150</v>
+      </c>
+      <c r="W113">
+        <v>65053047700</v>
+      </c>
+      <c r="X113">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y113">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z113">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA113">
+        <v>224754.3</v>
+      </c>
+      <c r="AB113">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC113">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>582693521100</v>
       </c>
+      <c r="Q114">
+        <v>3794906653400</v>
+      </c>
+      <c r="R114">
+        <v>3212213132300</v>
+      </c>
+      <c r="S114">
+        <v>239789900</v>
+      </c>
+      <c r="T114">
+        <v>212408300</v>
+      </c>
+      <c r="U114">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V114">
+        <v>28210903150</v>
+      </c>
+      <c r="W114">
+        <v>65053047700</v>
+      </c>
+      <c r="X114">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y114">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z114">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA114">
+        <v>224754.3</v>
+      </c>
+      <c r="AB114">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC114">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>585741354800</v>
       </c>
+      <c r="Q115">
+        <v>3835605568100</v>
+      </c>
+      <c r="R115">
+        <v>3249864213300</v>
+      </c>
+      <c r="S115">
+        <v>242278500</v>
+      </c>
+      <c r="T115">
+        <v>214876700</v>
+      </c>
+      <c r="U115">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V115">
+        <v>28210903150</v>
+      </c>
+      <c r="W115">
+        <v>65053047700</v>
+      </c>
+      <c r="X115">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y115">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z115">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA115">
+        <v>224754.3</v>
+      </c>
+      <c r="AB115">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC115">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>585637681300</v>
       </c>
+      <c r="Q116">
+        <v>3835956292100</v>
+      </c>
+      <c r="R116">
+        <v>3250318610800</v>
+      </c>
+      <c r="S116">
+        <v>242297500</v>
+      </c>
+      <c r="T116">
+        <v>214906700</v>
+      </c>
+      <c r="U116">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V116">
+        <v>28210903150</v>
+      </c>
+      <c r="W116">
+        <v>65053047700</v>
+      </c>
+      <c r="X116">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y116">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z116">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA116">
+        <v>224754.3</v>
+      </c>
+      <c r="AB116">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>570953624600</v>
       </c>
+      <c r="Q117">
+        <v>3843418390000</v>
+      </c>
+      <c r="R117">
+        <v>3272464765400</v>
+      </c>
+      <c r="S117">
+        <v>242724500</v>
+      </c>
+      <c r="T117">
+        <v>216653000</v>
+      </c>
+      <c r="U117">
+        <v>33132917155.2</v>
+      </c>
+      <c r="V117">
+        <v>28210903150</v>
+      </c>
+      <c r="W117">
+        <v>65053047700</v>
+      </c>
+      <c r="X117">
+        <v>4203339.7</v>
+      </c>
+      <c r="Y117">
+        <v>2092452.6</v>
+      </c>
+      <c r="Z117">
+        <v>1867698.3</v>
+      </c>
+      <c r="AA117">
+        <v>224754.3</v>
+      </c>
+      <c r="AB117">
+        <v>4922014005.2</v>
+      </c>
+      <c r="AC117">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>